--- a/analysis_df.xlsx
+++ b/analysis_df.xlsx
@@ -455,7 +455,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Spain Monthly Inflation Rate</t>
+          <t>Spain Monthly Inflation Rate %</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -480,7 +480,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>US Monthly Inflation Rate</t>
+          <t>US Monthly Inflation Rate %</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -547,7 +547,7 @@
         <v>99.61635340183723</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.00422424558490786</v>
+        <v>0.00422424558490786</v>
       </c>
     </row>
     <row r="4">
@@ -579,7 +579,7 @@
         <v>99.37890223064426</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.001217702819008015</v>
+        <v>0.001217702819008015</v>
       </c>
     </row>
     <row r="5">
@@ -611,7 +611,7 @@
         <v>99.06835334596636</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.00258843563800637</v>
+        <v>0.00258843563800637</v>
       </c>
     </row>
     <row r="6">
@@ -643,7 +643,7 @@
         <v>98.86489028359119</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.003046092120312149</v>
+        <v>0.003046092120312149</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>98.56458439061183</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.004204977657764952</v>
+        <v>0.004204977657764952</v>
       </c>
     </row>
     <row r="8">
@@ -707,7 +707,7 @@
         <v>97.77121812450822</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0004079060781189137</v>
+        <v>0.0004079060781189137</v>
       </c>
     </row>
     <row r="9">
@@ -739,7 +739,7 @@
         <v>96.85866068227638</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00203996141567675</v>
+        <v>-0.00203996141567675</v>
       </c>
     </row>
     <row r="10">
@@ -771,7 +771,7 @@
         <v>95.12014563671833</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006105823597438054</v>
+        <v>-0.006105823597438054</v>
       </c>
     </row>
     <row r="11">
@@ -803,7 +803,7 @@
         <v>93.43563909284342</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.004126346685026094</v>
+        <v>0.004126346685026094</v>
       </c>
     </row>
     <row r="12">
@@ -835,7 +835,7 @@
         <v>91.06112738091359</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001210331283034494</v>
+        <v>-0.001210331283034494</v>
       </c>
     </row>
     <row r="13">
@@ -867,7 +867,7 @@
         <v>90.1327398606022</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00745699973911873</v>
+        <v>-0.00745699973911873</v>
       </c>
     </row>
     <row r="14">
@@ -901,7 +901,7 @@
         <v>88.72386291152384</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004200705076184308</v>
+        <v>-0.004200705076184308</v>
       </c>
     </row>
     <row r="15">
@@ -937,7 +937,7 @@
         <v>88.3597711156946</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.008167572999077999</v>
+        <v>0.008167572999077999</v>
       </c>
     </row>
     <row r="16">
@@ -973,7 +973,7 @@
         <v>88.40726134993319</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.004418304630686931</v>
+        <v>0.004418304630686931</v>
       </c>
     </row>
     <row r="17">
@@ -1009,7 +1009,7 @@
         <v>89.23089100060061</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002622583347786422</v>
+        <v>-0.002622583347786422</v>
       </c>
     </row>
     <row r="18">
@@ -1045,7 +1045,7 @@
         <v>89.37894878969742</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.002615723395167913</v>
+        <v>0.002615723395167913</v>
       </c>
     </row>
     <row r="19">
@@ -1081,7 +1081,7 @@
         <v>89.89575427994097</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.005447178639281569</v>
+        <v>0.005447178639281569</v>
       </c>
     </row>
     <row r="20">
@@ -1117,7 +1117,7 @@
         <v>89.55447642016752</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.006711409395971479</v>
+        <v>0.006711409395971479</v>
       </c>
     </row>
     <row r="21">
@@ -1153,7 +1153,7 @@
         <v>91.44896429386212</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004956284990363824</v>
+        <v>-0.004956284990363824</v>
       </c>
     </row>
     <row r="22">
@@ -1189,7 +1189,7 @@
         <v>90.88746211257049</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.002534519832519289</v>
+        <v>0.002534519832519289</v>
       </c>
     </row>
     <row r="23">
@@ -1225,7 +1225,7 @@
         <v>89.26255115675968</v>
       </c>
       <c r="L23" t="n">
-        <v>0.003844702367967301</v>
+        <v>-0.003844702367967301</v>
       </c>
     </row>
     <row r="24">
@@ -1261,7 +1261,7 @@
         <v>87.66091972753644</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01552096494171051</v>
+        <v>-0.01552096494171051</v>
       </c>
     </row>
     <row r="25">
@@ -1297,7 +1297,7 @@
         <v>87.31172682872322</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001786533636622512</v>
+        <v>-0.001786533636622512</v>
       </c>
     </row>
     <row r="26">
@@ -1333,7 +1333,7 @@
         <v>86.831702990488</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.001783347626102549</v>
+        <v>0.001783347626102549</v>
       </c>
     </row>
     <row r="27">
@@ -1371,7 +1371,7 @@
         <v>86.19011923773519</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00123199229415305</v>
+        <v>-0.00123199229415305</v>
       </c>
     </row>
     <row r="28">
@@ -1409,7 +1409,7 @@
         <v>85.3366917930357</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00869382347864911</v>
+        <v>-0.00869382347864911</v>
       </c>
     </row>
     <row r="29">
@@ -1447,7 +1447,7 @@
         <v>84.70209189825917</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01078166316311324</v>
+        <v>-0.01078166316311324</v>
       </c>
     </row>
     <row r="30">
@@ -1485,7 +1485,7 @@
         <v>84.38595592720027</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01274872419654671</v>
+        <v>-0.01274872419654671</v>
       </c>
     </row>
     <row r="31">
@@ -1523,7 +1523,7 @@
         <v>86.08908609234523</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00514966640112613</v>
+        <v>-0.00514966640112613</v>
       </c>
     </row>
     <row r="32">
@@ -1561,7 +1561,7 @@
         <v>82.80294811924705</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.003311258278144935</v>
+        <v>0.003311258278144935</v>
       </c>
     </row>
     <row r="33">
@@ -1599,7 +1599,7 @@
         <v>82.12365153342242</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.002466821290967536</v>
+        <v>0.002466821290967536</v>
       </c>
     </row>
     <row r="34">
@@ -1637,7 +1637,7 @@
         <v>81.9918894129369</v>
       </c>
       <c r="L34" t="n">
-        <v>0.002786919040120184</v>
+        <v>-0.002786919040120184</v>
       </c>
     </row>
     <row r="35">
@@ -1675,7 +1675,7 @@
         <v>81.17896834449976</v>
       </c>
       <c r="L35" t="n">
-        <v>0.009642506032378595</v>
+        <v>-0.009642506032378595</v>
       </c>
     </row>
     <row r="36">
@@ -1713,7 +1713,7 @@
         <v>80.4829104995321</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02565566776650674</v>
+        <v>-0.02565566776650674</v>
       </c>
     </row>
     <row r="37">
@@ -1751,7 +1751,7 @@
         <v>80.17655192963997</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01278066933192568</v>
+        <v>-0.01278066933192568</v>
       </c>
     </row>
     <row r="38">
@@ -1789,7 +1789,7 @@
         <v>79.97867595364582</v>
       </c>
       <c r="L38" t="n">
-        <v>0.002343635564669988</v>
+        <v>-0.002343635564669988</v>
       </c>
     </row>
     <row r="39">
@@ -1827,7 +1827,7 @@
         <v>79.6825603754522</v>
       </c>
       <c r="L39" t="n">
-        <v>0.007913567495671625</v>
+        <v>-0.007913567495671625</v>
       </c>
     </row>
     <row r="40">
@@ -1865,7 +1865,7 @@
         <v>80.02802855001141</v>
       </c>
       <c r="L40" t="n">
-        <v>0.01616095046528065</v>
+        <v>-0.01616095046528065</v>
       </c>
     </row>
     <row r="41">
@@ -1903,7 +1903,7 @@
         <v>79.80175155158045</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0007000859869498166</v>
+        <v>0.0007000859869498166</v>
       </c>
     </row>
     <row r="42">
@@ -1941,7 +1941,7 @@
         <v>79.67930124172995</v>
       </c>
       <c r="L42" t="n">
-        <v>0.005604956207938772</v>
+        <v>-0.005604956207938772</v>
       </c>
     </row>
     <row r="43">
@@ -1979,7 +1979,7 @@
         <v>79.45162747170374</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.02174237164556803</v>
+        <v>0.02174237164556803</v>
       </c>
     </row>
     <row r="44">
@@ -2017,7 +2017,7 @@
         <v>78.28951350445337</v>
       </c>
       <c r="L44" t="n">
-        <v>0.007380073594437819</v>
+        <v>-0.007380073594437819</v>
       </c>
     </row>
     <row r="45">
@@ -2055,7 +2055,7 @@
         <v>78.09769020537199</v>
       </c>
       <c r="L45" t="n">
-        <v>0.01035968191019521</v>
+        <v>-0.01035968191019521</v>
       </c>
     </row>
     <row r="46">
@@ -2093,7 +2093,7 @@
         <v>78.39613373622434</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.002259323727788698</v>
+        <v>0.002259323727788698</v>
       </c>
     </row>
     <row r="47">
@@ -2131,7 +2131,7 @@
         <v>78.90735214008689</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.0004702997618861726</v>
+        <v>0.0004702997618861726</v>
       </c>
     </row>
     <row r="48">
@@ -2169,7 +2169,7 @@
         <v>78.29882531508839</v>
       </c>
       <c r="L48" t="n">
-        <v>0.01250660391607772</v>
+        <v>-0.01250660391607772</v>
       </c>
     </row>
     <row r="49">
@@ -2207,7 +2207,7 @@
         <v>78.41941326281189</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0005272621409178058</v>
+        <v>-0.0005272621409178058</v>
       </c>
     </row>
     <row r="50">
@@ -2245,7 +2245,7 @@
         <v>78.59587207434551</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.001537957697086312</v>
+        <v>0.001537957697086312</v>
       </c>
     </row>
     <row r="51">
@@ -2283,7 +2283,7 @@
         <v>78.08186012729246</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0006846270415914457</v>
+        <v>-0.0006846270415914457</v>
       </c>
     </row>
     <row r="52">
@@ -2321,7 +2321,7 @@
         <v>78.65686443400489</v>
       </c>
       <c r="L52" t="n">
-        <v>0.003078882179669229</v>
+        <v>-0.003078882179669229</v>
       </c>
     </row>
     <row r="53">
@@ -2359,7 +2359,7 @@
         <v>78.67967837006069</v>
       </c>
       <c r="L53" t="n">
-        <v>0.003751825924400931</v>
+        <v>-0.003751825924400931</v>
       </c>
     </row>
     <row r="54">
@@ -2397,7 +2397,7 @@
         <v>78.47761207928076</v>
       </c>
       <c r="L54" t="n">
-        <v>0.002548243319803412</v>
+        <v>-0.002548243319803412</v>
       </c>
     </row>
     <row r="55">
@@ -2435,7 +2435,7 @@
         <v>77.24705630386302</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0101513677355054</v>
+        <v>-0.0101513677355054</v>
       </c>
     </row>
     <row r="56">
@@ -2473,7 +2473,7 @@
         <v>77.42118716273787</v>
       </c>
       <c r="L56" t="n">
-        <v>0.01834644951906994</v>
+        <v>-0.01834644951906994</v>
       </c>
     </row>
     <row r="57">
@@ -2511,7 +2511,7 @@
         <v>77.70892211135995</v>
       </c>
       <c r="L57" t="n">
-        <v>0.01892963376755263</v>
+        <v>-0.01892963376755263</v>
       </c>
     </row>
     <row r="58">
@@ -2549,7 +2549,7 @@
         <v>76.92021175057384</v>
       </c>
       <c r="L58" t="n">
-        <v>0.006604844214697092</v>
+        <v>-0.006604844214697092</v>
       </c>
     </row>
     <row r="59">
@@ -2587,7 +2587,7 @@
         <v>76.28933658005131</v>
       </c>
       <c r="L59" t="n">
-        <v>0.01643820649107663</v>
+        <v>-0.01643820649107663</v>
       </c>
     </row>
     <row r="60">
@@ -2625,7 +2625,7 @@
         <v>79.22116015848702</v>
       </c>
       <c r="L60" t="n">
-        <v>0.01986499373214357</v>
+        <v>-0.01986499373214357</v>
       </c>
     </row>
     <row r="61">
@@ -2663,7 +2663,7 @@
         <v>77.62511581564479</v>
       </c>
       <c r="L61" t="n">
-        <v>0.01166361472119637</v>
+        <v>-0.01166361472119637</v>
       </c>
     </row>
     <row r="62">
@@ -2701,7 +2701,7 @@
         <v>76.09099501352541</v>
       </c>
       <c r="L62" t="n">
-        <v>0.009860549624171711</v>
+        <v>-0.009860549624171711</v>
       </c>
     </row>
     <row r="63">
@@ -2739,7 +2739,7 @@
         <v>74.47073996303212</v>
       </c>
       <c r="L63" t="n">
-        <v>0.01712470661387377</v>
+        <v>-0.01712470661387377</v>
       </c>
     </row>
     <row r="64">
@@ -2777,7 +2777,7 @@
         <v>73.69785968032554</v>
       </c>
       <c r="L64" t="n">
-        <v>0.004622371597295061</v>
+        <v>-0.004622371597295061</v>
       </c>
     </row>
     <row r="65">
@@ -2815,7 +2815,7 @@
         <v>72.59627248220281</v>
       </c>
       <c r="L65" t="n">
-        <v>0.004132165673707666</v>
+        <v>-0.004132165673707666</v>
       </c>
     </row>
     <row r="66">
@@ -2853,7 +2853,7 @@
         <v>71.79405999599592</v>
       </c>
       <c r="L66" t="n">
-        <v>0.004073476553255295</v>
+        <v>-0.004073476553255295</v>
       </c>
     </row>
     <row r="67">
@@ -2891,7 +2891,7 @@
         <v>73.38544843352066</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.01086077583804967</v>
+        <v>0.01086077583804967</v>
       </c>
     </row>
     <row r="68">
@@ -2929,7 +2929,7 @@
         <v>72.4719598102253</v>
       </c>
       <c r="L68" t="n">
-        <v>0.00130964744027362</v>
+        <v>-0.00130964744027362</v>
       </c>
     </row>
     <row r="69">
@@ -2967,7 +2967,7 @@
         <v>73.79796164465201</v>
       </c>
       <c r="L69" t="n">
-        <v>0.005087333366314173</v>
+        <v>-0.005087333366314173</v>
       </c>
     </row>
     <row r="70">
@@ -3005,7 +3005,7 @@
         <v>73.19641867762978</v>
       </c>
       <c r="L70" t="n">
-        <v>0.009544488788894689</v>
+        <v>-0.009544488788894689</v>
       </c>
     </row>
     <row r="71">
@@ -3043,7 +3043,7 @@
         <v>72.8155656226575</v>
       </c>
       <c r="L71" t="n">
-        <v>0.002135494666063664</v>
+        <v>-0.002135494666063664</v>
       </c>
     </row>
     <row r="72">
@@ -3081,7 +3081,7 @@
         <v>72.38955028610539</v>
       </c>
       <c r="L72" t="n">
-        <v>0.02151593532632745</v>
+        <v>-0.02151593532632745</v>
       </c>
     </row>
     <row r="73">
@@ -3119,7 +3119,7 @@
         <v>71.93373715552121</v>
       </c>
       <c r="L73" t="n">
-        <v>0.00256466530004773</v>
+        <v>-0.00256466530004773</v>
       </c>
     </row>
     <row r="74">
@@ -3157,7 +3157,7 @@
         <v>70.88383050642283</v>
       </c>
       <c r="L74" t="n">
-        <v>-0.001803071716031557</v>
+        <v>0.001803071716031557</v>
       </c>
     </row>
     <row r="75">
@@ -3195,7 +3195,7 @@
         <v>69.6607241795131</v>
       </c>
       <c r="L75" t="n">
-        <v>-0.00712304037967515</v>
+        <v>0.00712304037967515</v>
       </c>
     </row>
     <row r="76">
@@ -3233,7 +3233,7 @@
         <v>69.95916771036545</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.003124999999999156</v>
+        <v>0.003124999999999156</v>
       </c>
     </row>
     <row r="77">
@@ -3271,7 +3271,7 @@
         <v>69.43770631480439</v>
       </c>
       <c r="L77" t="n">
-        <v>0.00336484400844772</v>
+        <v>-0.00336484400844772</v>
       </c>
     </row>
     <row r="78">
@@ -3309,7 +3309,7 @@
         <v>69.39394080481979</v>
       </c>
       <c r="L78" t="n">
-        <v>0.01460054976977299</v>
+        <v>-0.01460054976977299</v>
       </c>
     </row>
     <row r="79">
@@ -3347,7 +3347,7 @@
         <v>69.64210055824304</v>
       </c>
       <c r="L79" t="n">
-        <v>-0.001195411366206711</v>
+        <v>0.001195411366206711</v>
       </c>
     </row>
     <row r="80">
@@ -3385,7 +3385,7 @@
         <v>70.52858493069685</v>
       </c>
       <c r="L80" t="n">
-        <v>-0.003628369835030454</v>
+        <v>0.003628369835030454</v>
       </c>
     </row>
     <row r="81">
@@ -3423,7 +3423,7 @@
         <v>69.9065559802776</v>
       </c>
       <c r="L81" t="n">
-        <v>-0.004391353271963272</v>
+        <v>0.004391353271963272</v>
       </c>
     </row>
     <row r="82">
@@ -3461,7 +3461,7 @@
         <v>69.26124750327077</v>
       </c>
       <c r="L82" t="n">
-        <v>-0.00311274992059174</v>
+        <v>0.00311274992059174</v>
       </c>
     </row>
     <row r="83">
@@ -3499,7 +3499,7 @@
         <v>69.2780087624138</v>
       </c>
       <c r="L83" t="n">
-        <v>-7.214512767861336e-06</v>
+        <v>7.214512767861336e-06</v>
       </c>
     </row>
     <row r="84">
@@ -3537,7 +3537,7 @@
         <v>68.5121123376835</v>
       </c>
       <c r="L84" t="n">
-        <v>0.01740657415334268</v>
+        <v>-0.01740657415334268</v>
       </c>
     </row>
     <row r="85">
@@ -3575,7 +3575,7 @@
         <v>69.28778616358059</v>
       </c>
       <c r="L85" t="n">
-        <v>0.00649872827712783</v>
+        <v>-0.00649872827712783</v>
       </c>
     </row>
     <row r="86">
@@ -3613,7 +3613,7 @@
         <v>66.09430070630083</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0005270248655662169</v>
+        <v>-0.0005270248655662169</v>
       </c>
     </row>
     <row r="87">
@@ -3651,7 +3651,7 @@
         <v>65.17103468183872</v>
       </c>
       <c r="L87" t="n">
-        <v>0.007770623204448102</v>
+        <v>-0.007770623204448102</v>
       </c>
     </row>
     <row r="88">
@@ -3689,7 +3689,7 @@
         <v>64.50570581196662</v>
       </c>
       <c r="L88" t="n">
-        <v>0.001142228729428263</v>
+        <v>-0.001142228729428263</v>
       </c>
     </row>
     <row r="89">
@@ -3727,7 +3727,7 @@
         <v>64.74362257369135</v>
       </c>
       <c r="L89" t="n">
-        <v>0.01089465764348674</v>
+        <v>-0.01089465764348674</v>
       </c>
     </row>
     <row r="90">
@@ -3765,7 +3765,7 @@
         <v>64.91495988937569</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0004443510067118073</v>
+        <v>-0.0004443510067118073</v>
       </c>
     </row>
     <row r="91">
@@ -3803,7 +3803,7 @@
         <v>66.45978927372533</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.01170979227516378</v>
+        <v>0.01170979227516378</v>
       </c>
     </row>
     <row r="92">
@@ -3841,7 +3841,7 @@
         <v>66.2237348741276</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.002357971094103961</v>
+        <v>0.002357971094103961</v>
       </c>
     </row>
     <row r="93">
@@ -3879,7 +3879,7 @@
         <v>67.9985659811622</v>
       </c>
       <c r="L93" t="n">
-        <v>0.01157720415148189</v>
+        <v>-0.01157720415148189</v>
       </c>
     </row>
     <row r="94">
@@ -3917,7 +3917,7 @@
         <v>68.20249463406913</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.0001888485693775088</v>
+        <v>0.0001888485693775088</v>
       </c>
     </row>
     <row r="95">
@@ -3955,7 +3955,7 @@
         <v>69.49730190286851</v>
       </c>
       <c r="L95" t="n">
-        <v>0.001079660886059042</v>
+        <v>-0.001079660886059042</v>
       </c>
     </row>
     <row r="96">
@@ -3993,7 +3993,7 @@
         <v>71.8760039295841</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1720111906881427</v>
+        <v>-0.1720111906881427</v>
       </c>
     </row>
     <row r="97">
@@ -4031,7 +4031,7 @@
         <v>69.04800703972886</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.002958579881656043</v>
+        <v>0.002958579881656043</v>
       </c>
     </row>
     <row r="98">
@@ -4069,7 +4069,7 @@
         <v>68.06933574198835</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.003055376994546055</v>
+        <v>0.003055376994546055</v>
       </c>
     </row>
     <row r="99">
@@ -4107,7 +4107,7 @@
         <v>68.85990846490145</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.002932551319647203</v>
+        <v>0.002932551319647203</v>
       </c>
     </row>
     <row r="100">
@@ -4145,7 +4145,7 @@
         <v>64.84046540429554</v>
       </c>
       <c r="L100" t="n">
-        <v>0.007310044014622541</v>
+        <v>-0.007310044014622541</v>
       </c>
     </row>
     <row r="101">
@@ -4183,7 +4183,7 @@
         <v>64.43633282273572</v>
       </c>
       <c r="L101" t="n">
-        <v>0.005872602037740648</v>
+        <v>-0.005872602037740648</v>
       </c>
     </row>
     <row r="102">
@@ -4221,7 +4221,7 @@
         <v>66.80432626722103</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.006173728546979063</v>
+        <v>0.006173728546979063</v>
       </c>
     </row>
     <row r="103">
@@ -4259,7 +4259,7 @@
         <v>65.47413411800859</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.003005148178132799</v>
+        <v>0.003005148178132799</v>
       </c>
     </row>
     <row r="104">
@@ -4297,7 +4297,7 @@
         <v>66.88580461027745</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.01399524984963951</v>
+        <v>0.01399524984963951</v>
       </c>
     </row>
     <row r="105">
@@ -4335,7 +4335,7 @@
         <v>67.17074601570903</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.002254934597949454</v>
+        <v>0.002254934597949454</v>
       </c>
     </row>
     <row r="106">
@@ -4373,7 +4373,7 @@
         <v>68.13405282590173</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.00444291354097448</v>
+        <v>0.00444291354097448</v>
       </c>
     </row>
     <row r="107">
@@ -4411,7 +4411,7 @@
         <v>67.17307396836777</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.002521427004972709</v>
+        <v>0.002521427004972709</v>
       </c>
     </row>
     <row r="108">
@@ -4449,7 +4449,7 @@
         <v>72.91008050060294</v>
       </c>
       <c r="L108" t="n">
-        <v>0.003743609812795867</v>
+        <v>-0.003743609812795867</v>
       </c>
     </row>
     <row r="109">
@@ -4487,7 +4487,7 @@
         <v>73.14380694754192</v>
       </c>
       <c r="L109" t="n">
-        <v>0.003829803160074086</v>
+        <v>-0.003829803160074086</v>
       </c>
     </row>
     <row r="110">
@@ -4525,7 +4525,7 @@
         <v>71.95236077679125</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.005100617552322717</v>
+        <v>0.005100617552322717</v>
       </c>
     </row>
     <row r="111">
@@ -4563,7 +4563,7 @@
         <v>72.16373887820617</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.01164132579399324</v>
+        <v>0.01164132579399324</v>
       </c>
     </row>
     <row r="112">
@@ -4601,7 +4601,7 @@
         <v>73.36961835544112</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.002320039422217812</v>
+        <v>0.002320039422217812</v>
       </c>
     </row>
     <row r="113">
@@ -4639,7 +4639,7 @@
         <v>74.25051564151393</v>
       </c>
       <c r="L113" t="n">
-        <v>0.00626573859601276</v>
+        <v>-0.00626573859601276</v>
       </c>
     </row>
     <row r="114">
@@ -4677,7 +4677,7 @@
         <v>74.81993286184533</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.002754820936638369</v>
+        <v>0.002754820936638369</v>
       </c>
     </row>
     <row r="115">
@@ -4715,7 +4715,7 @@
         <v>74.7603372737812</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.01716265720718435</v>
+        <v>0.01716265720718435</v>
       </c>
     </row>
     <row r="116">
@@ -4753,7 +4753,7 @@
         <v>74.19557595876731</v>
       </c>
       <c r="L116" t="n">
-        <v>0.002365753371481594</v>
+        <v>-0.002365753371481594</v>
       </c>
     </row>
     <row r="117">
@@ -4791,7 +4791,7 @@
         <v>75.40285220759752</v>
       </c>
       <c r="L117" t="n">
-        <v>-0.002326694171267851</v>
+        <v>0.002326694171267851</v>
       </c>
     </row>
     <row r="118">
@@ -4829,7 +4829,7 @@
         <v>77.95475391212446</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.0007963198835889695</v>
+        <v>0.0007963198835889695</v>
       </c>
     </row>
     <row r="119">
@@ -4867,7 +4867,7 @@
         <v>75.96481997942091</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.001584856734449636</v>
+        <v>0.001584856734449636</v>
       </c>
     </row>
     <row r="120">
@@ -4905,7 +4905,7 @@
         <v>74.49588185174666</v>
       </c>
       <c r="L120" t="n">
-        <v>0.003524409035842835</v>
+        <v>-0.003524409035842835</v>
       </c>
     </row>
     <row r="121">
@@ -4943,7 +4943,7 @@
         <v>78.98091544410353</v>
       </c>
       <c r="L121" t="n">
-        <v>0.005236209461797259</v>
+        <v>-0.005236209461797259</v>
       </c>
     </row>
     <row r="122">
@@ -4981,7 +4981,7 @@
         <v>80.99659653321291</v>
       </c>
       <c r="L122" t="n">
-        <v>0.002112065246541173</v>
+        <v>-0.002112065246541173</v>
       </c>
     </row>
     <row r="123">
@@ -5019,7 +5019,7 @@
         <v>82.26812427542475</v>
       </c>
       <c r="L123" t="n">
-        <v>-0.009107580326193854</v>
+        <v>0.009107580326193854</v>
       </c>
     </row>
     <row r="124">
@@ -5057,7 +5057,7 @@
         <v>80.78289047913923</v>
       </c>
       <c r="L124" t="n">
-        <v>0.002399464692486308</v>
+        <v>-0.002399464692486308</v>
       </c>
     </row>
     <row r="125">
@@ -5095,7 +5095,7 @@
         <v>78.77191185440053</v>
       </c>
       <c r="L125" t="n">
-        <v>-0.002322696487554454</v>
+        <v>0.002322696487554454</v>
       </c>
     </row>
     <row r="126">
@@ -5133,7 +5133,7 @@
         <v>75.26219730795555</v>
       </c>
       <c r="L126" t="n">
-        <v>-0.009128809278855399</v>
+        <v>0.009128809278855399</v>
       </c>
     </row>
     <row r="127">
@@ -5171,7 +5171,7 @@
         <v>76.02297223683661</v>
       </c>
       <c r="L127" t="n">
-        <v>-0.001375110767865451</v>
+        <v>0.001375110767865451</v>
       </c>
     </row>
     <row r="128">
@@ -5209,7 +5209,7 @@
         <v>74.79893472886336</v>
       </c>
       <c r="L128" t="n">
-        <v>0.01368931952767261</v>
+        <v>-0.01368931952767261</v>
       </c>
     </row>
     <row r="129">
@@ -5247,7 +5247,7 @@
         <v>73.54370265526281</v>
       </c>
       <c r="L129" t="n">
-        <v>0.01578882091485023</v>
+        <v>-0.01578882091485023</v>
       </c>
     </row>
     <row r="130">
@@ -5285,7 +5285,7 @@
         <v>72.29545443963852</v>
       </c>
       <c r="L130" t="n">
-        <v>-0.0005762723587701135</v>
+        <v>0.0005762723587701135</v>
       </c>
     </row>
     <row r="131">
@@ -5323,7 +5323,7 @@
         <v>70.39677625115816</v>
       </c>
       <c r="L131" t="n">
-        <v>0.004845090316510925</v>
+        <v>-0.004845090316510925</v>
       </c>
     </row>
     <row r="132">
@@ -5361,7 +5361,7 @@
         <v>69.32778039025798</v>
       </c>
       <c r="L132" t="n">
-        <v>-0.002449799869567837</v>
+        <v>0.002449799869567837</v>
       </c>
     </row>
     <row r="133">
@@ -5399,7 +5399,7 @@
         <v>67.44958818517468</v>
       </c>
       <c r="L133" t="n">
-        <v>-0.002212664368975048</v>
+        <v>0.002212664368975048</v>
       </c>
     </row>
     <row r="134">
@@ -5437,7 +5437,7 @@
         <v>68.43710570301843</v>
       </c>
       <c r="L134" t="n">
-        <v>0.01055740150800344</v>
+        <v>-0.01055740150800344</v>
       </c>
     </row>
     <row r="135">
@@ -5475,7 +5475,7 @@
         <v>67.66795014456586</v>
       </c>
       <c r="L135" t="n">
-        <v>-0.00326665470013987</v>
+        <v>0.00326665470013987</v>
       </c>
     </row>
     <row r="136">
@@ -5513,7 +5513,7 @@
         <v>66.77308514254054</v>
       </c>
       <c r="L136" t="n">
-        <v>0.008056443396967872</v>
+        <v>-0.008056443396967872</v>
       </c>
     </row>
     <row r="137">
@@ -5551,7 +5551,7 @@
         <v>66.61264264529918</v>
       </c>
       <c r="L137" t="n">
-        <v>0.008058896345428446</v>
+        <v>-0.008058896345428446</v>
       </c>
     </row>
     <row r="138">
@@ -5589,7 +5589,7 @@
         <v>64.30042694651762</v>
       </c>
       <c r="L138" t="n">
-        <v>0.001133734292271926</v>
+        <v>-0.001133734292271926</v>
       </c>
     </row>
     <row r="139">
@@ -5627,7 +5627,7 @@
         <v>62.87292637616921</v>
       </c>
       <c r="L139" t="n">
-        <v>-0.003248233500315445</v>
+        <v>0.003248233500315445</v>
       </c>
     </row>
     <row r="140">
@@ -5665,7 +5665,7 @@
         <v>61.84210893887262</v>
       </c>
       <c r="L140" t="n">
-        <v>-0.002463054187196834</v>
+        <v>0.002463054187196834</v>
       </c>
     </row>
     <row r="141">
@@ -5703,7 +5703,7 @@
         <v>56.46593506874444</v>
       </c>
       <c r="L141" t="n">
-        <v>-0.007792139956600774</v>
+        <v>0.007792139956600774</v>
       </c>
     </row>
     <row r="142">
@@ -5741,7 +5741,7 @@
         <v>56.47710924150646</v>
       </c>
       <c r="L142" t="n">
-        <v>0.008630593516223861</v>
+        <v>-0.008630593516223861</v>
       </c>
     </row>
     <row r="143">
@@ -5779,7 +5779,7 @@
         <v>56.55016039593819</v>
       </c>
       <c r="L143" t="n">
-        <v>0.002944456309809773</v>
+        <v>-0.002944456309809773</v>
       </c>
     </row>
     <row r="144">
@@ -5817,7 +5817,7 @@
         <v>56.47752827298505</v>
       </c>
       <c r="L144" t="n">
-        <v>0.008404231727080491</v>
+        <v>-0.008404231727080491</v>
       </c>
     </row>
     <row r="145">
@@ -5855,7 +5855,7 @@
         <v>57.33544972068015</v>
       </c>
       <c r="L145" t="n">
-        <v>-0.00824913547776851</v>
+        <v>0.00824913547776851</v>
       </c>
     </row>
     <row r="146">
@@ -5893,7 +5893,7 @@
         <v>60.91800622187344</v>
       </c>
       <c r="L146" t="n">
-        <v>-0.02185817208293295</v>
+        <v>0.02185817208293295</v>
       </c>
     </row>
     <row r="147">
@@ -5931,7 +5931,7 @@
         <v>58.36092974179886</v>
       </c>
       <c r="L147" t="n">
-        <v>-0.005659592345964803</v>
+        <v>0.005659592345964803</v>
       </c>
     </row>
     <row r="148">
@@ -5969,7 +5969,7 @@
         <v>58.08317179093589</v>
       </c>
       <c r="L148" t="n">
-        <v>-0.00585852880359794</v>
+        <v>0.00585852880359794</v>
       </c>
     </row>
     <row r="149">
@@ -6007,7 +6007,7 @@
         <v>58.07173662755085</v>
       </c>
       <c r="L149" t="n">
-        <v>-0.01002357903140072</v>
+        <v>0.01002357903140072</v>
       </c>
     </row>
     <row r="150">
@@ -6045,7 +6045,7 @@
         <v>62.13080548389848</v>
       </c>
       <c r="L150" t="n">
-        <v>0.002397353283005721</v>
+        <v>-0.002397353283005721</v>
       </c>
     </row>
     <row r="151">
@@ -6083,7 +6083,7 @@
         <v>62.10324260532963</v>
       </c>
       <c r="L151" t="n">
-        <v>-0.001435636930765316</v>
+        <v>0.001435636930765316</v>
       </c>
     </row>
     <row r="152">
@@ -6121,7 +6121,7 @@
         <v>60.94389564255871</v>
       </c>
       <c r="L152" t="n">
-        <v>-0.006626544631356923</v>
+        <v>0.006626544631356923</v>
       </c>
     </row>
     <row r="153">
@@ -6159,7 +6159,7 @@
         <v>61.10014788569753</v>
       </c>
       <c r="L153" t="n">
-        <v>0.008026117420064871</v>
+        <v>-0.008026117420064871</v>
       </c>
     </row>
     <row r="154">
@@ -6197,7 +6197,7 @@
         <v>61.5361535399337</v>
       </c>
       <c r="L154" t="n">
-        <v>0.01159751487193694</v>
+        <v>-0.01159751487193694</v>
       </c>
     </row>
     <row r="155">
@@ -6235,7 +6235,7 @@
         <v>61.98157741249459</v>
       </c>
       <c r="L155" t="n">
-        <v>0.002424926736434241</v>
+        <v>-0.002424926736434241</v>
       </c>
     </row>
     <row r="156">
@@ -6273,7 +6273,7 @@
         <v>61.95310994214199</v>
       </c>
       <c r="L156" t="n">
-        <v>-0.0009979304899030428</v>
+        <v>0.0009979304899030428</v>
       </c>
     </row>
     <row r="157">
@@ -6311,7 +6311,7 @@
         <v>61.22665576621024</v>
       </c>
       <c r="L157" t="n">
-        <v>0.005502132975938601</v>
+        <v>-0.005502132975938601</v>
       </c>
     </row>
     <row r="158">
@@ -6349,7 +6349,7 @@
         <v>60.77511281939045</v>
       </c>
       <c r="L158" t="n">
-        <v>0.004995658969016548</v>
+        <v>-0.004995658969016548</v>
       </c>
     </row>
     <row r="159">
@@ -6387,7 +6387,7 @@
         <v>61.43756324408072</v>
       </c>
       <c r="L159" t="n">
-        <v>-0.04384861055587796</v>
+        <v>0.04384861055587796</v>
       </c>
     </row>
     <row r="160">
@@ -6425,7 +6425,7 @@
         <v>61.46452306741239</v>
       </c>
       <c r="L160" t="n">
-        <v>-0.04879036241521439</v>
+        <v>0.04879036241521439</v>
       </c>
     </row>
     <row r="161">
@@ -6463,7 +6463,7 @@
         <v>61.33124044081507</v>
       </c>
       <c r="L161" t="n">
-        <v>0.003724384823513116</v>
+        <v>-0.003724384823513116</v>
       </c>
     </row>
     <row r="162">
@@ -6501,7 +6501,7 @@
         <v>61.3875842248821</v>
       </c>
       <c r="L162" t="n">
-        <v>0.008385659107676302</v>
+        <v>-0.008385659107676302</v>
       </c>
     </row>
     <row r="163">
@@ -6539,7 +6539,7 @@
         <v>61.37954345761823</v>
       </c>
       <c r="L163" t="n">
-        <v>0.008030677962678867</v>
+        <v>-0.008030677962678867</v>
       </c>
     </row>
     <row r="164">
@@ -6577,7 +6577,7 @@
         <v>61.40144831407527</v>
       </c>
       <c r="L164" t="n">
-        <v>-0.0001605692290613803</v>
+        <v>0.0001605692290613803</v>
       </c>
     </row>
     <row r="165">
@@ -6615,7 +6615,7 @@
         <v>61.42728481143537</v>
       </c>
       <c r="L165" t="n">
-        <v>-0.01278328756011082</v>
+        <v>0.01278328756011082</v>
       </c>
     </row>
     <row r="166">
@@ -6653,7 +6653,7 @@
         <v>61.44862800490639</v>
       </c>
       <c r="L166" t="n">
-        <v>0.01256065565081599</v>
+        <v>-0.01256065565081599</v>
       </c>
     </row>
     <row r="167">
@@ -6691,7 +6691,7 @@
         <v>66.89353923028992</v>
       </c>
       <c r="L167" t="n">
-        <v>0.009062195087980784</v>
+        <v>-0.009062195087980784</v>
       </c>
     </row>
     <row r="168">
@@ -6729,7 +6729,7 @@
         <v>66.91825240167752</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0001726476741188421</v>
+        <v>-0.0001726476741188421</v>
       </c>
     </row>
     <row r="169">
@@ -6767,7 +6767,7 @@
         <v>66.94240391007911</v>
       </c>
       <c r="L169" t="n">
-        <v>-0.00104866851213381</v>
+        <v>0.00104866851213381</v>
       </c>
     </row>
     <row r="170">
@@ -6805,7 +6805,7 @@
         <v>67.81509591853052</v>
       </c>
       <c r="L170" t="n">
-        <v>0.01748885992046367</v>
+        <v>-0.01748885992046367</v>
       </c>
     </row>
     <row r="171">
@@ -6843,7 +6843,7 @@
         <v>68.17714696845485</v>
       </c>
       <c r="L171" t="n">
-        <v>0.007465175773144983</v>
+        <v>-0.007465175773144983</v>
       </c>
     </row>
     <row r="172">
@@ -6881,7 +6881,7 @@
         <v>67.92154509624875</v>
       </c>
       <c r="L172" t="n">
-        <v>0.009367690029201459</v>
+        <v>-0.009367690029201459</v>
       </c>
     </row>
     <row r="173">
@@ -6919,7 +6919,7 @@
         <v>68.17187828914523</v>
       </c>
       <c r="L173" t="n">
-        <v>0.007221744867600632</v>
+        <v>-0.007221744867600632</v>
       </c>
     </row>
     <row r="174">
@@ -6957,7 +6957,7 @@
         <v>69.23089469157701</v>
       </c>
       <c r="L174" t="n">
-        <v>-0.01774745024791291</v>
+        <v>0.01774745024791291</v>
       </c>
     </row>
     <row r="175">
@@ -6995,7 +6995,7 @@
         <v>69.58817188684475</v>
       </c>
       <c r="L175" t="n">
-        <v>-0.006399079499277427</v>
+        <v>0.006399079499277427</v>
       </c>
     </row>
     <row r="176">
@@ -7033,7 +7033,7 @@
         <v>69.42842638020542</v>
       </c>
       <c r="L176" t="n">
-        <v>-0.000325603682437503</v>
+        <v>0.000325603682437503</v>
       </c>
     </row>
     <row r="177">
@@ -7071,7 +7071,7 @@
         <v>71.98092895108879</v>
       </c>
       <c r="L177" t="n">
-        <v>0.007802975279838975</v>
+        <v>-0.007802975279838975</v>
       </c>
     </row>
     <row r="178">
@@ -7109,7 +7109,7 @@
         <v>73.99714253098226</v>
       </c>
       <c r="L178" t="n">
-        <v>0.01120319235807132</v>
+        <v>-0.01120319235807132</v>
       </c>
     </row>
     <row r="179">
@@ -7147,7 +7147,7 @@
         <v>73.98091612261281</v>
       </c>
       <c r="L179" t="n">
-        <v>-0.003699727099484518</v>
+        <v>0.003699727099484518</v>
       </c>
     </row>
     <row r="180">
@@ -7185,7 +7185,7 @@
         <v>73.74582478894595</v>
       </c>
       <c r="L180" t="n">
-        <v>0.01387114842193982</v>
+        <v>-0.01387114842193982</v>
       </c>
     </row>
     <row r="181">
@@ -7223,7 +7223,7 @@
         <v>73.95369026650076</v>
       </c>
       <c r="L181" t="n">
-        <v>-0.004581879639355968</v>
+        <v>0.004581879639355968</v>
       </c>
     </row>
     <row r="182">
@@ -7261,7 +7261,7 @@
         <v>74.25243646021484</v>
       </c>
       <c r="L182" t="n">
-        <v>0.005153668217843688</v>
+        <v>-0.005153668217843688</v>
       </c>
     </row>
     <row r="183">
@@ -7299,7 +7299,7 @@
         <v>75.11043959141452</v>
       </c>
       <c r="L183" t="n">
-        <v>0.001197633063189762</v>
+        <v>-0.001197633063189762</v>
       </c>
     </row>
     <row r="184">
@@ -7337,7 +7337,7 @@
         <v>75.68547024075174</v>
       </c>
       <c r="L184" t="n">
-        <v>-0.00394687721662712</v>
+        <v>0.00394687721662712</v>
       </c>
     </row>
     <row r="185">
@@ -7375,7 +7375,7 @@
         <v>75.34480073812023</v>
       </c>
       <c r="L185" t="n">
-        <v>0.02299419554054261</v>
+        <v>-0.02299419554054261</v>
       </c>
     </row>
     <row r="186">
@@ -7413,7 +7413,7 @@
         <v>75.79745220357668</v>
       </c>
       <c r="L186" t="n">
-        <v>-0.000412959424048509</v>
+        <v>0.000412959424048509</v>
       </c>
     </row>
     <row r="187">
@@ -7451,7 +7451,7 @@
         <v>75.61875248547636</v>
       </c>
       <c r="L187" t="n">
-        <v>-0.006716583961603684</v>
+        <v>0.006716583961603684</v>
       </c>
     </row>
     <row r="188">
@@ -7489,7 +7489,7 @@
         <v>74.88351304328037</v>
       </c>
       <c r="L188" t="n">
-        <v>0.03030292272644686</v>
+        <v>-0.03030292272644686</v>
       </c>
     </row>
     <row r="189">
@@ -7527,7 +7527,7 @@
         <v>75.03775927822107</v>
       </c>
       <c r="L189" t="n">
-        <v>0.03267488113913264</v>
+        <v>-0.03267488113913264</v>
       </c>
     </row>
     <row r="190">
@@ -7565,7 +7565,7 @@
         <v>75.85257914741108</v>
       </c>
       <c r="L190" t="n">
-        <v>0.02308723198240314</v>
+        <v>-0.02308723198240314</v>
       </c>
     </row>
     <row r="191">
@@ -7603,7 +7603,7 @@
         <v>77.13759573165457</v>
       </c>
       <c r="L191" t="n">
-        <v>-0.003701966035222437</v>
+        <v>0.003701966035222437</v>
       </c>
     </row>
     <row r="192">
@@ -7641,7 +7641,7 @@
         <v>77.25052371225482</v>
       </c>
       <c r="L192" t="n">
-        <v>0.000254060937213918</v>
+        <v>-0.000254060937213918</v>
       </c>
     </row>
     <row r="193">
@@ -7679,7 +7679,7 @@
         <v>75.54623821167144</v>
       </c>
       <c r="L193" t="n">
-        <v>0.01915030359190428</v>
+        <v>-0.01915030359190428</v>
       </c>
     </row>
     <row r="194">
@@ -7717,7 +7717,7 @@
         <v>77.3925923919667</v>
       </c>
       <c r="L194" t="n">
-        <v>0.01116453877968659</v>
+        <v>-0.01116453877968659</v>
       </c>
     </row>
     <row r="195">
@@ -7755,7 +7755,7 @@
         <v>77.57430990929319</v>
       </c>
       <c r="L195" t="n">
-        <v>0.08878805157315495</v>
+        <v>-0.08878805157315495</v>
       </c>
     </row>
     <row r="196">
@@ -7793,7 +7793,7 @@
         <v>78.87645375386278</v>
       </c>
       <c r="L196" t="n">
-        <v>0.05454536102856689</v>
+        <v>-0.05454536102856689</v>
       </c>
     </row>
     <row r="197">
@@ -7831,7 +7831,7 @@
         <v>81.18441500421825</v>
       </c>
       <c r="L197" t="n">
-        <v>0.02165491857741109</v>
+        <v>-0.02165491857741109</v>
       </c>
     </row>
     <row r="198">
@@ -7869,7 +7869,7 @@
         <v>83.59831715230817</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04399846967744625</v>
+        <v>-0.04399846967744625</v>
       </c>
     </row>
     <row r="199">
@@ -7907,7 +7907,7 @@
         <v>86.02481245689843</v>
       </c>
       <c r="L199" t="n">
-        <v>-0.007395303308969092</v>
+        <v>0.007395303308969092</v>
       </c>
     </row>
     <row r="200">
@@ -7945,7 +7945,7 @@
         <v>84.9488622481509</v>
       </c>
       <c r="L200" t="n">
-        <v>0.00245972417032192</v>
+        <v>-0.00245972417032192</v>
       </c>
     </row>
     <row r="201">
@@ -7983,7 +7983,7 @@
         <v>86.53597355669729</v>
       </c>
       <c r="L201" t="n">
-        <v>0.004588087067396218</v>
+        <v>-0.004588087067396218</v>
       </c>
     </row>
     <row r="202">
@@ -8021,7 +8021,7 @@
         <v>88.21024258927326</v>
       </c>
       <c r="L202" t="n">
-        <v>0.01166322966801481</v>
+        <v>-0.01166322966801481</v>
       </c>
     </row>
     <row r="203">
@@ -8059,7 +8059,7 @@
         <v>88.52288385355315</v>
       </c>
       <c r="L203" t="n">
-        <v>0.01121466699129225</v>
+        <v>-0.01121466699129225</v>
       </c>
     </row>
     <row r="204">
@@ -8097,7 +8097,7 @@
         <v>90.39986926522039</v>
       </c>
       <c r="L204" t="n">
-        <v>0.02127602678513862</v>
+        <v>-0.02127602678513862</v>
       </c>
     </row>
     <row r="205">
@@ -8135,7 +8135,7 @@
         <v>87.28426465151294</v>
       </c>
       <c r="L205" t="n">
-        <v>0.006664116744490522</v>
+        <v>-0.006664116744490522</v>
       </c>
     </row>
     <row r="206">
@@ -8173,7 +8173,7 @@
         <v>88.8691685389136</v>
       </c>
       <c r="L206" t="n">
-        <v>0.0315378872858818</v>
+        <v>-0.0315378872858818</v>
       </c>
     </row>
     <row r="207">
@@ -8211,7 +8211,7 @@
         <v>89.03007038517794</v>
       </c>
       <c r="L207" t="n">
-        <v>0.01072091743272519</v>
+        <v>-0.01072091743272519</v>
       </c>
     </row>
     <row r="208">
@@ -8249,7 +8249,7 @@
         <v>89.02392828457405</v>
       </c>
       <c r="L208" t="n">
-        <v>0.01379781424512205</v>
+        <v>-0.01379781424512205</v>
       </c>
     </row>
     <row r="209">
@@ -8287,7 +8287,7 @@
         <v>87.8462432441813</v>
       </c>
       <c r="L209" t="n">
-        <v>0.009087895423898873</v>
+        <v>-0.009087895423898873</v>
       </c>
     </row>
     <row r="210">
@@ -8325,7 +8325,7 @@
         <v>89.36699528371457</v>
       </c>
       <c r="L210" t="n">
-        <v>0.006777944608606479</v>
+        <v>-0.006777944608606479</v>
       </c>
     </row>
     <row r="211">
@@ -8363,7 +8363,7 @@
         <v>89.18728261666303</v>
       </c>
       <c r="L211" t="n">
-        <v>0.02673499046530803</v>
+        <v>-0.02673499046530803</v>
       </c>
     </row>
     <row r="212">
@@ -8401,7 +8401,7 @@
         <v>88.12225944317049</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1777756506259394</v>
+        <v>-0.1777756506259394</v>
       </c>
     </row>
     <row r="213">
@@ -8439,7 +8439,7 @@
         <v>88.72082304273377</v>
       </c>
       <c r="L213" t="n">
-        <v>0.07893876132362299</v>
+        <v>-0.07893876132362299</v>
       </c>
     </row>
     <row r="214">
@@ -8477,7 +8477,7 @@
         <v>88.40852828092989</v>
       </c>
       <c r="L214" t="n">
-        <v>0.00971353386147511</v>
+        <v>-0.00971353386147511</v>
       </c>
     </row>
     <row r="215">
@@ -8515,7 +8515,7 @@
         <v>88.68312918104955</v>
       </c>
       <c r="L215" t="n">
-        <v>0.00556738762589859</v>
+        <v>-0.00556738762589859</v>
       </c>
     </row>
     <row r="216">
@@ -8553,7 +8553,7 @@
         <v>89.1840613354282</v>
       </c>
       <c r="L216" t="n">
-        <v>-0.01010568252424604</v>
+        <v>0.01010568252424604</v>
       </c>
     </row>
     <row r="217">
@@ -8591,7 +8591,7 @@
         <v>89.91250777721214</v>
       </c>
       <c r="L217" t="n">
-        <v>-0.01015357791315674</v>
+        <v>0.01015357791315674</v>
       </c>
     </row>
     <row r="218">
@@ -8629,7 +8629,7 @@
         <v>90.57984911159413</v>
       </c>
       <c r="L218" t="n">
-        <v>-0.002989319472415541</v>
+        <v>0.002989319472415541</v>
       </c>
     </row>
     <row r="219">
@@ -8667,7 +8667,7 @@
         <v>90.19876220541343</v>
       </c>
       <c r="L219" t="n">
-        <v>0.003165821367262955</v>
+        <v>-0.003165821367262955</v>
       </c>
     </row>
     <row r="220">
@@ -8705,7 +8705,7 @@
         <v>89.35298950287829</v>
       </c>
       <c r="L220" t="n">
-        <v>-0.002588720944211254</v>
+        <v>0.002588720944211254</v>
       </c>
     </row>
     <row r="221">
@@ -8743,7 +8743,7 @@
         <v>87.72994065279006</v>
       </c>
       <c r="L221" t="n">
-        <v>0.01480070186912408</v>
+        <v>-0.01480070186912408</v>
       </c>
     </row>
     <row r="222">
@@ -8781,7 +8781,7 @@
         <v>88.30034837325927</v>
       </c>
       <c r="L222" t="n">
-        <v>0.01240257471286688</v>
+        <v>-0.01240257471286688</v>
       </c>
     </row>
     <row r="223">
@@ -8819,7 +8819,7 @@
         <v>87.82876572062661</v>
       </c>
       <c r="L223" t="n">
-        <v>-0.02170414540191734</v>
+        <v>0.02170414540191734</v>
       </c>
     </row>
     <row r="224">
@@ -8857,7 +8857,7 @@
         <v>87.68042908787929</v>
       </c>
       <c r="L224" t="n">
-        <v>-0.008941887945034921</v>
+        <v>0.008941887945034921</v>
       </c>
     </row>
     <row r="225">
@@ -8895,7 +8895,7 @@
         <v>87.44998276312477</v>
       </c>
       <c r="L225" t="n">
-        <v>-0.0227571945481706</v>
+        <v>0.0227571945481706</v>
       </c>
     </row>
     <row r="226">
@@ -8933,7 +8933,7 @@
         <v>87.76349557939389</v>
       </c>
       <c r="L226" t="n">
-        <v>-0.0191620790306577</v>
+        <v>0.0191620790306577</v>
       </c>
     </row>
     <row r="227">
@@ -8971,7 +8971,7 @@
         <v>88.15809750851751</v>
       </c>
       <c r="L227" t="n">
-        <v>-0.04965561055731893</v>
+        <v>0.04965561055731893</v>
       </c>
     </row>
     <row r="228">
@@ -9009,7 +9009,7 @@
         <v>83.65484216570087</v>
       </c>
       <c r="L228" t="n">
-        <v>0.01993037882806026</v>
+        <v>-0.01993037882806026</v>
       </c>
     </row>
     <row r="229">
@@ -9047,7 +9047,7 @@
         <v>86.83405416629452</v>
       </c>
       <c r="L229" t="n">
-        <v>0.005255841988220711</v>
+        <v>-0.005255841988220711</v>
       </c>
     </row>
     <row r="230">
@@ -9085,7 +9085,7 @@
         <v>95.30066036557611</v>
       </c>
       <c r="L230" t="n">
-        <v>-0.007167829343799781</v>
+        <v>0.007167829343799781</v>
       </c>
     </row>
     <row r="231">
@@ -9123,7 +9123,7 @@
         <v>94.47508339264787</v>
       </c>
       <c r="L231" t="n">
-        <v>-0.01333332995470737</v>
+        <v>0.01333332995470737</v>
       </c>
     </row>
     <row r="232">
@@ -9161,7 +9161,7 @@
         <v>100.8372218541324</v>
       </c>
       <c r="L232" t="n">
-        <v>-0.003736069754949778</v>
+        <v>0.003736069754949778</v>
       </c>
     </row>
     <row r="233">
@@ -9199,7 +9199,7 @@
         <v>99.65015037582236</v>
       </c>
       <c r="L233" t="n">
-        <v>-0.01114865973906332</v>
+        <v>0.01114865973906332</v>
       </c>
     </row>
     <row r="234">
@@ -9237,7 +9237,7 @@
         <v>103.8216593721554</v>
       </c>
       <c r="L234" t="n">
-        <v>-0.02941336020353358</v>
+        <v>0.02941336020353358</v>
       </c>
     </row>
     <row r="235">
@@ -9275,7 +9275,7 @@
         <v>99.02018355822163</v>
       </c>
       <c r="L235" t="n">
-        <v>-0.002229361702475785</v>
+        <v>0.002229361702475785</v>
       </c>
     </row>
     <row r="236">
@@ -9313,7 +9313,7 @@
         <v>93.32436631563407</v>
       </c>
       <c r="L236" t="n">
-        <v>0.01080285753638477</v>
+        <v>-0.01080285753638477</v>
       </c>
     </row>
     <row r="237">
@@ -9351,7 +9351,7 @@
         <v>93.33033253389405</v>
       </c>
       <c r="L237" t="n">
-        <v>-0.0005253539182090705</v>
+        <v>0.0005253539182090705</v>
       </c>
     </row>
     <row r="238">
@@ -9389,7 +9389,7 @@
         <v>86.40101943507668</v>
       </c>
       <c r="L238" t="n">
-        <v>0.002247864438884362</v>
+        <v>-0.002247864438884362</v>
       </c>
     </row>
     <row r="239">
@@ -9427,7 +9427,7 @@
         <v>83.88083961119605</v>
       </c>
       <c r="L239" t="n">
-        <v>0.006662828312642644</v>
+        <v>-0.006662828312642644</v>
       </c>
     </row>
     <row r="240">
@@ -9465,7 +9465,7 @@
         <v>89.78827231912648</v>
       </c>
       <c r="L240" t="n">
-        <v>-0.002530736529942734</v>
+        <v>0.002530736529942734</v>
       </c>
     </row>
     <row r="241">
@@ -9503,7 +9503,7 @@
         <v>88.25746100789037</v>
       </c>
       <c r="L241" t="n">
-        <v>0.005280906593332801</v>
+        <v>-0.005280906593332801</v>
       </c>
     </row>
     <row r="242">
@@ -9541,7 +9541,7 @@
         <v>97.72430580695872</v>
       </c>
       <c r="L242" t="n">
-        <v>0.007064886212160726</v>
+        <v>-0.007064886212160726</v>
       </c>
     </row>
     <row r="243">
@@ -9579,7 +9579,7 @@
         <v>97.24594583780224</v>
       </c>
       <c r="L243" t="n">
-        <v>0.002498624524866822</v>
+        <v>-0.002498624524866822</v>
       </c>
     </row>
     <row r="244">
@@ -9617,7 +9617,7 @@
         <v>100.060330807401</v>
       </c>
       <c r="L244" t="n">
-        <v>0.02738293139184922</v>
+        <v>-0.02738293139184922</v>
       </c>
     </row>
     <row r="245">
@@ -9655,7 +9655,7 @@
         <v>100.77664141623</v>
       </c>
       <c r="L245" t="n">
-        <v>0.03369732352742405</v>
+        <v>-0.03369732352742405</v>
       </c>
     </row>
     <row r="246">
@@ -9693,7 +9693,7 @@
         <v>102.0460742605999</v>
       </c>
       <c r="L246" t="n">
-        <v>-0.01380024461501939</v>
+        <v>0.01380024461501939</v>
       </c>
     </row>
     <row r="247">
@@ -9731,7 +9731,7 @@
         <v>102.1644275002547</v>
       </c>
       <c r="L247" t="n">
-        <v>-0.007283687519581417</v>
+        <v>0.007283687519581417</v>
       </c>
     </row>
     <row r="248">
@@ -9769,7 +9769,7 @@
         <v>101.7063922630307</v>
       </c>
       <c r="L248" t="n">
-        <v>0.02395107950171282</v>
+        <v>-0.02395107950171282</v>
       </c>
     </row>
     <row r="249">
@@ -9807,7 +9807,7 @@
         <v>105.6491306815324</v>
       </c>
       <c r="L249" t="n">
-        <v>0.02768179961160122</v>
+        <v>-0.02768179961160122</v>
       </c>
     </row>
     <row r="250">
@@ -9845,7 +9845,7 @@
         <v>107.0597587023573</v>
       </c>
       <c r="L250" t="n">
-        <v>0.01446373804138723</v>
+        <v>-0.01446373804138723</v>
       </c>
     </row>
     <row r="251">
@@ -9883,7 +9883,7 @@
         <v>111.5852375930637</v>
       </c>
       <c r="L251" t="n">
-        <v>0.0141653473870007</v>
+        <v>-0.0141653473870007</v>
       </c>
     </row>
     <row r="252">
@@ -9921,7 +9921,7 @@
         <v>119.5311775626862</v>
       </c>
       <c r="L252" t="n">
-        <v>0.02851920964478127</v>
+        <v>-0.02851920964478127</v>
       </c>
     </row>
     <row r="253">
@@ -9959,7 +9959,7 @@
         <v>124.5732499772061</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03822270224569113</v>
+        <v>-0.03822270224569113</v>
       </c>
     </row>
     <row r="254">
@@ -9997,7 +9997,7 @@
         <v>131.8357098944343</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03227947772112039</v>
+        <v>-0.03227947772112039</v>
       </c>
     </row>
     <row r="255">
@@ -10035,7 +10035,7 @@
         <v>138.1956122406372</v>
       </c>
       <c r="L255" t="n">
-        <v>0.056416249499742</v>
+        <v>-0.056416249499742</v>
       </c>
     </row>
     <row r="256">
@@ -10073,7 +10073,7 @@
         <v>141.5835045817679</v>
       </c>
       <c r="L256" t="n">
-        <v>0.01423145031026518</v>
+        <v>-0.01423145031026518</v>
       </c>
     </row>
     <row r="257">
@@ -10111,7 +10111,7 @@
         <v>138.2467689324479</v>
       </c>
       <c r="L257" t="n">
-        <v>0.02252430149286044</v>
+        <v>-0.02252430149286044</v>
       </c>
     </row>
     <row r="258">
@@ -10149,7 +10149,7 @@
         <v>136.8613731887872</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03956249770776554</v>
+        <v>-0.03956249770776554</v>
       </c>
     </row>
     <row r="259">
@@ -10187,7 +10187,7 @@
         <v>137.731701119566</v>
       </c>
       <c r="L259" t="n">
-        <v>0.02632693035160338</v>
+        <v>-0.02632693035160338</v>
       </c>
     </row>
     <row r="260">
@@ -10225,7 +10225,7 @@
         <v>134.4016502552544</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04006614202799041</v>
+        <v>-0.04006614202799041</v>
       </c>
     </row>
     <row r="261">
@@ -10263,7 +10263,7 @@
         <v>136.2557167799033</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03056221054015329</v>
+        <v>-0.03056221054015329</v>
       </c>
     </row>
     <row r="262">
@@ -10301,7 +10301,7 @@
         <v>138.3511713574944</v>
       </c>
       <c r="L262" t="n">
-        <v>-0.0422214185433778</v>
+        <v>0.0422214185433778</v>
       </c>
     </row>
     <row r="263">
@@ -10339,7 +10339,7 @@
         <v>140.8312034318334</v>
       </c>
       <c r="L263" t="n">
-        <v>0.006760290775061462</v>
+        <v>-0.006760290775061462</v>
       </c>
     </row>
     <row r="264">
@@ -10377,7 +10377,7 @@
         <v>144.3394690578594</v>
       </c>
       <c r="L264" t="n">
-        <v>-0.0001969106822163891</v>
+        <v>0.0001969106822163891</v>
       </c>
     </row>
     <row r="265">
@@ -10415,7 +10415,7 @@
         <v>140.024070964103</v>
       </c>
       <c r="L265" t="n">
-        <v>0.02794212625286185</v>
+        <v>-0.02794212625286185</v>
       </c>
     </row>
     <row r="266">
@@ -10453,7 +10453,7 @@
         <v>140.1304690347708</v>
       </c>
       <c r="L266" t="n">
-        <v>0.03256540506805083</v>
+        <v>-0.03256540506805083</v>
       </c>
     </row>
     <row r="267">
@@ -10491,7 +10491,7 @@
         <v>139.9600732437325</v>
       </c>
       <c r="L267" t="n">
-        <v>0.02824457356587495</v>
+        <v>-0.02824457356587495</v>
       </c>
     </row>
     <row r="268">
@@ -10529,7 +10529,7 @@
         <v>139.41413201962</v>
       </c>
       <c r="L268" t="n">
-        <v>0.04680110209206723</v>
+        <v>-0.04680110209206723</v>
       </c>
     </row>
     <row r="269">
@@ -10567,7 +10567,7 @@
         <v>146.921079224613</v>
       </c>
       <c r="L269" t="n">
-        <v>0.02346033183464447</v>
+        <v>-0.02346033183464447</v>
       </c>
     </row>
     <row r="270">
@@ -10605,7 +10605,7 @@
         <v>143.9343192662559</v>
       </c>
       <c r="L270" t="n">
-        <v>-0.0244044526917957</v>
+        <v>0.0244044526917957</v>
       </c>
     </row>
     <row r="271">
@@ -10643,7 +10643,7 @@
         <v>142.8029875945065</v>
       </c>
       <c r="L271" t="n">
-        <v>0.05588051144409523</v>
+        <v>-0.05588051144409523</v>
       </c>
     </row>
     <row r="272">
@@ -10681,7 +10681,7 @@
         <v>145.3886874992616</v>
       </c>
       <c r="L272" t="n">
-        <v>0.02896065069136355</v>
+        <v>-0.02896065069136355</v>
       </c>
     </row>
     <row r="273">
@@ -10719,7 +10719,7 @@
         <v>145.4153113504877</v>
       </c>
       <c r="L273" t="n">
-        <v>0.009803269579849117</v>
+        <v>-0.009803269579849117</v>
       </c>
     </row>
     <row r="274">
@@ -10757,7 +10757,7 @@
         <v>144.2986956561814</v>
       </c>
       <c r="L274" t="n">
-        <v>0.007282755916475869</v>
+        <v>-0.007282755916475869</v>
       </c>
     </row>
     <row r="275">
@@ -10795,7 +10795,7 @@
         <v>147.6456556388968</v>
       </c>
       <c r="L275" t="n">
-        <v>0.02613953331332697</v>
+        <v>-0.02613953331332697</v>
       </c>
     </row>
     <row r="276">
@@ -10833,7 +10833,7 @@
         <v>158.3278034325178</v>
       </c>
       <c r="L276" t="n">
-        <v>0.03796807362702159</v>
+        <v>-0.03796807362702159</v>
       </c>
     </row>
     <row r="277">
@@ -10871,7 +10871,7 @@
         <v>158.1022286059861</v>
       </c>
       <c r="L277" t="n">
-        <v>0.08311955145993621</v>
+        <v>-0.08311955145993621</v>
       </c>
     </row>
     <row r="278">
@@ -10909,7 +10909,7 @@
         <v>157.9996674209753</v>
       </c>
       <c r="L278" t="n">
-        <v>0.02232190258715261</v>
+        <v>-0.02232190258715261</v>
       </c>
     </row>
     <row r="279">
@@ -10947,7 +10947,7 @@
         <v>159.3818137957529</v>
       </c>
       <c r="L279" t="n">
-        <v>0.02646877705348882</v>
+        <v>-0.02646877705348882</v>
       </c>
     </row>
     <row r="280">
@@ -10985,7 +10985,7 @@
         <v>159.5141112403802</v>
       </c>
       <c r="L280" t="n">
-        <v>0.03136825270930377</v>
+        <v>-0.03136825270930377</v>
       </c>
     </row>
     <row r="281">
@@ -11023,7 +11023,7 @@
         <v>159.1053647473641</v>
       </c>
       <c r="L281" t="n">
-        <v>0.02713621006524658</v>
+        <v>-0.02713621006524658</v>
       </c>
     </row>
     <row r="282">
@@ -11061,7 +11061,7 @@
         <v>157.9776635893711</v>
       </c>
       <c r="L282" t="n">
-        <v>0.01169622683986971</v>
+        <v>-0.01169622683986971</v>
       </c>
     </row>
     <row r="283">
@@ -11099,7 +11099,7 @@
         <v>157.7265135827154</v>
       </c>
       <c r="L283" t="n">
-        <v>0.04252357315900346</v>
+        <v>-0.04252357315900346</v>
       </c>
     </row>
     <row r="284">
@@ -11137,7 +11137,7 @@
         <v>155.3786367863908</v>
       </c>
       <c r="L284" t="n">
-        <v>0.0302089336484912</v>
+        <v>-0.0302089336484912</v>
       </c>
     </row>
     <row r="285">
@@ -11175,7 +11175,7 @@
         <v>151.8936000263473</v>
       </c>
       <c r="L285" t="n">
-        <v>0.03294134402998328</v>
+        <v>-0.03294134402998328</v>
       </c>
     </row>
     <row r="286">
@@ -11213,7 +11213,7 @@
         <v>153.953996035661</v>
       </c>
       <c r="L286" t="n">
-        <v>0.008441182054425456</v>
+        <v>-0.008441182054425456</v>
       </c>
     </row>
     <row r="287">
@@ -11251,7 +11251,7 @@
         <v>154.9160965114228</v>
       </c>
       <c r="L287" t="n">
-        <v>0.005283029035316078</v>
+        <v>-0.005283029035316078</v>
       </c>
     </row>
     <row r="288">
@@ -11289,7 +11289,7 @@
         <v>156.6936645467406</v>
       </c>
       <c r="L288" t="n">
-        <v>0.03147109717136076</v>
+        <v>-0.03147109717136076</v>
       </c>
     </row>
     <row r="289">
@@ -11327,7 +11327,7 @@
         <v>157.1264656719216</v>
       </c>
       <c r="L289" t="n">
-        <v>0.03527933547169804</v>
+        <v>-0.03527933547169804</v>
       </c>
     </row>
     <row r="290">
@@ -11365,7 +11365,7 @@
         <v>157.7783315622415</v>
       </c>
       <c r="L290" t="n">
-        <v>0.01992559743789779</v>
+        <v>-0.01992559743789779</v>
       </c>
     </row>
     <row r="291">
@@ -11403,7 +11403,7 @@
         <v>162.1101406548577</v>
       </c>
       <c r="L291" t="n">
-        <v>-0.03531119958223083</v>
+        <v>0.03531119958223083</v>
       </c>
     </row>
     <row r="292">
@@ -11441,7 +11441,7 @@
         <v>162.8390771579153</v>
       </c>
       <c r="L292" t="n">
-        <v>-0.02536429223733205</v>
+        <v>0.02536429223733205</v>
       </c>
     </row>
     <row r="293">
@@ -11479,7 +11479,7 @@
         <v>161.0230229003203</v>
       </c>
       <c r="L293" t="n">
-        <v>0.004619068640906443</v>
+        <v>-0.004619068640906443</v>
       </c>
     </row>
     <row r="294">
@@ -11517,7 +11517,7 @@
         <v>161.619545583999</v>
       </c>
       <c r="L294" t="n">
-        <v>0.0276541448419918</v>
+        <v>-0.0276541448419918</v>
       </c>
     </row>
     <row r="295">
@@ -11555,7 +11555,7 @@
         <v>160.8500185661003</v>
       </c>
       <c r="L295" t="n">
-        <v>0.008892287493188267</v>
+        <v>-0.008892287493188267</v>
       </c>
     </row>
     <row r="296">
@@ -11593,7 +11593,7 @@
         <v>160.1228865736276</v>
       </c>
       <c r="L296" t="n">
-        <v>0.05291055098643382</v>
+        <v>-0.05291055098643382</v>
       </c>
     </row>
     <row r="297">
@@ -11631,7 +11631,7 @@
         <v>161.8399879260684</v>
       </c>
       <c r="L297" t="n">
-        <v>0.02280075088562517</v>
+        <v>-0.02280075088562517</v>
       </c>
     </row>
     <row r="298">
@@ -11669,7 +11669,7 @@
         <v>159.7293809221305</v>
       </c>
       <c r="L298" t="n">
-        <v>0.02948965049954988</v>
+        <v>-0.02948965049954988</v>
       </c>
     </row>
     <row r="299">
@@ -11707,7 +11707,7 @@
         <v>160.9549091594513</v>
       </c>
       <c r="L299" t="n">
-        <v>0.01588758828295522</v>
+        <v>-0.01588758828295522</v>
       </c>
     </row>
     <row r="300">
@@ -11745,7 +11745,7 @@
         <v>161.6875891910695</v>
       </c>
       <c r="L300" t="n">
-        <v>-0.01982857288729867</v>
+        <v>0.01982857288729867</v>
       </c>
     </row>
     <row r="301">
@@ -11783,7 +11783,7 @@
         <v>162.6483715104074</v>
       </c>
       <c r="L301" t="n">
-        <v>0.02992733508871348</v>
+        <v>-0.02992733508871348</v>
       </c>
     </row>
     <row r="302">
@@ -11821,7 +11821,7 @@
         <v>160.068505306312</v>
       </c>
       <c r="L302" t="n">
-        <v>0.03629451936695949</v>
+        <v>-0.03629451936695949</v>
       </c>
     </row>
     <row r="303">
@@ -11859,7 +11859,7 @@
         <v>159.569110511731</v>
       </c>
       <c r="L303" t="n">
-        <v>0.0404192861912489</v>
+        <v>-0.0404192861912489</v>
       </c>
     </row>
     <row r="304">
@@ -11897,7 +11897,7 @@
         <v>165.2520973596208</v>
       </c>
       <c r="L304" t="n">
-        <v>0.01008530551328191</v>
+        <v>-0.01008530551328191</v>
       </c>
     </row>
     <row r="305">
@@ -11935,7 +11935,7 @@
         <v>165.2522078905271</v>
       </c>
       <c r="L305" t="n">
-        <v>-0.0577823975337548</v>
+        <v>0.0577823975337548</v>
       </c>
     </row>
     <row r="306">
@@ -11973,7 +11973,7 @@
         <v>166.5979540383889</v>
       </c>
       <c r="L306" t="n">
-        <v>0.01864829012532176</v>
+        <v>-0.01864829012532176</v>
       </c>
     </row>
     <row r="307">
@@ -12011,7 +12011,7 @@
         <v>168.0190737353737</v>
       </c>
       <c r="L307" t="n">
-        <v>-0.008258956391973604</v>
+        <v>0.008258956391973604</v>
       </c>
     </row>
     <row r="308">
@@ -12049,7 +12049,7 @@
         <v>172.5984307033062</v>
       </c>
       <c r="L308" t="n">
-        <v>-0.03401925059095068</v>
+        <v>0.03401925059095068</v>
       </c>
     </row>
     <row r="309">
@@ -12087,7 +12087,7 @@
         <v>172.983757261701</v>
       </c>
       <c r="L309" t="n">
-        <v>-0.02528535694795919</v>
+        <v>0.02528535694795919</v>
       </c>
     </row>
     <row r="310">
@@ -12125,7 +12125,7 @@
         <v>178.2932150954284</v>
       </c>
       <c r="L310" t="n">
-        <v>0.03647743430649086</v>
+        <v>-0.03647743430649086</v>
       </c>
     </row>
     <row r="311">
@@ -12163,7 +12163,7 @@
         <v>193.9497771845247</v>
       </c>
       <c r="L311" t="n">
-        <v>-0.04160730743135632</v>
+        <v>0.04160730743135632</v>
       </c>
     </row>
     <row r="312">
@@ -12201,7 +12201,7 @@
         <v>199.5088241192624</v>
       </c>
       <c r="L312" t="n">
-        <v>-0.008137258812327186</v>
+        <v>0.008137258812327186</v>
       </c>
     </row>
     <row r="313">
@@ -12239,7 +12239,7 @@
         <v>201.0672370087946</v>
       </c>
       <c r="L313" t="n">
-        <v>-0.0207320826547357</v>
+        <v>0.0207320826547357</v>
       </c>
     </row>
     <row r="314">
@@ -12277,7 +12277,7 @@
         <v>203.3348590938426</v>
       </c>
       <c r="L314" t="n">
-        <v>0.005248878763551845</v>
+        <v>-0.005248878763551845</v>
       </c>
     </row>
     <row r="315">
@@ -12315,7 +12315,7 @@
         <v>211.8640523368203</v>
       </c>
       <c r="L315" t="n">
-        <v>-0.03203232092504793</v>
+        <v>0.03203232092504793</v>
       </c>
     </row>
     <row r="316">
@@ -12353,7 +12353,7 @@
         <v>209.1367035056215</v>
       </c>
       <c r="L316" t="n">
-        <v>-0.02389775987966203</v>
+        <v>0.02389775987966203</v>
       </c>
     </row>
     <row r="317">
@@ -12391,7 +12391,7 @@
         <v>216.4620992596715</v>
       </c>
       <c r="L317" t="n">
-        <v>0.01382818683324527</v>
+        <v>-0.01382818683324527</v>
       </c>
     </row>
     <row r="318">
@@ -12429,7 +12429,7 @@
         <v>210.6757818515335</v>
       </c>
       <c r="L318" t="n">
-        <v>-0.01312965527527954</v>
+        <v>0.01312965527527954</v>
       </c>
     </row>
     <row r="319">
@@ -12467,7 +12467,7 @@
         <v>216.940169069056</v>
       </c>
       <c r="L319" t="n">
-        <v>0.0111557105634239</v>
+        <v>-0.0111557105634239</v>
       </c>
     </row>
     <row r="320">
@@ -12505,7 +12505,7 @@
         <v>220.8296865401433</v>
       </c>
       <c r="L320" t="n">
-        <v>-0.02814657574109392</v>
+        <v>0.02814657574109392</v>
       </c>
     </row>
     <row r="321">
@@ -12543,7 +12543,7 @@
         <v>224.234343565842</v>
       </c>
       <c r="L321" t="n">
-        <v>-0.0237246556518631</v>
+        <v>0.0237246556518631</v>
       </c>
     </row>
     <row r="322">
@@ -12581,7 +12581,7 @@
         <v>223.887140287437</v>
       </c>
       <c r="L322" t="n">
-        <v>0.003847637119827274</v>
+        <v>-0.003847637119827274</v>
       </c>
     </row>
     <row r="323">
@@ -12619,7 +12619,7 @@
         <v>219.2408456762204</v>
       </c>
       <c r="L323" t="n">
-        <v>-0.002109756983074806</v>
+        <v>0.002109756983074806</v>
       </c>
     </row>
     <row r="324">
@@ -12657,7 +12657,7 @@
         <v>222.6668528151224</v>
       </c>
       <c r="L324" t="n">
-        <v>0.0178785475092772</v>
+        <v>-0.0178785475092772</v>
       </c>
     </row>
     <row r="325">
@@ -12695,7 +12695,7 @@
         <v>225.8881592337739</v>
       </c>
       <c r="L325" t="n">
-        <v>-0.006896584268142547</v>
+        <v>0.006896584268142547</v>
       </c>
     </row>
     <row r="326">
@@ -12733,7 +12733,7 @@
         <v>229.9404717688222</v>
       </c>
       <c r="L326" t="n">
-        <v>-0.03895434954037014</v>
+        <v>0.03895434954037014</v>
       </c>
     </row>
     <row r="327">
@@ -12771,7 +12771,7 @@
         <v>229.8154139573454</v>
       </c>
       <c r="L327" t="n">
-        <v>-0.004543905888040101</v>
+        <v>0.004543905888040101</v>
       </c>
     </row>
     <row r="328">
@@ -12809,7 +12809,7 @@
         <v>227.3196738305348</v>
       </c>
       <c r="L328" t="n">
-        <v>0.001200472351873261</v>
+        <v>-0.001200472351873261</v>
       </c>
     </row>
     <row r="329">
@@ -12847,7 +12847,7 @@
         <v>216.9269522515302</v>
       </c>
       <c r="L329" t="n">
-        <v>-0.01698953218251997</v>
+        <v>0.01698953218251997</v>
       </c>
     </row>
     <row r="330">
@@ -12885,7 +12885,7 @@
         <v>213.7662079510707</v>
       </c>
       <c r="L330" t="n">
-        <v>-0.01900974225026442</v>
+        <v>0.01900974225026442</v>
       </c>
     </row>
     <row r="331">
@@ -12923,7 +12923,7 @@
         <v>210.165270747101</v>
       </c>
       <c r="L331" t="n">
-        <v>0.005740999493995425</v>
+        <v>-0.005740999493995425</v>
       </c>
     </row>
     <row r="332">
@@ -12961,7 +12961,7 @@
         <v>206.3419812152998</v>
       </c>
       <c r="L332" t="n">
-        <v>0.01192008283343982</v>
+        <v>-0.01192008283343982</v>
       </c>
     </row>
     <row r="333">
@@ -12999,7 +12999,7 @@
         <v>213.7736883653708</v>
       </c>
       <c r="L333" t="n">
-        <v>-0.01487419898461373</v>
+        <v>0.01487419898461373</v>
       </c>
     </row>
     <row r="334">
@@ -13037,7 +13037,7 @@
         <v>209.8445474754043</v>
       </c>
       <c r="L334" t="n">
-        <v>-0.03110285363667575</v>
+        <v>0.03110285363667575</v>
       </c>
     </row>
     <row r="335">
@@ -13075,7 +13075,7 @@
         <v>215.1051414736164</v>
       </c>
       <c r="L335" t="n">
-        <v>-0.020303020778768</v>
+        <v>0.020303020778768</v>
       </c>
     </row>
     <row r="336">
@@ -13113,7 +13113,7 @@
         <v>217.7993594573035</v>
       </c>
       <c r="L336" t="n">
-        <v>-0.04935029117379219</v>
+        <v>0.04935029117379219</v>
       </c>
     </row>
     <row r="337">
@@ -13151,7 +13151,7 @@
         <v>213.2325356426635</v>
       </c>
       <c r="L337" t="n">
-        <v>-0.01771901291645039</v>
+        <v>0.01771901291645039</v>
       </c>
     </row>
     <row r="338">
@@ -13189,7 +13189,7 @@
         <v>199.9916966295482</v>
       </c>
       <c r="L338" t="n">
-        <v>0.01692537201396549</v>
+        <v>-0.01692537201396549</v>
       </c>
     </row>
     <row r="339">
@@ -13227,7 +13227,7 @@
         <v>200.5018527311038</v>
       </c>
       <c r="L339" t="n">
-        <v>0.01919087803814334</v>
+        <v>-0.01919087803814334</v>
       </c>
     </row>
     <row r="340">
@@ -13265,7 +13265,7 @@
         <v>201.0699172241479</v>
       </c>
       <c r="L340" t="n">
-        <v>-0.01348547201578443</v>
+        <v>0.01348547201578443</v>
       </c>
     </row>
     <row r="341">
@@ -13303,7 +13303,7 @@
         <v>198.9470894235617</v>
       </c>
       <c r="L341" t="n">
-        <v>-0.02328231294922312</v>
+        <v>0.02328231294922312</v>
       </c>
     </row>
     <row r="342">
@@ -13341,7 +13341,7 @@
         <v>195.3089196034533</v>
       </c>
       <c r="L342" t="n">
-        <v>0.006864011797571123</v>
+        <v>-0.006864011797571123</v>
       </c>
     </row>
     <row r="343">
@@ -13379,7 +13379,7 @@
         <v>191.0216534806403</v>
       </c>
       <c r="L343" t="n">
-        <v>0.03455733833630159</v>
+        <v>-0.03455733833630159</v>
       </c>
     </row>
     <row r="344">
@@ -13417,7 +13417,7 @@
         <v>204.2817819447353</v>
       </c>
       <c r="L344" t="n">
-        <v>0.06064751677142066</v>
+        <v>-0.06064751677142066</v>
       </c>
     </row>
     <row r="345">
@@ -13455,7 +13455,7 @@
         <v>222.4528850617238</v>
       </c>
       <c r="L345" t="n">
-        <v>0.02131991587405468</v>
+        <v>-0.02131991587405468</v>
       </c>
     </row>
     <row r="346">
@@ -13493,7 +13493,7 @@
         <v>222.4962437425252</v>
       </c>
       <c r="L346" t="n">
-        <v>0.003202750484349259</v>
+        <v>-0.003202750484349259</v>
       </c>
     </row>
     <row r="347">
@@ -13531,7 +13531,7 @@
         <v>233.7466270823001</v>
       </c>
       <c r="L347" t="n">
-        <v>-0.03498572100744557</v>
+        <v>0.03498572100744557</v>
       </c>
     </row>
     <row r="348">
@@ -13569,7 +13569,7 @@
         <v>227.8761452517402</v>
       </c>
       <c r="L348" t="n">
-        <v>-0.04737978859248837</v>
+        <v>0.04737978859248837</v>
       </c>
     </row>
     <row r="349">
@@ -13607,7 +13607,7 @@
         <v>222.559969380773</v>
       </c>
       <c r="L349" t="n">
-        <v>-0.003798448051721692</v>
+        <v>0.003798448051721692</v>
       </c>
     </row>
     <row r="350">
@@ -13645,7 +13645,7 @@
         <v>224.368173686774</v>
       </c>
       <c r="L350" t="n">
-        <v>0.01513154134301686</v>
+        <v>-0.01513154134301686</v>
       </c>
     </row>
     <row r="351">
@@ -13683,7 +13683,7 @@
         <v>229.8752114156458</v>
       </c>
       <c r="L351" t="n">
-        <v>0.004968591407690459</v>
+        <v>-0.004968591407690459</v>
       </c>
     </row>
     <row r="352">
@@ -13721,7 +13721,7 @@
         <v>232.1166644102877</v>
       </c>
       <c r="L352" t="n">
-        <v>0.005348186865547166</v>
+        <v>-0.005348186865547166</v>
       </c>
     </row>
     <row r="353">
@@ -13761,7 +13761,7 @@
         <v>234.2082678983895</v>
       </c>
       <c r="L353" t="n">
-        <v>-0.004018320628366157</v>
+        <v>0.004018320628366157</v>
       </c>
     </row>
     <row r="354">
@@ -13799,7 +13799,7 @@
         <v>255.7979939412681</v>
       </c>
       <c r="L354" t="n">
-        <v>0.04406101366914283</v>
+        <v>-0.04406101366914283</v>
       </c>
     </row>
     <row r="355">
@@ -13837,7 +13837,7 @@
         <v>281.6981600036274</v>
       </c>
       <c r="L355" t="n">
-        <v>0.04176827983409348</v>
+        <v>-0.04176827983409348</v>
       </c>
     </row>
     <row r="356">
@@ -13875,7 +13875,7 @@
         <v>295.4740433557288</v>
       </c>
       <c r="L356" t="n">
-        <v>-0.04894876938766379</v>
+        <v>0.04894876938766379</v>
       </c>
     </row>
     <row r="357">
@@ -13913,7 +13913,7 @@
         <v>290.3601621735526</v>
       </c>
       <c r="L357" t="n">
-        <v>0.01312135838127015</v>
+        <v>-0.01312135838127015</v>
       </c>
     </row>
     <row r="358">
@@ -13951,7 +13951,7 @@
         <v>318.5453822482138</v>
       </c>
       <c r="L358" t="n">
-        <v>0.02142473916136334</v>
+        <v>-0.02142473916136334</v>
       </c>
     </row>
     <row r="359">
@@ -13989,7 +13989,7 @@
         <v>329.6785533209739</v>
       </c>
       <c r="L359" t="n">
-        <v>-0.03087635213142348</v>
+        <v>0.03087635213142348</v>
       </c>
     </row>
     <row r="360">
@@ -14027,7 +14027,7 @@
         <v>337.8313335513533</v>
       </c>
       <c r="L360" t="n">
-        <v>-0.01883816098724034</v>
+        <v>0.01883816098724034</v>
       </c>
     </row>
     <row r="361">
@@ -14065,7 +14065,7 @@
         <v>347.3707323710077</v>
       </c>
       <c r="L361" t="n">
-        <v>-0.03534830275376866</v>
+        <v>0.03534830275376866</v>
       </c>
     </row>
     <row r="362">
@@ -14103,7 +14103,7 @@
         <v>351.5504698385472</v>
       </c>
       <c r="L362" t="n">
-        <v>-0.02310408328824187</v>
+        <v>0.02310408328824187</v>
       </c>
     </row>
     <row r="363">
@@ -14141,7 +14141,7 @@
         <v>345.3449088512932</v>
       </c>
       <c r="L363" t="n">
-        <v>-0.01119129058467783</v>
+        <v>0.01119129058467783</v>
       </c>
     </row>
     <row r="364">
@@ -14179,7 +14179,7 @@
         <v>355.2596763224341</v>
       </c>
       <c r="L364" t="n">
-        <v>0.008024344623781987</v>
+        <v>-0.008024344623781987</v>
       </c>
     </row>
     <row r="365">
@@ -14217,7 +14217,7 @@
         <v>355.1674059155526</v>
       </c>
       <c r="L365" t="n">
-        <v>-0.02000581956762404</v>
+        <v>0.02000581956762404</v>
       </c>
     </row>
     <row r="366">
@@ -14255,7 +14255,7 @@
         <v>358.6367827585551</v>
       </c>
       <c r="L366" t="n">
-        <v>-0.03326625436662278</v>
+        <v>0.03326625436662278</v>
       </c>
     </row>
     <row r="367">
@@ -14293,7 +14293,7 @@
         <v>359.8960953415241</v>
       </c>
       <c r="L367" t="n">
-        <v>-0.001323923724185105</v>
+        <v>0.001323923724185105</v>
       </c>
     </row>
     <row r="368">
@@ -14331,7 +14331,7 @@
         <v>362.7242942663434</v>
       </c>
       <c r="L368" t="n">
-        <v>-0.02374142656171063</v>
+        <v>0.02374142656171063</v>
       </c>
     </row>
     <row r="369">
@@ -14369,7 +14369,7 @@
         <v>367.3920801066175</v>
       </c>
       <c r="L369" t="n">
-        <v>-0.04052475664822097</v>
+        <v>0.04052475664822097</v>
       </c>
     </row>
     <row r="370">
@@ -14407,7 +14407,7 @@
         <v>372.5849406271993</v>
       </c>
       <c r="L370" t="n">
-        <v>0.01687862832125209</v>
+        <v>-0.01687862832125209</v>
       </c>
     </row>
     <row r="371">
@@ -14445,7 +14445,7 @@
         <v>385.751982399709</v>
       </c>
       <c r="L371" t="n">
-        <v>-0.02568525527434029</v>
+        <v>0.02568525527434029</v>
       </c>
     </row>
     <row r="372">
@@ -14483,7 +14483,7 @@
         <v>386.7167150428403</v>
       </c>
       <c r="L372" t="n">
-        <v>-0.02158813564623663</v>
+        <v>0.02158813564623663</v>
       </c>
     </row>
     <row r="373">
@@ -14521,7 +14521,7 @@
         <v>387.9124066274228</v>
       </c>
       <c r="L373" t="n">
-        <v>0.01595279229057356</v>
+        <v>-0.01595279229057356</v>
       </c>
     </row>
   </sheetData>

--- a/analysis_df.xlsx
+++ b/analysis_df.xlsx
@@ -1322,7 +1322,9 @@
       <c r="G26" t="n">
         <v>-0.0597808058432463</v>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>16.72472187471046</v>
+      </c>
       <c r="I26" t="n">
         <v>391.6309012875537</v>
       </c>
@@ -1359,7 +1361,7 @@
         <v>-0.0500921265964398</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.1896551724138056</v>
+        <v>14.06556973223734</v>
       </c>
       <c r="I27" t="n">
         <v>401.5021459227468</v>
@@ -1397,7 +1399,7 @@
         <v>0.06380542166503522</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4382978723404347</v>
+        <v>19.48671854701254</v>
       </c>
       <c r="I28" t="n">
         <v>411.3733905579399</v>
@@ -1435,7 +1437,7 @@
         <v>-0.08411068782578202</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.5029585798816594</v>
+        <v>10.06234153735561</v>
       </c>
       <c r="I29" t="n">
         <v>419.5278969957082</v>
@@ -1473,7 +1475,7 @@
         <v>0.03691694382764066</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.1011904761904779</v>
+        <v>8.656217431680613</v>
       </c>
       <c r="I30" t="n">
         <v>424.2489270386266</v>
@@ -1511,7 +1513,7 @@
         <v>-0.02502215617548931</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3443708609271627</v>
+        <v>12.1379020493837</v>
       </c>
       <c r="I31" t="n">
         <v>431.1158798283262</v>
@@ -1549,7 +1551,7 @@
         <v>-0.04550165831789021</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.03940886699507073</v>
+        <v>12.20644329101463</v>
       </c>
       <c r="I32" t="n">
         <v>442.7038626609442</v>
@@ -1587,7 +1589,7 @@
         <v>-0.04767116761579127</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.4358974358974365</v>
+        <v>7.040654905053545</v>
       </c>
       <c r="I33" t="n">
         <v>440.5579399141631</v>
@@ -1625,7 +1627,7 @@
         <v>0.06229558736924057</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.5727272727273081</v>
+        <v>2.767324072850696</v>
       </c>
       <c r="I34" t="n">
         <v>449.5708154506437</v>
@@ -1663,7 +1665,7 @@
         <v>0.07493722835846883</v>
       </c>
       <c r="H35" t="n">
-        <v>1.829787234042734</v>
+        <v>7.435667681821467</v>
       </c>
       <c r="I35" t="n">
         <v>449.1416309012876</v>
@@ -1701,7 +1703,7 @@
         <v>0.07121740686664957</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.01503759398497795</v>
+        <v>6.798986237577997</v>
       </c>
       <c r="I36" t="n">
         <v>449.1416309012876</v>
@@ -1739,7 +1741,7 @@
         <v>0.0350048063886601</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.5038167938930695</v>
+        <v>3.199879210105605</v>
       </c>
       <c r="I37" t="n">
         <v>448.7124463519313</v>
@@ -1777,7 +1779,7 @@
         <v>0.0004843787936801291</v>
       </c>
       <c r="H38" t="n">
-        <v>1.799999999999821</v>
+        <v>9.226397673798248</v>
       </c>
       <c r="I38" t="n">
         <v>455.793991416309</v>
@@ -1815,7 +1817,7 @@
         <v>-0.05730085383734274</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.1263736263736579</v>
+        <v>8.505524949707954</v>
       </c>
       <c r="I39" t="n">
         <v>455.793991416309</v>
@@ -1853,7 +1855,7 @@
         <v>0.02030526616074413</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.4905660377358665</v>
+        <v>4.155509399278845</v>
       </c>
       <c r="I40" t="n">
         <v>445.4935622317597</v>
@@ -1891,7 +1893,7 @@
         <v>-0.02287266166598823</v>
       </c>
       <c r="H41" t="n">
-        <v>1.345679012345834</v>
+        <v>10.27931201525822</v>
       </c>
       <c r="I41" t="n">
         <v>445.9227467811159</v>
@@ -1929,7 +1931,7 @@
         <v>0.03634928190166287</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0315789473684096</v>
+        <v>10.22254582266044</v>
       </c>
       <c r="I42" t="n">
         <v>444.206008583691</v>
@@ -1967,7 +1969,7 @@
         <v>-0.04824494842397486</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.2551020408163646</v>
+        <v>7.900266597811889</v>
       </c>
       <c r="I43" t="n">
         <v>442.9184549356223</v>
@@ -2005,7 +2007,7 @@
         <v>-0.04197163186041131</v>
       </c>
       <c r="H44" t="n">
-        <v>5.595524044110789e-14</v>
+        <v>8.25326924355978</v>
       </c>
       <c r="I44" t="n">
         <v>452.3605150214593</v>
@@ -2043,7 +2045,7 @@
         <v>-0.03365834963906966</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1232876712328843</v>
+        <v>9.65455104123194</v>
       </c>
       <c r="I45" t="n">
         <v>474.6781115879829</v>
@@ -2081,7 +2083,7 @@
         <v>0.0656952592653961</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1036585365853631</v>
+        <v>9.994518230847493</v>
       </c>
       <c r="I46" t="n">
         <v>480.2575107296137</v>
@@ -2119,7 +2121,7 @@
         <v>0.08508273608322359</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1933701657458597</v>
+        <v>11.00906900332297</v>
       </c>
       <c r="I47" t="n">
         <v>475.1072961373391</v>
@@ -2157,7 +2159,7 @@
         <v>0.01342302033214215</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.5046296296296147</v>
+        <v>5.229630349872227</v>
       </c>
       <c r="I48" t="n">
         <v>474.6781115879829</v>
@@ -2195,7 +2197,7 @@
         <v>0.04470017891790379</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2336448598129888</v>
+        <v>6.199167602796596</v>
       </c>
       <c r="I49" t="n">
         <v>492.2746781115879</v>
@@ -2233,7 +2235,7 @@
         <v>0.04147751732314564</v>
       </c>
       <c r="H50" t="n">
-        <v>0.6969696969697088</v>
+        <v>10.29848145574315</v>
       </c>
       <c r="I50" t="n">
         <v>507.7253218884121</v>
@@ -2271,7 +2273,7 @@
         <v>-0.007014496100023138</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4419642857143216</v>
+        <v>15.32711722947511</v>
       </c>
       <c r="I51" t="n">
         <v>509.4420600858369</v>
@@ -2309,7 +2311,7 @@
         <v>-0.0668582649506515</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.5789473684210522</v>
+        <v>6.610764118335544</v>
       </c>
       <c r="I52" t="n">
         <v>519.5278969957081</v>
@@ -2347,7 +2349,7 @@
         <v>0.04775930555227248</v>
       </c>
       <c r="H53" t="n">
-        <v>1.095588235294086</v>
+        <v>13.67396084016161</v>
       </c>
       <c r="I53" t="n">
         <v>521.244635193133</v>
@@ -2385,7 +2387,7 @@
         <v>-0.003593894254589003</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.2807017543859521</v>
+        <v>9.679643224536427</v>
       </c>
       <c r="I54" t="n">
         <v>524.0343347639486</v>
@@ -2423,7 +2425,7 @@
         <v>-0.00225276058326207</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4390243902439255</v>
+        <v>14.27886200860771</v>
       </c>
       <c r="I55" t="n">
         <v>542.9184549356223</v>
@@ -2461,7 +2463,7 @@
         <v>-0.0205065285624868</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1152542372881051</v>
+        <v>16.42537233840016</v>
       </c>
       <c r="I56" t="n">
         <v>564.3776824034335</v>
@@ -2499,7 +2501,7 @@
         <v>-0.1160580050405864</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.5379939209726448</v>
+        <v>8.185406798248485</v>
       </c>
       <c r="I57" t="n">
         <v>598.4978540772532</v>
@@ -2537,7 +2539,7 @@
         <v>0.1279574589503274</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9407894736842088</v>
+        <v>14.41162676674161</v>
       </c>
       <c r="I58" t="n">
         <v>626.3948497854077</v>
@@ -2575,7 +2577,7 @@
         <v>0.04274916272575036</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.2474576271186334</v>
+        <v>10.17826943099429</v>
       </c>
       <c r="I59" t="n">
         <v>637.5536480686695</v>
@@ -2613,7 +2615,7 @@
         <v>0.04766859884530517</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3783783783783323</v>
+        <v>13.60282728231059</v>
       </c>
       <c r="I60" t="n">
         <v>639.2703862660944</v>
@@ -2651,7 +2653,7 @@
         <v>0.03511998337272049</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.03267973856206907</v>
+        <v>12.64480772779226</v>
       </c>
       <c r="I61" t="n">
         <v>649.5751072961373</v>
@@ -2689,7 +2691,7 @@
         <v>-0.04137391244901911</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.6554054054054038</v>
+        <v>4.359664750575787</v>
       </c>
       <c r="I62" t="n">
         <v>668.0300429184549</v>
@@ -2727,7 +2729,7 @@
         <v>0.04976557008526905</v>
       </c>
       <c r="H63" t="n">
-        <v>1.352941176470607</v>
+        <v>10.03767136910501</v>
       </c>
       <c r="I63" t="n">
         <v>660.3047210300429</v>
@@ -2765,7 +2767,7 @@
         <v>0.0515718071313076</v>
       </c>
       <c r="H64" t="n">
-        <v>1.166666666666655</v>
+        <v>21.88067857730092</v>
       </c>
       <c r="I64" t="n">
         <v>647.8583690987125</v>
@@ -2803,7 +2805,7 @@
         <v>-0.02719953157706234</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.336538461538454</v>
+        <v>14.38479486436743</v>
       </c>
       <c r="I65" t="n">
         <v>630.2618025751074</v>
@@ -2841,7 +2843,7 @@
         <v>0.03097169749848661</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2579710144927378</v>
+        <v>17.841354039675</v>
       </c>
       <c r="I66" t="n">
         <v>619.7467811158798</v>
@@ -2879,7 +2881,7 @@
         <v>-0.03525269255576369</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.2004608294930924</v>
+        <v>14.54136084242483</v>
       </c>
       <c r="I67" t="n">
         <v>623.1802575107296</v>
@@ -2917,7 +2919,7 @@
         <v>0.02389323682218203</v>
       </c>
       <c r="H68" t="n">
-        <v>0.3083573487031857</v>
+        <v>18.98133738089172</v>
       </c>
       <c r="I68" t="n">
         <v>628.7596566523606</v>
@@ -2955,7 +2957,7 @@
         <v>-0.1760957375801158</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.4096916299559414</v>
+        <v>12.97756412693878</v>
       </c>
       <c r="I69" t="n">
         <v>645.068669527897</v>
@@ -2993,7 +2995,7 @@
         <v>0.1741898860407787</v>
       </c>
       <c r="H70" t="n">
-        <v>0.57835820895519</v>
+        <v>17.60080683598391</v>
       </c>
       <c r="I70" t="n">
         <v>653.6523605150214</v>
@@ -3031,7 +3033,7 @@
         <v>0.02858411981632347</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.04728132387707651</v>
+        <v>16.18430254504122</v>
       </c>
       <c r="I71" t="n">
         <v>633.9098712446352</v>
@@ -3069,7 +3071,7 @@
         <v>0.03174869831458116</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.06203473945407256</v>
+        <v>14.59231249196882</v>
       </c>
       <c r="I72" t="n">
         <v>620.175965665236</v>
@@ -3107,7 +3109,7 @@
         <v>0.01071821622002256</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.1481481481481597</v>
+        <v>12.15213577669902</v>
       </c>
       <c r="I73" t="n">
         <v>604.7253218884121</v>
@@ -3145,7 +3147,7 @@
         <v>-0.003559989519851037</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2826086956521943</v>
+        <v>15.93352806961583</v>
       </c>
       <c r="I74" t="n">
         <v>590.9914163090128</v>
@@ -3183,7 +3185,7 @@
         <v>0.0197746556594165</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.1598062953995303</v>
+        <v>12.93443662703058</v>
       </c>
       <c r="I75" t="n">
         <v>569.5321888412017</v>
@@ -3221,7 +3223,7 @@
         <v>0.0838011013593829</v>
       </c>
       <c r="H76" t="n">
-        <v>0.3371757925072261</v>
+        <v>16.15736604983811</v>
       </c>
       <c r="I76" t="n">
         <v>542.9227467811158</v>
@@ -3259,7 +3261,7 @@
         <v>-0.04707138488246088</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.1551724137931296</v>
+        <v>14.17018071929825</v>
       </c>
       <c r="I77" t="n">
         <v>524.4678111587983</v>
@@ -3297,7 +3299,7 @@
         <v>0.02233053961765563</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.03571428571427926</v>
+        <v>13.30606493121516</v>
       </c>
       <c r="I78" t="n">
         <v>524.0386266094421</v>
@@ -3335,7 +3337,7 @@
         <v>-0.01027009192514639</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1613756613756678</v>
+        <v>15.80432499427689</v>
       </c>
       <c r="I79" t="n">
         <v>512.0214592274679</v>
@@ -3373,7 +3375,7 @@
         <v>-0.06145746937019769</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.5489749430524022</v>
+        <v>7.269254375038914</v>
       </c>
       <c r="I80" t="n">
         <v>516.31330472103</v>
@@ -3411,7 +3413,7 @@
         <v>-0.1186686968603223</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5454545454545501</v>
+        <v>13.01195844701826</v>
       </c>
       <c r="I81" t="n">
         <v>536.0557939914163</v>
@@ -3449,7 +3451,7 @@
         <v>0.1920428911639838</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3660130718954682</v>
+        <v>14.79725895933877</v>
       </c>
       <c r="I82" t="n">
         <v>548.0729613733905</v>
@@ -3487,7 +3489,7 @@
         <v>0.02630448788673379</v>
       </c>
       <c r="H83" t="n">
-        <v>0.01196172248802974</v>
+        <v>14.5692957663798</v>
       </c>
       <c r="I83" t="n">
         <v>535.1974248927038</v>
@@ -3525,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.2056737588652537</v>
+        <v>11.39442593492168</v>
       </c>
       <c r="I84" t="n">
         <v>522.7510729613733</v>
@@ -3563,7 +3565,7 @@
         <v>0.03681397312271839</v>
       </c>
       <c r="H85" t="n">
-        <v>0.2589285714286045</v>
+        <v>14.00400162519126</v>
       </c>
       <c r="I85" t="n">
         <v>517.6051502145922</v>
@@ -3601,7 +3603,7 @@
         <v>-0.05655890977534073</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.3971631205673856</v>
+        <v>8.704109599642296</v>
       </c>
       <c r="I86" t="n">
         <v>498.7167381974249</v>
@@ -3639,7 +3641,7 @@
         <v>-0.03560515843054235</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.6392156862745146</v>
+        <v>3.166128190646411</v>
       </c>
       <c r="I87" t="n">
         <v>473.824034334764</v>
@@ -3677,7 +3679,7 @@
         <v>0.06205831381828419</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.6630434782608972</v>
+        <v>0.9918494365365405</v>
       </c>
       <c r="I88" t="n">
         <v>445.4978540772532</v>
@@ -3715,7 +3717,7 @@
         <v>0.01923439401801419</v>
       </c>
       <c r="H89" t="n">
-        <v>6.580645161291231</v>
+        <v>7.622427326584047</v>
       </c>
       <c r="I89" t="n">
         <v>424.4678111587983</v>
@@ -3753,7 +3755,7 @@
         <v>-0.01447021159089656</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.4808510638297854</v>
+        <v>3.942352205728827</v>
       </c>
       <c r="I90" t="n">
         <v>421.8927038626609</v>
@@ -3791,7 +3793,7 @@
         <v>0.01603051772739006</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6721311475409386</v>
+        <v>6.572413170982472</v>
       </c>
       <c r="I91" t="n">
         <v>424.8969957081545</v>
@@ -3829,7 +3831,7 @@
         <v>-0.06739052103061072</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.1470588235293929</v>
+        <v>5.979108004941169</v>
       </c>
       <c r="I92" t="n">
         <v>457.5150214592275</v>
@@ -3867,7 +3869,7 @@
         <v>-0.1563768606219829</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.6781609195402087</v>
+        <v>2.208291628775116</v>
       </c>
       <c r="I93" t="n">
         <v>479.8326180257511</v>
@@ -3905,7 +3907,7 @@
         <v>0.1663337965167782</v>
       </c>
       <c r="H94" t="n">
-        <v>-1.196428571428604</v>
+        <v>-0.3626178359454446</v>
       </c>
       <c r="I94" t="n">
         <v>475.5407725321889</v>
@@ -3943,7 +3945,7 @@
         <v>0.0134494400623959</v>
       </c>
       <c r="H95" t="n">
-        <v>3.636363636362479</v>
+        <v>-1.648122618379233</v>
       </c>
       <c r="I95" t="n">
         <v>459.2317596566523</v>
@@ -3981,7 +3983,7 @@
         <v>0.03269521991861124</v>
       </c>
       <c r="H96" t="n">
-        <v>-1.999999999999988</v>
+        <v>1.621399373481891</v>
       </c>
       <c r="I96" t="n">
         <v>442.9227467811158</v>
@@ -4019,7 +4021,7 @@
         <v>0.001575547828680968</v>
       </c>
       <c r="H97" t="n">
-        <v>-2.196078431372588</v>
+        <v>-1.902443155921851</v>
       </c>
       <c r="I97" t="n">
         <v>450.2231759656652</v>
@@ -4057,7 +4059,7 @@
         <v>0.00815307118963382</v>
       </c>
       <c r="H98" t="n">
-        <v>-3.344262295081877</v>
+        <v>4.568754940575603</v>
       </c>
       <c r="I98" t="n">
         <v>468.6738197424892</v>
@@ -4095,7 +4097,7 @@
         <v>0.01733789560532939</v>
       </c>
       <c r="H99" t="n">
-        <v>1.139860139860164</v>
+        <v>9.863060344162777</v>
       </c>
       <c r="I99" t="n">
         <v>457.0858369098713</v>
@@ -4133,7 +4135,7 @@
         <v>0.01704240882451646</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.4346405228758369</v>
+        <v>5.361469844786004</v>
       </c>
       <c r="I100" t="n">
         <v>455.3690987124464</v>
@@ -4171,7 +4173,7 @@
         <v>-0.01857827151315439</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.7052023121387162</v>
+        <v>1.580203291669147</v>
       </c>
       <c r="I101" t="n">
         <v>468.6738197424892</v>
@@ -4209,7 +4211,7 @@
         <v>0.05035525850425282</v>
       </c>
       <c r="H102" t="n">
-        <v>4.19607843137255</v>
+        <v>8.062750301184085</v>
       </c>
       <c r="I102" t="n">
         <v>453.2231759656652</v>
@@ -4247,7 +4249,7 @@
         <v>-0.03328687705599354</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.6150943396226439</v>
+        <v>3.131010822845726</v>
       </c>
       <c r="I103" t="n">
         <v>452.3648068669527</v>
@@ -4285,7 +4287,7 @@
         <v>-0.02664374418469295</v>
       </c>
       <c r="H104" t="n">
-        <v>1.196078431372498</v>
+        <v>7.205688507437502</v>
       </c>
       <c r="I104" t="n">
         <v>466.0987124463519</v>
@@ -4323,7 +4325,7 @@
         <v>-0.1741612741226177</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.361607142857134</v>
+        <v>5.427247157374016</v>
       </c>
       <c r="I105" t="n">
         <v>489.7038626609442</v>
@@ -4361,7 +4363,7 @@
         <v>0.196261621123285</v>
       </c>
       <c r="H106" t="n">
-        <v>0.8601398601398951</v>
+        <v>8.420029618024705</v>
       </c>
       <c r="I106" t="n">
         <v>500.4334763948497</v>
@@ -4399,7 +4401,7 @@
         <v>0.06436774152824087</v>
       </c>
       <c r="H107" t="n">
-        <v>0.6691729323308186</v>
+        <v>13.5118597646092</v>
       </c>
       <c r="I107" t="n">
         <v>500.4334763948497</v>
@@ -4437,7 +4439,7 @@
         <v>0.01300923324436676</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.1261261261261168</v>
+        <v>11.54326109718475</v>
       </c>
       <c r="I108" t="n">
         <v>485.8412017167382</v>
@@ -4475,7 +4477,7 @@
         <v>0.02962154288945662</v>
       </c>
       <c r="H109" t="n">
-        <v>0.2628865979381185</v>
+        <v>14.34786060326232</v>
       </c>
       <c r="I109" t="n">
         <v>493.1416309012876</v>
@@ -4513,7 +4515,7 @@
         <v>0.01381574189760171</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0510204081632637</v>
+        <v>14.91412767405911</v>
       </c>
       <c r="I110" t="n">
         <v>484.1244635193133</v>
@@ -4551,7 +4553,7 @@
         <v>-0.02506260300847662</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.2873786407766908</v>
+        <v>10.67407781267851</v>
       </c>
       <c r="I111" t="n">
         <v>487.9871244635194</v>
@@ -4589,7 +4591,7 @@
         <v>0.09893994785490445</v>
       </c>
       <c r="H112" t="n">
-        <v>0.8746594005449739</v>
+        <v>18.8638317157173</v>
       </c>
       <c r="I112" t="n">
         <v>470.3905579399142</v>
@@ -4627,7 +4629,7 @@
         <v>-0.02581768302594067</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.05959302325582405</v>
+        <v>18.13989056443868</v>
       </c>
       <c r="I113" t="n">
         <v>470.8197424892704</v>
@@ -4665,7 +4667,7 @@
         <v>0.02456752659358408</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.109737248840809</v>
+        <v>15.5611173733718</v>
       </c>
       <c r="I114" t="n">
         <v>472.107296137339</v>
@@ -4703,7 +4705,7 @@
         <v>-0.02328629643753644</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0347222222222292</v>
+        <v>16.56117543521751</v>
       </c>
       <c r="I115" t="n">
         <v>479.8326180257511</v>
@@ -4741,7 +4743,7 @@
         <v>-0.04531350030655279</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.1442953020134248</v>
+        <v>14.69419982303153</v>
       </c>
       <c r="I116" t="n">
         <v>509.4463519313305</v>
@@ -4779,7 +4781,7 @@
         <v>-0.1676388800014696</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.1196078431372581</v>
+        <v>15.34643923514634</v>
       </c>
       <c r="I117" t="n">
         <v>498.7682403433477</v>
@@ -4817,7 +4819,7 @@
         <v>0.2129523803080224</v>
       </c>
       <c r="H118" t="n">
-        <v>0.3608017817371969</v>
+        <v>17.01551515362008</v>
       </c>
       <c r="I118" t="n">
         <v>474.7339055793992</v>
@@ -4855,7 +4857,7 @@
         <v>0.04970432457681762</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.03273322422259139</v>
+        <v>15.54917345847775</v>
       </c>
       <c r="I119" t="n">
         <v>476.0214592274679</v>
@@ -4893,7 +4895,7 @@
         <v>-0.03672869410800139</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.3282571912013537</v>
+        <v>10.57538072324093</v>
       </c>
       <c r="I120" t="n">
         <v>476.8798283261803</v>
@@ -4931,7 +4933,7 @@
         <v>0.01280941789354184</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.1410579345088073</v>
+        <v>8.894168223649457</v>
       </c>
       <c r="I121" t="n">
         <v>549.8412017167382</v>
@@ -4969,7 +4971,7 @@
         <v>0.02025760972849699</v>
       </c>
       <c r="H122" t="n">
-        <v>0.09090909090908195</v>
+        <v>9.538355006738986</v>
       </c>
       <c r="I122" t="n">
         <v>579.4549356223176</v>
@@ -5007,7 +5009,7 @@
         <v>0.008765578404139607</v>
       </c>
       <c r="H123" t="n">
-        <v>0.344086021505378</v>
+        <v>12.92117314800061</v>
       </c>
       <c r="I123" t="n">
         <v>587.1802575107297</v>
@@ -5045,7 +5047,7 @@
         <v>-0.01391454160033012</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.8680000000000045</v>
+        <v>1.635724202477151</v>
       </c>
       <c r="I124" t="n">
         <v>585.3004291845493</v>
@@ -5083,7 +5085,7 @@
         <v>0.07503814763783145</v>
       </c>
       <c r="H125" t="n">
-        <v>6.348484848485006</v>
+        <v>11.72130726885436</v>
       </c>
       <c r="I125" t="n">
         <v>576.7081545064377</v>
@@ -5121,7 +5123,7 @@
         <v>-0.04883577524380778</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.6309278350515384</v>
+        <v>4.380977085115179</v>
       </c>
       <c r="I126" t="n">
         <v>582.2918454935622</v>
@@ -5159,7 +5161,7 @@
         <v>0.0133208439756598</v>
       </c>
       <c r="H127" t="n">
-        <v>0.8268156424580639</v>
+        <v>8.041691126434802</v>
       </c>
       <c r="I127" t="n">
         <v>596.4549356223176</v>
@@ -5197,7 +5199,7 @@
         <v>-0.02560867476935336</v>
       </c>
       <c r="H128" t="n">
-        <v>0.2018348623853441</v>
+        <v>10.01217368015475</v>
       </c>
       <c r="I128" t="n">
         <v>684.4377682403434</v>
@@ -5235,7 +5237,7 @@
         <v>-0.2283083812671891</v>
       </c>
       <c r="H129" t="n">
-        <v>-0.6768447837150148</v>
+        <v>3.9452235535828</v>
       </c>
       <c r="I129" t="n">
         <v>644.9527896995709</v>
@@ -5273,7 +5275,7 @@
         <v>0.2183192617829643</v>
       </c>
       <c r="H130" t="n">
-        <v>0.4094488188976431</v>
+        <v>4.48191170107699</v>
       </c>
       <c r="I130" t="n">
         <v>682.7210300429184</v>
@@ -5311,7 +5313,7 @@
         <v>0.03559779425357812</v>
       </c>
       <c r="H131" t="n">
-        <v>-0.2849162011173163</v>
+        <v>3.071258668753041</v>
       </c>
       <c r="I131" t="n">
         <v>715.3390557939915</v>
@@ -5349,7 +5351,7 @@
         <v>0.03071437341482719</v>
       </c>
       <c r="H132" t="n">
-        <v>2.187499999999985</v>
+        <v>9.815565421035899</v>
       </c>
       <c r="I132" t="n">
         <v>743.6652360515022</v>
@@ -5387,7 +5389,7 @@
         <v>-0.03925737743677349</v>
       </c>
       <c r="H133" t="n">
-        <v>-0.536764705882349</v>
+        <v>4.608885888004366</v>
       </c>
       <c r="I133" t="n">
         <v>780.0386266094421</v>
@@ -5425,7 +5427,7 @@
         <v>0.001190901653193688</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.4074074074074054</v>
+        <v>2.702215080474035</v>
       </c>
       <c r="I134" t="n">
         <v>850.7081545064378</v>
@@ -5463,7 +5465,7 @@
         <v>0.01675950947064919</v>
       </c>
       <c r="H135" t="n">
-        <v>0.3125000000000058</v>
+        <v>3.501608187124994</v>
       </c>
       <c r="I135" t="n">
         <v>862.2961373390558</v>
@@ -5501,7 +5503,7 @@
         <v>0.05908124150786564</v>
       </c>
       <c r="H136" t="n">
-        <v>2.15646258503394</v>
+        <v>10.80118649794457</v>
       </c>
       <c r="I136" t="n">
         <v>891.4806866952791</v>
@@ -5539,7 +5541,7 @@
         <v>-0.02955880224154361</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.9676724137930898</v>
+        <v>0.3414915100070637</v>
       </c>
       <c r="I137" t="n">
         <v>915.2446351931329</v>
@@ -5577,7 +5579,7 @@
         <v>0.01376841522191086</v>
       </c>
       <c r="H138" t="n">
-        <v>17.9999999999918</v>
+        <v>6.601910556578927</v>
       </c>
       <c r="I138" t="n">
         <v>961.5965665236052</v>
@@ -5615,7 +5617,7 @@
         <v>0.01711343021152212</v>
       </c>
       <c r="H139" t="n">
-        <v>0.07368421052633134</v>
+        <v>6.981169180165159</v>
       </c>
       <c r="I139" t="n">
         <v>1011.811158798283</v>
@@ -5653,7 +5655,7 @@
         <v>-0.01935759632393097</v>
       </c>
       <c r="H140" t="n">
-        <v>0.06535947712419365</v>
+        <v>7.606277024707397</v>
       </c>
       <c r="I140" t="n">
         <v>1107.090128755365</v>
@@ -5691,7 +5693,7 @@
         <v>-0.2250550603012593</v>
       </c>
       <c r="H141" t="n">
-        <v>-0.1687116564417295</v>
+        <v>7.931609121300376</v>
       </c>
       <c r="I141" t="n">
         <v>1212.24034334764</v>
@@ -5729,7 +5731,7 @@
         <v>0.214666529655684</v>
       </c>
       <c r="H142" t="n">
-        <v>0.1845018450184466</v>
+        <v>7.566335908572341</v>
       </c>
       <c r="I142" t="n">
         <v>1265.030042918455</v>
@@ -5767,7 +5769,7 @@
         <v>0.02400025480761414</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.1277258566978151</v>
+        <v>6.406581963975944</v>
       </c>
       <c r="I143" t="n">
         <v>1310.523605150215</v>
@@ -5805,7 +5807,7 @@
         <v>0.03227493394179737</v>
       </c>
       <c r="H144" t="n">
-        <v>0.0571428571428545</v>
+        <v>6.562638016672961</v>
       </c>
       <c r="I144" t="n">
         <v>1345.721030042919</v>
@@ -5843,7 +5845,7 @@
         <v>-0.004301081899391157</v>
       </c>
       <c r="H145" t="n">
-        <v>0.4999999999999847</v>
+        <v>10.05826757041119</v>
       </c>
       <c r="I145" t="n">
         <v>1384.060830092386</v>
@@ -5881,7 +5883,7 @@
         <v>0.03556683099474434</v>
       </c>
       <c r="H146" t="n">
-        <v>0.3671171171171455</v>
+        <v>13.49586050456626</v>
       </c>
       <c r="I146" t="n">
         <v>1437.047519824163</v>
@@ -5919,7 +5921,7 @@
         <v>0.02809576784176748</v>
       </c>
       <c r="H147" t="n">
-        <v>0.1087314662273298</v>
+        <v>14.62948634167809</v>
       </c>
       <c r="I147" t="n">
         <v>1480.395159309141</v>
@@ -5957,7 +5959,7 @@
         <v>0.06099331610763503</v>
       </c>
       <c r="H148" t="n">
-        <v>0.07578008915305889</v>
+        <v>14.82069380165503</v>
       </c>
       <c r="I148" t="n">
         <v>1542.197734416438</v>
@@ -5995,7 +5997,7 @@
         <v>-0.03958607669406522</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.09944751381215988</v>
+        <v>13.81796635640287</v>
       </c>
       <c r="I149" t="n">
         <v>1566.656593998459</v>
@@ -6033,7 +6035,7 @@
         <v>0.0319466201361065</v>
       </c>
       <c r="H150" t="n">
-        <v>0.1579754601227013</v>
+        <v>15.63578684782243</v>
       </c>
       <c r="I150" t="n">
         <v>1624.195281999888</v>
@@ -6071,7 +6073,7 @@
         <v>0.02984168556894851</v>
       </c>
       <c r="H151" t="n">
-        <v>0.1072847682119273</v>
+        <v>16.90861238356507</v>
       </c>
       <c r="I151" t="n">
         <v>1761.53433779388</v>
@@ -6109,7 +6111,7 @@
         <v>-0.07594183610215399</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.3660287081339807</v>
+        <v>11.25018840574277</v>
       </c>
       <c r="I152" t="n">
         <v>1862.821891441949</v>
@@ -6147,7 +6149,7 @@
         <v>-0.2188364379296055</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.1547169811320721</v>
+        <v>11.87205064290815</v>
       </c>
       <c r="I153" t="n">
         <v>1964.543289370657</v>
@@ -6185,7 +6187,7 @@
         <v>0.2697180836584878</v>
       </c>
       <c r="H154" t="n">
-        <v>0.8660714285714299</v>
+        <v>17.37720604318853</v>
       </c>
       <c r="I154" t="n">
         <v>2014.757881645335</v>
@@ -6223,7 +6225,7 @@
         <v>0.01927497315560522</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.005980861244014868</v>
+        <v>16.90467787798764</v>
       </c>
       <c r="I155" t="n">
         <v>2060.680628426451</v>
@@ -6261,7 +6263,7 @@
         <v>0.03656815346515341</v>
       </c>
       <c r="H156" t="n">
-        <v>0.06137184115523375</v>
+        <v>17.33399983032324</v>
       </c>
       <c r="I156" t="n">
         <v>2107.890928855635</v>
@@ -6299,7 +6301,7 @@
         <v>-0.02133754701426316</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.1099773242630326</v>
+        <v>15.63035331883604</v>
       </c>
       <c r="I157" t="n">
         <v>2152.096937439326</v>
@@ -6337,7 +6339,7 @@
         <v>0.03584742988353984</v>
       </c>
       <c r="H158" t="n">
-        <v>0.03821656050953748</v>
+        <v>15.65841320771559</v>
       </c>
       <c r="I158" t="n">
         <v>2216.47461984276</v>
@@ -6375,7 +6377,7 @@
         <v>-0.01722015645893737</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.285889570552133</v>
+        <v>11.12682077764511</v>
       </c>
       <c r="I159" t="n">
         <v>2257.264826867657</v>
@@ -6413,7 +6415,7 @@
         <v>0.06259162988806555</v>
       </c>
       <c r="H160" t="n">
-        <v>0.07903780068727562</v>
+        <v>11.28665215568816</v>
       </c>
       <c r="I160" t="n">
         <v>2266.277702404137</v>
@@ -6451,7 +6453,7 @@
         <v>-0.05340651353389436</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.1624203821656063</v>
+        <v>9.904608471705245</v>
       </c>
       <c r="I161" t="n">
         <v>2328.524994404712</v>
@@ -6489,7 +6491,7 @@
         <v>0.0576463231582407</v>
       </c>
       <c r="H162" t="n">
-        <v>0.3174904942965908</v>
+        <v>12.47457877391867</v>
       </c>
       <c r="I162" t="n">
         <v>2387.364697250313</v>
@@ -6527,7 +6529,7 @@
         <v>0.01027031504097309</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.1399711399711459</v>
+        <v>10.51744172112112</v>
       </c>
       <c r="I163" t="n">
         <v>2450.884010555034</v>
@@ -6565,7 +6567,7 @@
         <v>-0.08000083250341383</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.1107382550335659</v>
+        <v>10.11154208099514</v>
       </c>
       <c r="I164" t="n">
         <v>2741.012765919841</v>
@@ -6603,7 +6605,7 @@
         <v>-0.2299257070818364</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.2886792452830063</v>
+        <v>9.002615165772054</v>
       </c>
       <c r="I165" t="n">
         <v>2802.815341027137</v>
@@ -6641,7 +6643,7 @@
         <v>0.2590739485673978</v>
       </c>
       <c r="H166" t="n">
-        <v>0.1485411140583439</v>
+        <v>7.938201656663058</v>
       </c>
       <c r="I166" t="n">
         <v>2847.450534160184</v>
@@ -6679,7 +6681,7 @@
         <v>0.0474968831708793</v>
       </c>
       <c r="H167" t="n">
-        <v>0.4018475750577464</v>
+        <v>10.76039265819047</v>
       </c>
       <c r="I167" t="n">
         <v>2881.790475556656</v>
@@ -6717,7 +6719,7 @@
         <v>0.024569629008524</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.08401976935750799</v>
+        <v>9.560540212527524</v>
       </c>
       <c r="I168" t="n">
         <v>2873.206784569532</v>
@@ -6755,7 +6757,7 @@
         <v>-0.04631700324263033</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.2859712230215807</v>
+        <v>7.062594589690807</v>
       </c>
       <c r="I169" t="n">
         <v>2906.253994869961</v>
@@ -6793,7 +6795,7 @@
         <v>0.09917515983611747</v>
       </c>
       <c r="H170" t="n">
-        <v>1.030226700251897</v>
+        <v>13.39536758494857</v>
       </c>
       <c r="I170" t="n">
         <v>2831.146698732622</v>
@@ -6831,7 +6833,7 @@
         <v>-0.03465810921416246</v>
       </c>
       <c r="H171" t="n">
-        <v>-0.1526054590570789</v>
+        <v>11.65157230942606</v>
       </c>
       <c r="I171" t="n">
         <v>2835.86772877554</v>
@@ -6869,7 +6871,7 @@
         <v>0.0362123526106588</v>
       </c>
       <c r="H172" t="n">
-        <v>-0.1874084919472931</v>
+        <v>9.013644581685387</v>
       </c>
       <c r="I172" t="n">
         <v>2776.640260964382</v>
@@ -6907,7 +6909,7 @@
         <v>-0.04121680247720327</v>
       </c>
       <c r="H173" t="n">
-        <v>0.08288288288289203</v>
+        <v>10.2326156873545</v>
       </c>
       <c r="I173" t="n">
         <v>2690.38452143973</v>
@@ -6945,7 +6947,7 @@
         <v>0.02855741640976905</v>
       </c>
       <c r="H174" t="n">
-        <v>-0.2529118136439278</v>
+        <v>7.323725012507332</v>
       </c>
       <c r="I174" t="n">
         <v>2652.228516130828</v>
@@ -6983,7 +6985,7 @@
         <v>-0.004097720469845356</v>
       </c>
       <c r="H175" t="n">
-        <v>-0.1937639198218295</v>
+        <v>5.886921461425487</v>
       </c>
       <c r="I175" t="n">
         <v>2618.322936731687</v>
@@ -7021,7 +7023,7 @@
         <v>-0.0733793392795743</v>
       </c>
       <c r="H176" t="n">
-        <v>0.03038674033152144</v>
+        <v>6.549070783809441</v>
       </c>
       <c r="I176" t="n">
         <v>2716.697720150644</v>
@@ -7059,7 +7061,7 @@
         <v>-0.1666061286480458</v>
       </c>
       <c r="H177" t="n">
-        <v>0.6139410187667202</v>
+        <v>12.8810286271885</v>
       </c>
       <c r="I177" t="n">
         <v>2723.017890938832</v>
@@ -7097,7 +7099,7 @@
         <v>0.1980573660021818</v>
       </c>
       <c r="H178" t="n">
-        <v>-0.3388704318936885</v>
+        <v>6.779370370666893</v>
       </c>
       <c r="I178" t="n">
         <v>2775.252125760614</v>
@@ -7135,7 +7137,7 @@
         <v>0.04602582239528363</v>
       </c>
       <c r="H179" t="n">
-        <v>0.02512562814070707</v>
+        <v>6.632264293107326</v>
       </c>
       <c r="I179" t="n">
         <v>2724.842665483313</v>
@@ -7173,7 +7175,7 @@
         <v>-0.05197232158301013</v>
       </c>
       <c r="H180" t="n">
-        <v>-1.151960784313732</v>
+        <v>-1.021930766046086</v>
       </c>
       <c r="I180" t="n">
         <v>2693.52332062012</v>
@@ -7211,7 +7213,7 @@
         <v>-0.05464724365882834</v>
       </c>
       <c r="H181" t="n">
-        <v>0.7258064516129126</v>
+        <v>-1.854954807665887</v>
       </c>
       <c r="I181" t="n">
         <v>2779.49418917888</v>
@@ -7249,7 +7251,7 @@
         <v>-0.002803576393911378</v>
       </c>
       <c r="H182" t="n">
-        <v>5.82242990654173</v>
+        <v>-12.05282843066877</v>
       </c>
       <c r="I182" t="n">
         <v>2695.417285194811</v>
@@ -7287,7 +7289,7 @@
         <v>0.02090668481931424</v>
       </c>
       <c r="H183" t="n">
-        <v>-0.4649334362338426</v>
+        <v>-6.496349027321102</v>
       </c>
       <c r="I183" t="n">
         <v>2672.431417843523</v>
@@ -7325,7 +7327,7 @@
         <v>0.04846170300701047</v>
       </c>
       <c r="H184" t="n">
-        <v>-0.1535166321103304</v>
+        <v>-5.271413987685936</v>
       </c>
       <c r="I184" t="n">
         <v>2680.339265864945</v>
@@ -7363,7 +7365,7 @@
         <v>-0.01189703391184516</v>
       </c>
       <c r="H185" t="n">
-        <v>-0.5678740452649813</v>
+        <v>-2.339437131150124</v>
       </c>
       <c r="I185" t="n">
         <v>2562.527316966094</v>
@@ -7401,7 +7403,7 @@
         <v>-0.008010723746078696</v>
       </c>
       <c r="H186" t="n">
-        <v>1.589913448078685</v>
+        <v>-5.996251146734899</v>
       </c>
       <c r="I186" t="n">
         <v>2602.006535781008</v>
@@ -7439,7 +7441,7 @@
         <v>-0.006724974907674763</v>
       </c>
       <c r="H187" t="n">
-        <v>0.03819568676111129</v>
+        <v>-6.25897659051784</v>
       </c>
       <c r="I187" t="n">
         <v>2675.247175606695</v>
@@ -7477,7 +7479,7 @@
         <v>-0.04838538780284551</v>
       </c>
       <c r="H188" t="n">
-        <v>-0.4348678880044944</v>
+        <v>-3.759581442844961</v>
       </c>
       <c r="I188" t="n">
         <v>2665.422847352747</v>
@@ -7515,7 +7517,7 @@
         <v>-0.3591060634505512</v>
       </c>
       <c r="H189" t="n">
-        <v>3.715678642325908</v>
+        <v>-23.0095749230955</v>
       </c>
       <c r="I189" t="n">
         <v>2783.612492368721</v>
@@ -7553,7 +7555,7 @@
         <v>0.436748857241767</v>
       </c>
       <c r="H190" t="n">
-        <v>-1.051199403496757</v>
+        <v>0.8595742008630225</v>
       </c>
       <c r="I190" t="n">
         <v>2743.341668320202</v>
@@ -7591,7 +7593,7 @@
         <v>0.07448236377172179</v>
       </c>
       <c r="H191" t="n">
-        <v>3.578499073003752</v>
+        <v>3.705228338506839</v>
       </c>
       <c r="I191" t="n">
         <v>2708.249760415459</v>
@@ -7629,7 +7631,7 @@
         <v>-0.06275584503140319</v>
       </c>
       <c r="H192" t="n">
-        <v>-0.3305789974060488</v>
+        <v>2.626875993667532</v>
       </c>
       <c r="I192" t="n">
         <v>2567.524566761292</v>
@@ -7667,7 +7669,7 @@
         <v>-0.02226680077575161</v>
       </c>
       <c r="H193" t="n">
-        <v>1.148674474874629</v>
+        <v>5.864920281975206</v>
       </c>
       <c r="I193" t="n">
         <v>2621.50985224385</v>
@@ -7705,7 +7707,7 @@
         <v>-0.05863983783704896</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.9534955833452422</v>
+        <v>0.2812941376614475</v>
       </c>
       <c r="I194" t="n">
         <v>2635.288799510305</v>
@@ -7743,7 +7745,7 @@
         <v>0.03586591318849663</v>
       </c>
       <c r="H195" t="n">
-        <v>5.500000000001019</v>
+        <v>1.777216974579687</v>
       </c>
       <c r="I195" t="n">
         <v>2662.994463554815</v>
@@ -7781,7 +7783,7 @@
         <v>0.06682249624540137</v>
       </c>
       <c r="H196" t="n">
-        <v>1.153846153846211</v>
+        <v>3.613296298418778</v>
       </c>
       <c r="I196" t="n">
         <v>2545.37974137103</v>
@@ -7819,7 +7821,7 @@
         <v>-0.01147240116223536</v>
       </c>
       <c r="H197" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>3.655759573379758</v>
       </c>
       <c r="I197" t="n">
         <v>2469.537102622056</v>
@@ -7857,7 +7859,7 @@
         <v>0.01904819497069354</v>
       </c>
       <c r="H198" t="n">
-        <v>0.7499999999999689</v>
+        <v>6.361651445056982</v>
       </c>
       <c r="I198" t="n">
         <v>2372.551377733807</v>
@@ -7895,7 +7897,7 @@
         <v>-0.02033106878358293</v>
       </c>
       <c r="H199" t="n">
-        <v>-0.2244897959183521</v>
+        <v>5.001042057466165</v>
       </c>
       <c r="I199" t="n">
         <v>2286.754964374056</v>
@@ -7933,7 +7935,7 @@
         <v>0.01148704398713019</v>
       </c>
       <c r="H200" t="n">
-        <v>1.157894736842107</v>
+        <v>10.98828523646374</v>
       </c>
       <c r="I200" t="n">
         <v>2310.398592984215</v>
@@ -7971,7 +7973,7 @@
         <v>-0.4233913243763161</v>
       </c>
       <c r="H201" t="n">
-        <v>-0.7195121951219543</v>
+        <v>4.559759143887243</v>
       </c>
       <c r="I201" t="n">
         <v>2436.754521690536</v>
@@ -8009,7 +8011,7 @@
         <v>0.4546243440662487</v>
       </c>
       <c r="H202" t="n">
-        <v>1.173913043478275</v>
+        <v>6.347307826335413</v>
       </c>
       <c r="I202" t="n">
         <v>2383.94469194179</v>
@@ -8047,7 +8049,7 @@
         <v>0.02069459124283224</v>
       </c>
       <c r="H203" t="n">
-        <v>-0.8399999999999876</v>
+        <v>0.9685305734464578</v>
       </c>
       <c r="I203" t="n">
         <v>2316.033330174833</v>
@@ -8085,7 +8087,7 @@
         <v>0.01672679380531328</v>
       </c>
       <c r="H204" t="n">
-        <v>7.999999999999321</v>
+        <v>8.916794457118105</v>
       </c>
       <c r="I204" t="n">
         <v>2301.428098444644</v>
@@ -8123,7 +8125,7 @@
         <v>-0.03865215443427861</v>
       </c>
       <c r="H205" t="n">
-        <v>-0.2083333333333244</v>
+        <v>7.278259091265404</v>
       </c>
       <c r="I205" t="n">
         <v>2277.44541977618</v>
@@ -8161,7 +8163,7 @@
         <v>-0.03892519032199271</v>
       </c>
       <c r="H206" t="n">
-        <v>0.2105263157894686</v>
+        <v>9.249723842771029</v>
       </c>
       <c r="I206" t="n">
         <v>2183.942105216751</v>
@@ -8199,7 +8201,7 @@
         <v>0.04506394502031696</v>
       </c>
       <c r="H207" t="n">
-        <v>0.1449275362318732</v>
+        <v>10.16952702595306</v>
       </c>
       <c r="I207" t="n">
         <v>2135.158799922979</v>
@@ -8237,7 +8239,7 @@
         <v>0.08894748601649649</v>
       </c>
       <c r="H208" t="n">
-        <v>0.3164556962025387</v>
+        <v>12.38202600306257</v>
       </c>
       <c r="I208" t="n">
         <v>2123.659790211605</v>
@@ -8275,7 +8277,7 @@
         <v>-0.08894748601649649</v>
       </c>
       <c r="H209" t="n">
-        <v>-0.6442307692307772</v>
+        <v>4.634517517636461</v>
       </c>
       <c r="I209" t="n">
         <v>2087.573819683652</v>
@@ -8313,7 +8315,7 @@
         <v>0.05361617580368971</v>
       </c>
       <c r="H210" t="n">
-        <v>0.8108108108108449</v>
+        <v>8.091315600936078</v>
       </c>
       <c r="I210" t="n">
         <v>1965.35091687627</v>
@@ -8351,7 +8353,7 @@
         <v>-0.04995093040539356</v>
       </c>
       <c r="H211" t="n">
-        <v>-0.3880597014925432</v>
+        <v>5.129329438755015</v>
       </c>
       <c r="I211" t="n">
         <v>1689.511365727635</v>
@@ -8389,7 +8391,7 @@
         <v>-0.07598590697792229</v>
       </c>
       <c r="H212" t="n">
-        <v>-1.6829268292683</v>
+        <v>-3.617965657750233</v>
       </c>
       <c r="I212" t="n">
         <v>1989.252462767661</v>
@@ -8427,7 +8429,7 @@
         <v>-0.3718267489593332</v>
       </c>
       <c r="H213" t="n">
-        <v>-1.285714285714307</v>
+        <v>1.538491883948057</v>
       </c>
       <c r="I213" t="n">
         <v>2384.626369818472</v>
@@ -8465,7 +8467,7 @@
         <v>0.4837446651633188</v>
       </c>
       <c r="H214" t="n">
-        <v>3.624999999999561</v>
+        <v>4.450523993655064</v>
       </c>
       <c r="I214" t="n">
         <v>2579.517692380009</v>
@@ -8503,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>-0.4594594594594653</v>
+        <v>2.381064869371841</v>
       </c>
       <c r="I215" t="n">
         <v>2675.211247297652</v>
@@ -8541,7 +8543,7 @@
         <v>-0.005899722127187701</v>
       </c>
       <c r="H216" t="n">
-        <v>-0.9499999999999589</v>
+        <v>0.1184132761217427</v>
       </c>
       <c r="I216" t="n">
         <v>2802.183436172875</v>
@@ -8579,7 +8581,7 @@
         <v>0.01176484157958591</v>
       </c>
       <c r="H217" t="n">
-        <v>41.99999999996513</v>
+        <v>5.160112877508194</v>
       </c>
       <c r="I217" t="n">
         <v>2826.436796500815</v>
@@ -8617,7 +8619,7 @@
         <v>-0.03450669541578222</v>
       </c>
       <c r="H218" t="n">
-        <v>0.04651162790699348</v>
+        <v>5.601962368129243</v>
       </c>
       <c r="I218" t="n">
         <v>2961.638486206923</v>
@@ -8655,7 +8657,7 @@
         <v>0.002418380864281033</v>
       </c>
       <c r="H219" t="n">
-        <v>-0.7555555555555558</v>
+        <v>1.33740595252565</v>
       </c>
       <c r="I219" t="n">
         <v>3090.642567044824</v>
@@ -8693,7 +8695,7 @@
         <v>0.02504603192608812</v>
       </c>
       <c r="H220" t="n">
-        <v>-5.000000000000028</v>
+        <v>-5.052739456515187</v>
       </c>
       <c r="I220" t="n">
         <v>3128.948509082579</v>
@@ -8731,7 +8733,7 @@
         <v>-0.01543057322664509</v>
       </c>
       <c r="H221" t="n">
-        <v>-1.431818181818193</v>
+        <v>2.298951822469952</v>
       </c>
       <c r="I221" t="n">
         <v>3245.84318248648</v>
@@ -8769,7 +8771,7 @@
         <v>0.009523881511254828</v>
       </c>
       <c r="H222" t="n">
-        <v>-1.947368421052591</v>
+        <v>-2.110277606773536</v>
       </c>
       <c r="I222" t="n">
         <v>3304.771714335197</v>
@@ -8807,7 +8809,7 @@
         <v>0.03721359634043431</v>
       </c>
       <c r="H223" t="n">
-        <v>-4.111111111111142</v>
+        <v>6.60617506780925</v>
       </c>
       <c r="I223" t="n">
         <v>3599.615098049756</v>
@@ -8845,7 +8847,7 @@
         <v>-0.1084092985071843</v>
       </c>
       <c r="H224" t="n">
-        <v>-0.5357142857142777</v>
+        <v>3.363835914883051</v>
       </c>
       <c r="I224" t="n">
         <v>3902.670434916755</v>
@@ -8883,7 +8885,7 @@
         <v>-0.3790982322674226</v>
       </c>
       <c r="H225" t="n">
-        <v>-0.4615384615384897</v>
+        <v>2.636687584074116</v>
       </c>
       <c r="I225" t="n">
         <v>4273.253441578859</v>
@@ -8921,7 +8923,7 @@
         <v>0.4794845651036082</v>
       </c>
       <c r="H226" t="n">
-        <v>0.3571428571429489</v>
+        <v>2.210677578103049</v>
       </c>
       <c r="I226" t="n">
         <v>4427.960334412146</v>
@@ -8959,7 +8961,7 @@
         <v>0.03505163805891787</v>
       </c>
       <c r="H227" t="n">
-        <v>1.631578947368339</v>
+        <v>5.715841383994835</v>
       </c>
       <c r="I227" t="n">
         <v>4521.64629726485</v>
@@ -8997,7 +8999,7 @@
         <v>0.007747686790827046</v>
       </c>
       <c r="H228" t="n">
-        <v>0.2400000000000004</v>
+        <v>7.08058227579631</v>
       </c>
       <c r="I228" t="n">
         <v>4333.896994884635</v>
@@ -9035,7 +9037,7 @@
         <v>-0.08031837962566168</v>
       </c>
       <c r="H229" t="n">
-        <v>-1.290322580645155</v>
+        <v>-2.127739844728449</v>
       </c>
       <c r="I229" t="n">
         <v>4603.167907516137</v>
@@ -9073,7 +9075,7 @@
         <v>0.02127739844728449</v>
       </c>
       <c r="H230" t="n">
-        <v>-2.61111111111113</v>
+        <v>3.450669541578222</v>
       </c>
       <c r="I230" t="n">
         <v>4636.349992362832</v>
@@ -9111,7 +9113,7 @@
         <v>-0.06648974126883367</v>
       </c>
       <c r="H231" t="n">
-        <v>-1.965517241379314</v>
+        <v>-3.440142671733248</v>
       </c>
       <c r="I231" t="n">
         <v>4748.903081513477</v>
@@ -9149,7 +9151,7 @@
         <v>0.08846864798760912</v>
       </c>
       <c r="H232" t="n">
-        <v>-1.892857142857171</v>
+        <v>2.902118934418851</v>
       </c>
       <c r="I232" t="n">
         <v>4952.851052886524</v>
@@ -9187,7 +9189,7 @@
         <v>-0.0834811064765697</v>
       </c>
       <c r="H233" t="n">
-        <v>-2.279999999999973</v>
+        <v>-3.902934390573609</v>
       </c>
       <c r="I233" t="n">
         <v>5016.9553188894</v>
@@ -9225,7 +9227,7 @@
         <v>0.1183356745209601</v>
       </c>
       <c r="H234" t="n">
-        <v>-2.906249999999992</v>
+        <v>6.978244910396914</v>
       </c>
       <c r="I234" t="n">
         <v>5168.645870596738</v>
@@ -9263,7 +9265,7 @@
         <v>-0.03829296684742367</v>
       </c>
       <c r="H235" t="n">
-        <v>-1.081967213114755</v>
+        <v>-0.5724114083888843</v>
       </c>
       <c r="I235" t="n">
         <v>5441.753050718026</v>
@@ -9301,7 +9303,7 @@
         <v>-0.04340857449375513</v>
       </c>
       <c r="H236" t="n">
-        <v>-10.59999999999999</v>
+        <v>5.927660992954031</v>
       </c>
       <c r="I236" t="n">
         <v>5565.799250064463</v>
@@ -9339,7 +9341,7 @@
         <v>-0.4199581154107315</v>
       </c>
       <c r="H237" t="n">
-        <v>-0.7916666666666649</v>
+        <v>1.841672678623141</v>
       </c>
       <c r="I237" t="n">
         <v>5792.036800558755</v>
@@ -9377,7 +9379,7 @@
         <v>0.4377838993633314</v>
       </c>
       <c r="H238" t="n">
-        <v>-3.000000000000015</v>
+        <v>-2.328393895404535</v>
       </c>
       <c r="I238" t="n">
         <v>5980.160964669441</v>
@@ -9415,7 +9417,7 @@
         <v>0.0605553337512772</v>
       </c>
       <c r="H239" t="n">
-        <v>-1.100000000000032</v>
+        <v>0.2219756738313983</v>
       </c>
       <c r="I239" t="n">
         <v>5916.30211525764</v>
@@ -9453,7 +9455,7 @@
         <v>0.01975914998046147</v>
       </c>
       <c r="H240" t="n">
-        <v>5.499999999997584</v>
+        <v>1.42312199279484</v>
       </c>
       <c r="I240" t="n">
         <v>6003.336917133304</v>
@@ -9491,7 +9493,7 @@
         <v>-0.1199593150789795</v>
       </c>
       <c r="H241" t="n">
-        <v>-2.615384615384693</v>
+        <v>-2.540971552536941</v>
       </c>
       <c r="I241" t="n">
         <v>5940.528695959013</v>
@@ -9529,7 +9531,7 @@
         <v>0.06866602069142935</v>
       </c>
       <c r="H242" t="n">
-        <v>-1.904761904761924</v>
+        <v>2.197890671877545</v>
       </c>
       <c r="I242" t="n">
         <v>6023.099325661245</v>
@@ -9567,7 +9569,7 @@
         <v>-0.00229095174655658</v>
       </c>
       <c r="H243" t="n">
-        <v>2.789473684210383</v>
+        <v>8.617769624105254</v>
       </c>
       <c r="I243" t="n">
         <v>5701.290351760687</v>
@@ -9605,7 +9607,7 @@
         <v>0.01253577669498096</v>
       </c>
       <c r="H244" t="n">
-        <v>-0.87500000000001</v>
+        <v>1.024482494842438</v>
       </c>
       <c r="I244" t="n">
         <v>5259.090642827253</v>
@@ -9643,7 +9645,7 @@
         <v>-0.04873354063101143</v>
       </c>
       <c r="H245" t="n">
-        <v>3.111111111111477</v>
+        <v>4.499239079398265</v>
       </c>
       <c r="I245" t="n">
         <v>5248.780532163649</v>
@@ -9681,7 +9683,7 @@
         <v>0.05212529063213278</v>
       </c>
       <c r="H246" t="n">
-        <v>-1.5135135135135</v>
+        <v>-2.121799309484462</v>
       </c>
       <c r="I246" t="n">
         <v>5360.87233600867</v>
@@ -9719,7 +9721,7 @@
         <v>-0.04383631481317796</v>
       </c>
       <c r="H247" t="n">
-        <v>0.2105263157894854</v>
+        <v>-2.676134106059891</v>
       </c>
       <c r="I247" t="n">
         <v>5322.360164642146</v>
@@ -9757,7 +9759,7 @@
         <v>-0.004728141195946556</v>
       </c>
       <c r="H248" t="n">
-        <v>-1.43478260869562</v>
+        <v>1.191909223720966</v>
       </c>
       <c r="I248" t="n">
         <v>5729.072157605537</v>
@@ -9795,7 +9797,7 @@
         <v>-0.5096414910047748</v>
       </c>
       <c r="H249" t="n">
-        <v>-5.100000000000405</v>
+        <v>-7.776428335683372</v>
       </c>
       <c r="I249" t="n">
         <v>5888.781268957211</v>
@@ -9833,7 +9835,7 @@
         <v>0.531903687492246</v>
       </c>
       <c r="H250" t="n">
-        <v>-1.341463414634154</v>
+        <v>1.635550477208092</v>
       </c>
       <c r="I250" t="n">
         <v>5736.853892935408</v>
@@ -9871,7 +9873,7 @@
         <v>0.0822685911549943</v>
       </c>
       <c r="H251" t="n">
-        <v>1.499999999999881</v>
+        <v>3.806876217579802</v>
       </c>
       <c r="I251" t="n">
         <v>5548.937342647425</v>
@@ -9909,7 +9911,7 @@
         <v>-0.04809670136192334</v>
       </c>
       <c r="H252" t="n">
-        <v>-1.771428571428582</v>
+        <v>-2.978708916658679</v>
       </c>
       <c r="I252" t="n">
         <v>5401.636836948798</v>
@@ -9947,7 +9949,7 @@
         <v>-0.05170594508459558</v>
       </c>
       <c r="H253" t="n">
-        <v>-2.185185185185191</v>
+        <v>3.846628082779713</v>
       </c>
       <c r="I253" t="n">
         <v>5356.334098848884</v>
@@ -9985,7 +9987,7 @@
         <v>-0.02386748140664441</v>
       </c>
       <c r="H254" t="n">
-        <v>-2.437500000000012</v>
+        <v>-5.406722127027663</v>
       </c>
       <c r="I254" t="n">
         <v>5228.889527023048</v>
@@ -10023,7 +10025,7 @@
         <v>0.01913934021069785</v>
       </c>
       <c r="H255" t="n">
-        <v>-0.3913043478260979</v>
+        <v>-3.26369293130222</v>
       </c>
       <c r="I255" t="n">
         <v>5079.292836767081</v>
@@ -10061,7 +10063,7 @@
         <v>0.05306896813022899</v>
       </c>
       <c r="H256" t="n">
-        <v>-1.250000000000026</v>
+        <v>0.7896262122225828</v>
       </c>
       <c r="I256" t="n">
         <v>4912.981969538498</v>
@@ -10099,7 +10101,7 @@
         <v>-0.05781957088882628</v>
       </c>
       <c r="H257" t="n">
-        <v>-1.142857142857112</v>
+        <v>-0.118976813558902</v>
       </c>
       <c r="I257" t="n">
         <v>4779.815980578541</v>
@@ -10137,7 +10139,7 @@
         <v>0.0339412334280329</v>
       </c>
       <c r="H258" t="n">
-        <v>16.00000000000181</v>
+        <v>-1.93738253396889</v>
       </c>
       <c r="I258" t="n">
         <v>4531.935475998112</v>
@@ -10175,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>-2.235294117647078</v>
+        <v>2.446248947348906</v>
       </c>
       <c r="I259" t="n">
         <v>4740.013223798755</v>
@@ -10213,7 +10215,7 @@
         <v>0.02050185704418706</v>
       </c>
       <c r="H260" t="n">
-        <v>1.047619047619042</v>
+        <v>4.969248771362267</v>
       </c>
       <c r="I260" t="n">
         <v>4886.376510049486</v>
@@ -10251,7 +10253,7 @@
         <v>-0.5954824928347082</v>
       </c>
       <c r="H261" t="n">
-        <v>-1.418604651162781</v>
+        <v>-3.61485141163107</v>
       </c>
       <c r="I261" t="n">
         <v>4993.469068013047</v>
@@ -10289,7 +10291,7 @@
         <v>0.5505181463170321</v>
       </c>
       <c r="H262" t="n">
-        <v>-0.166666666666638</v>
+        <v>-1.753405529152463</v>
       </c>
       <c r="I262" t="n">
         <v>5116.211948391717</v>
@@ -10327,7 +10329,7 @@
         <v>0.06394872460027301</v>
       </c>
       <c r="H263" t="n">
-        <v>1.199999999999964</v>
+        <v>-3.585392184624592</v>
       </c>
       <c r="I263" t="n">
         <v>5140.380699254464</v>
@@ -10365,7 +10367,7 @@
         <v>-0.02011240978709505</v>
       </c>
       <c r="H264" t="n">
-        <v>-0.7878787878787938</v>
+        <v>-0.7869630271417627</v>
       </c>
       <c r="I264" t="n">
         <v>5060.007879229055</v>
@@ -10403,7 +10405,7 @@
         <v>-0.04856445600912451</v>
       </c>
       <c r="H265" t="n">
-        <v>-0.42857142857137</v>
+        <v>-0.4728141195946556</v>
       </c>
       <c r="I265" t="n">
         <v>6505.606674950258</v>
@@ -10441,7 +10443,7 @@
         <v>-0.05104388672944182</v>
       </c>
       <c r="H266" t="n">
-        <v>5.499999999999302</v>
+        <v>-3.190454651874397</v>
       </c>
       <c r="I266" t="n">
         <v>6452.196763086181</v>
@@ -10479,7 +10481,7 @@
         <v>0.02463178718966397</v>
       </c>
       <c r="H267" t="n">
-        <v>-0.1538461538461239</v>
+        <v>-2.641209953977786</v>
       </c>
       <c r="I267" t="n">
         <v>6219.861852568411</v>
@@ -10517,7 +10519,7 @@
         <v>0.09619454864374699</v>
       </c>
       <c r="H268" t="n">
-        <v>-1.68181818181815</v>
+        <v>1.671348097374015</v>
       </c>
       <c r="I268" t="n">
         <v>5805.494938319915</v>
@@ -10555,7 +10557,7 @@
         <v>-0.08650924290928241</v>
       </c>
       <c r="H269" t="n">
-        <v>-1.66666666666671</v>
+        <v>-1.197619104671599</v>
       </c>
       <c r="I269" t="n">
         <v>5747.941574026609</v>
@@ -10593,7 +10595,7 @@
         <v>0.04936372311833548</v>
       </c>
       <c r="H270" t="n">
-        <v>-1.299999999999944</v>
+        <v>0.3446298643586587</v>
       </c>
       <c r="I270" t="n">
         <v>5514.157879957124</v>
@@ -10631,7 +10633,7 @@
         <v>-0.03027006430275492</v>
       </c>
       <c r="H271" t="n">
-        <v>-8.666666666667858</v>
+        <v>-2.682376565916833</v>
       </c>
       <c r="I271" t="n">
         <v>5324.2538610997</v>
@@ -10669,7 +10671,7 @@
         <v>0.00941183418234548</v>
       </c>
       <c r="H272" t="n">
-        <v>0.4347826086956657</v>
+        <v>-3.791378852100991</v>
       </c>
       <c r="I272" t="n">
         <v>5437.099266125923</v>
@@ -10707,7 +10709,7 @@
         <v>-0.5719870797379691</v>
       </c>
       <c r="H273" t="n">
-        <v>-0.7878787878787961</v>
+        <v>-1.441837542427082</v>
       </c>
       <c r="I273" t="n">
         <v>5457.668034281201</v>
@@ -10745,7 +10747,7 @@
         <v>0.6053810865533595</v>
       </c>
       <c r="H274" t="n">
-        <v>-6.00000000000014</v>
+        <v>4.04445648120566</v>
       </c>
       <c r="I274" t="n">
         <v>5308.708837422447</v>
@@ -10783,7 +10785,7 @@
         <v>-0.0240699299402678</v>
       </c>
       <c r="H275" t="n">
-        <v>-2.200000000000022</v>
+        <v>-4.75740897284842</v>
       </c>
       <c r="I275" t="n">
         <v>4839.522403415279</v>
@@ -10821,7 +10823,7 @@
         <v>0.03196619206249363</v>
       </c>
       <c r="H276" t="n">
-        <v>-1.095238095238102</v>
+        <v>0.4504512121104476</v>
       </c>
       <c r="I276" t="n">
         <v>4581.531220664076</v>
@@ -10859,7 +10861,7 @@
         <v>-0.06139739223671015</v>
       </c>
       <c r="H277" t="n">
-        <v>-2.749999999999783</v>
+        <v>-0.8328424106481158</v>
       </c>
       <c r="I277" t="n">
         <v>4858.670001064635</v>
@@ -10897,7 +10899,7 @@
         <v>0.01305656530242771</v>
       </c>
       <c r="H278" t="n">
-        <v>-7.571428571428837</v>
+        <v>5.577202792538838</v>
       </c>
       <c r="I278" t="n">
         <v>4787.631634768755</v>
@@ -10935,7 +10937,7 @@
         <v>-0.004728141195946556</v>
       </c>
       <c r="H279" t="n">
-        <v>-0.521739130434777</v>
+        <v>2.641209953977786</v>
       </c>
       <c r="I279" t="n">
         <v>4648.526351813948</v>
@@ -10973,7 +10975,7 @@
         <v>0.08513362775973032</v>
       </c>
       <c r="H280" t="n">
-        <v>-0.3636363636363487</v>
+        <v>1.535117865576119</v>
       </c>
       <c r="I280" t="n">
         <v>4224.339361671005</v>
@@ -11011,7 +11013,7 @@
         <v>-0.0698482037579069</v>
       </c>
       <c r="H281" t="n">
-        <v>0.9285714285713846</v>
+        <v>3.20122178071367</v>
       </c>
       <c r="I281" t="n">
         <v>4165.766078571803</v>
@@ -11049,7 +11051,7 @@
         <v>0.05449702510214571</v>
       </c>
       <c r="H282" t="n">
-        <v>0.2222222222222185</v>
+        <v>3.714551979094693</v>
       </c>
       <c r="I282" t="n">
         <v>4190.328621229012</v>
@@ -11087,7 +11089,7 @@
         <v>-0.02574288769313515</v>
       </c>
       <c r="H283" t="n">
-        <v>0.09090909090907129</v>
+        <v>4.16726964005667</v>
       </c>
       <c r="I283" t="n">
         <v>4063.084498310944</v>
@@ -11125,7 +11127,7 @@
         <v>-0.04998134953958377</v>
       </c>
       <c r="H284" t="n">
-        <v>-1.416666666666652</v>
+        <v>-1.772048732136255</v>
       </c>
       <c r="I284" t="n">
         <v>4193.586833149494</v>
@@ -11163,7 +11165,7 @@
         <v>-0.5056740371797419</v>
       </c>
       <c r="H285" t="n">
-        <v>-2.600000000000064</v>
+        <v>4.859255523686468</v>
       </c>
       <c r="I285" t="n">
         <v>4421.366647883862</v>
@@ -11201,7 +11203,7 @@
         <v>0.5646847934387207</v>
       </c>
       <c r="H286" t="n">
-        <v>-0.7083333333332997</v>
+        <v>0.7896262122225828</v>
       </c>
       <c r="I286" t="n">
         <v>4509.237859468283</v>
@@ -11239,7 +11241,7 @@
         <v>-0.01016383679000654</v>
       </c>
       <c r="H287" t="n">
-        <v>1.714285714285517</v>
+        <v>2.180235527248708</v>
       </c>
       <c r="I287" t="n">
         <v>4637.540727801802</v>
@@ -11277,7 +11279,7 @@
         <v>0.0224476316721578</v>
       </c>
       <c r="H288" t="n">
-        <v>-0.4210526315790143</v>
+        <v>1.228379488215126</v>
       </c>
       <c r="I288" t="n">
         <v>4619.093712254936</v>
@@ -11315,7 +11317,7 @@
         <v>-0.02585866397322079</v>
       </c>
       <c r="H289" t="n">
-        <v>2.727272727272995</v>
+        <v>4.782252314564062</v>
       </c>
       <c r="I289" t="n">
         <v>4819.351161572961</v>
@@ -11353,7 +11355,7 @@
         <v>-0.001139601262933887</v>
       </c>
       <c r="H290" t="n">
-        <v>-0.292682926829265</v>
+        <v>3.362635658027902</v>
       </c>
       <c r="I290" t="n">
         <v>4969.575829431159</v>
@@ -11391,7 +11393,7 @@
         <v>0.009080652635747199</v>
       </c>
       <c r="H291" t="n">
-        <v>0.4137931034483109</v>
+        <v>4.743515041197277</v>
       </c>
       <c r="I291" t="n">
         <v>5115.631949046696</v>
@@ -11429,7 +11431,7 @@
         <v>0.028955252252028</v>
       </c>
       <c r="H292" t="n">
-        <v>-1.195121951219524</v>
+        <v>-0.8743225095729557</v>
       </c>
       <c r="I292" t="n">
         <v>5290.555944149613</v>
@@ -11467,7 +11469,7 @@
         <v>-0.09552974287469862</v>
       </c>
       <c r="H293" t="n">
-        <v>2.624999999999825</v>
+        <v>-3.442476421252127</v>
       </c>
       <c r="I293" t="n">
         <v>5604.015459813648</v>
@@ -11505,7 +11507,7 @@
         <v>0.09443144512563606</v>
       </c>
       <c r="H294" t="n">
-        <v>-1.172413793103445</v>
+        <v>0.5509655810969072</v>
       </c>
       <c r="I294" t="n">
         <v>5734.562709058713</v>
@@ -11543,7 +11545,7 @@
         <v>-0.04725288485054602</v>
       </c>
       <c r="H295" t="n">
-        <v>-3.800000000000054</v>
+        <v>-1.600034134644179</v>
       </c>
       <c r="I295" t="n">
         <v>5803.706274774335</v>
@@ -11581,7 +11583,7 @@
         <v>0.003450262192153275</v>
       </c>
       <c r="H296" t="n">
-        <v>-3.285714285714159</v>
+        <v>3.743127038529526</v>
       </c>
       <c r="I296" t="n">
         <v>6256.991172110687</v>
@@ -11619,7 +11621,7 @@
         <v>-0.4780728372941829</v>
       </c>
       <c r="H297" t="n">
-        <v>0.06250000000002531</v>
+        <v>6.503247027085424</v>
       </c>
       <c r="I297" t="n">
         <v>6706.108239816267</v>
@@ -11657,7 +11659,7 @@
         <v>0.4711603673735598</v>
       </c>
       <c r="H298" t="n">
-        <v>-1.735294117647077</v>
+        <v>-2.849195579430663</v>
       </c>
       <c r="I298" t="n">
         <v>6728.06849802558</v>
@@ -11695,7 +11697,7 @@
         <v>0.07137923188195927</v>
       </c>
       <c r="H299" t="n">
-        <v>-2.919999999999974</v>
+        <v>5.305111287765918</v>
       </c>
       <c r="I299" t="n">
         <v>6877.763889595708</v>
@@ -11733,7 +11735,7 @@
         <v>-0.01518467353831721</v>
       </c>
       <c r="H300" t="n">
-        <v>-0.7083333333333273</v>
+        <v>1.541880766718418</v>
       </c>
       <c r="I300" t="n">
         <v>6877.400372239915</v>
@@ -11771,7 +11773,7 @@
         <v>-0.08909999478604558</v>
       </c>
       <c r="H301" t="n">
-        <v>-3.928571428571309</v>
+        <v>-4.782252314564062</v>
       </c>
       <c r="I301" t="n">
         <v>6775.672645892017</v>
@@ -11809,7 +11811,7 @@
         <v>0.07145896398214457</v>
       </c>
       <c r="H302" t="n">
-        <v>-1.536585365853668</v>
+        <v>2.477604209943784</v>
       </c>
       <c r="I302" t="n">
         <v>6987.799195497553</v>
@@ -11847,7 +11849,7 @@
         <v>-0.04667893498365761</v>
       </c>
       <c r="H303" t="n">
-        <v>-2.227272727272728</v>
+        <v>-3.098354551996696</v>
       </c>
       <c r="I303" t="n">
         <v>6847.439983957554</v>
@@ -11885,7 +11887,7 @@
         <v>0.05222526090421375</v>
       </c>
       <c r="H304" t="n">
-        <v>-0.7407407407407545</v>
+        <v>-0.7713536867781201</v>
       </c>
       <c r="I304" t="n">
         <v>6702.841943911459</v>
@@ -11923,7 +11925,7 @@
         <v>-0.04989697114462288</v>
       </c>
       <c r="H305" t="n">
-        <v>-5.571428571428837</v>
+        <v>3.791923486229454</v>
       </c>
       <c r="I305" t="n">
         <v>6370.291620119657</v>
@@ -11961,7 +11963,7 @@
         <v>0.06635373310813364</v>
       </c>
       <c r="H306" t="n">
-        <v>-0.718749999999992</v>
+        <v>0.9841522844792117</v>
       </c>
       <c r="I306" t="n">
         <v>6527.607420788799</v>
@@ -11999,7 +12001,7 @@
         <v>-0.07922693604434006</v>
       </c>
       <c r="H307" t="n">
-        <v>-3.111111111110993</v>
+        <v>-2.213252834900192</v>
       </c>
       <c r="I307" t="n">
         <v>6284.641369633948</v>
@@ -12037,7 +12039,7 @@
         <v>0.06608326380379026</v>
       </c>
       <c r="H308" t="n">
-        <v>-2.894736842105329</v>
+        <v>4.050047326263506</v>
       </c>
       <c r="I308" t="n">
         <v>6444.01018239206</v>
@@ -12075,7 +12077,7 @@
         <v>-0.533498960773493</v>
       </c>
       <c r="H309" t="n">
-        <v>-1.222222222222206</v>
+        <v>-1.492565021667502</v>
       </c>
       <c r="I309" t="n">
         <v>6599.279810338327</v>
@@ -12113,7 +12115,7 @@
         <v>0.5201802289332105</v>
       </c>
       <c r="H310" t="n">
-        <v>-4.750000000000165</v>
+        <v>3.409421134297563</v>
       </c>
       <c r="I310" t="n">
         <v>7028.941382819656</v>
@@ -12151,7 +12153,7 @@
         <v>0.1139270696870804</v>
       </c>
       <c r="H311" t="n">
-        <v>1.466666666666685</v>
+        <v>7.66420491480968</v>
       </c>
       <c r="I311" t="n">
         <v>6896.151054343176</v>
@@ -12189,7 +12191,7 @@
         <v>-0.06274551338557188</v>
       </c>
       <c r="H312" t="n">
-        <v>-0.6351351351351298</v>
+        <v>2.908120930084213</v>
       </c>
       <c r="I312" t="n">
         <v>6765.036669952789</v>
@@ -12227,7 +12229,7 @@
         <v>-0.07492489892082776</v>
       </c>
       <c r="H313" t="n">
-        <v>0.3703703703703696</v>
+        <v>4.325630516605994</v>
       </c>
       <c r="I313" t="n">
         <v>6393.508489406137</v>
@@ -12265,7 +12267,7 @@
         <v>0.02486003731939501</v>
       </c>
       <c r="H314" t="n">
-        <v>-1.081081081081067</v>
+        <v>-0.3342621496689624</v>
       </c>
       <c r="I314" t="n">
         <v>6699.490350202919</v>
@@ -12303,7 +12305,7 @@
         <v>-0.004474280394921593</v>
       </c>
       <c r="H315" t="n">
-        <v>-12.33333333333511</v>
+        <v>3.886203309204639</v>
       </c>
       <c r="I315" t="n">
         <v>6951.379537356567</v>
@@ -12341,7 +12343,7 @@
         <v>-0.004494389587839542</v>
       </c>
       <c r="H316" t="n">
-        <v>-1.470588235294125</v>
+        <v>-1.785761740000691</v>
       </c>
       <c r="I316" t="n">
         <v>6805.566824488154</v>
@@ -12379,7 +12381,7 @@
         <v>0.07587603497869111</v>
       </c>
       <c r="H317" t="n">
-        <v>-7.124999999999956</v>
+        <v>10.79153887233071</v>
       </c>
       <c r="I317" t="n">
         <v>6813.322627903304</v>
@@ -12417,7 +12419,7 @@
         <v>-0.03505404045843541</v>
       </c>
       <c r="H318" t="n">
-        <v>-0.9387755102040826</v>
+        <v>0.6507615156738034</v>
       </c>
       <c r="I318" t="n">
         <v>6837.847740405494</v>
@@ -12455,7 +12457,7 @@
         <v>0.01395621149379878</v>
       </c>
       <c r="H319" t="n">
-        <v>13.83333333333353</v>
+        <v>9.969076269487687</v>
       </c>
       <c r="I319" t="n">
         <v>6886.381884946051</v>
@@ -12493,7 +12495,7 @@
         <v>0.01271203558836209</v>
       </c>
       <c r="H320" t="n">
-        <v>-0.5168539325842805</v>
+        <v>4.63195344794487</v>
       </c>
       <c r="I320" t="n">
         <v>7440.015259490987</v>
@@ -12531,7 +12533,7 @@
         <v>-0.6200923943908823</v>
       </c>
       <c r="H321" t="n">
-        <v>-1.488372093023273</v>
+        <v>-4.027389913794055</v>
       </c>
       <c r="I321" t="n">
         <v>7970.204218251459</v>
@@ -12569,7 +12571,7 @@
         <v>0.6031068480251394</v>
       </c>
       <c r="H322" t="n">
-        <v>-2.857142857142883</v>
+        <v>4.265271995398834</v>
       </c>
       <c r="I322" t="n">
         <v>8131.675582059271</v>
@@ -12607,7 +12609,7 @@
         <v>0.08513595781971617</v>
       </c>
       <c r="H323" t="n">
-        <v>-0.641025641025664</v>
+        <v>1.386160808662407</v>
       </c>
       <c r="I323" t="n">
         <v>8186.612134107983</v>
@@ -12645,7 +12647,7 @@
         <v>-0.05559794538285256</v>
       </c>
       <c r="H324" t="n">
-        <v>0.4285714285715041</v>
+        <v>2.100917608934338</v>
       </c>
       <c r="I324" t="n">
         <v>7855.951361854764</v>
@@ -12683,7 +12685,7 @@
         <v>-0.07554831808569773</v>
       </c>
       <c r="H325" t="n">
-        <v>-0.1000000000000325</v>
+        <v>2.038575692447342</v>
       </c>
       <c r="I325" t="n">
         <v>7956.880216336782</v>
@@ -12721,7 +12723,7 @@
         <v>-0.004494389587839542</v>
       </c>
       <c r="H326" t="n">
-        <v>-1.444444444444487</v>
+        <v>-0.8968669982761135</v>
       </c>
       <c r="I326" t="n">
         <v>8157.045475935708</v>
@@ -12759,7 +12761,7 @@
         <v>0.04836107169342174</v>
       </c>
       <c r="H327" t="n">
-        <v>-5.999999999999604</v>
+        <v>4.38666821055822</v>
       </c>
       <c r="I327" t="n">
         <v>8277.167959269827</v>
@@ -12797,7 +12799,7 @@
         <v>0.05021975697902636</v>
       </c>
       <c r="H328" t="n">
-        <v>1.30000000000002</v>
+        <v>9.858082867244811</v>
       </c>
       <c r="I328" t="n">
         <v>8298.057195436268</v>
@@ -12835,7 +12837,7 @@
         <v>-0.05559900609876323</v>
       </c>
       <c r="H329" t="n">
-        <v>-1.336956521739133</v>
+        <v>-3.289421240500623</v>
       </c>
       <c r="I329" t="n">
         <v>8821.474016882361</v>
@@ -12873,7 +12875,7 @@
         <v>0.05150902084723796</v>
       </c>
       <c r="H330" t="n">
-        <v>-2.645161290322553</v>
+        <v>5.366884890066714</v>
       </c>
       <c r="I330" t="n">
         <v>9497.491706895536</v>
@@ -12911,7 +12913,7 @@
         <v>0.01120745302038895</v>
       </c>
       <c r="H331" t="n">
-        <v>-0.03921568627450556</v>
+        <v>5.092009042725731</v>
       </c>
       <c r="I331" t="n">
         <v>10175.95046063043</v>
@@ -12949,7 +12951,7 @@
         <v>0.05614472900910261</v>
       </c>
       <c r="H332" t="n">
-        <v>0.9183673469387756</v>
+        <v>9.435278384799783</v>
       </c>
       <c r="I332" t="n">
         <v>11713.35229338506</v>
@@ -12987,7 +12989,7 @@
         <v>-0.6629562082807996</v>
       </c>
       <c r="H333" t="n">
-        <v>-0.7127659574468067</v>
+        <v>5.14889699580805</v>
       </c>
       <c r="I333" t="n">
         <v>12353.09652001549</v>
@@ -13025,7 +13027,7 @@
         <v>0.6168922098000542</v>
       </c>
       <c r="H334" t="n">
-        <v>1.333333333333299</v>
+        <v>6.527433173299535</v>
       </c>
       <c r="I334" t="n">
         <v>13027.06308255528</v>
@@ -13063,7 +13065,7 @@
         <v>0.03740593573763107</v>
       </c>
       <c r="H335" t="n">
-        <v>-0.7142857142856989</v>
+        <v>1.754430965091025</v>
       </c>
       <c r="I335" t="n">
         <v>13339.03991821708</v>
@@ -13101,7 +13103,7 @@
         <v>-0.009708814126961229</v>
       </c>
       <c r="H336" t="n">
-        <v>2.49999999999982</v>
+        <v>6.343344090680159</v>
       </c>
       <c r="I336" t="n">
         <v>13824.84475070996</v>
@@ -13139,7 +13141,7 @@
         <v>-0.09297145334366519</v>
       </c>
       <c r="H337" t="n">
-        <v>-0.3333333333333214</v>
+        <v>4.601030564883413</v>
       </c>
       <c r="I337" t="n">
         <v>14779.32121877966</v>
@@ -13177,7 +13179,7 @@
         <v>-0.02055237295332191</v>
       </c>
       <c r="H338" t="n">
-        <v>-0.3571428571428625</v>
+        <v>2.995232228335176</v>
       </c>
       <c r="I338" t="n">
         <v>15100.87403893249</v>
@@ -13215,7 +13217,7 @@
         <v>0.06760757725498934</v>
       </c>
       <c r="H339" t="n">
-        <v>0.7407407407407545</v>
+        <v>4.919882784491936</v>
       </c>
       <c r="I339" t="n">
         <v>15581.80996426627</v>
@@ -13253,7 +13255,7 @@
         <v>0.06906096586578592</v>
       </c>
       <c r="H340" t="n">
-        <v>0.4680851063829523</v>
+        <v>6.804003673167891</v>
       </c>
       <c r="I340" t="n">
         <v>15963.30488476597</v>
@@ -13291,7 +13293,7 @@
         <v>-0.08450131378575065</v>
       </c>
       <c r="H341" t="n">
-        <v>-0.4637681159420208</v>
+        <v>3.913772904469148</v>
       </c>
       <c r="I341" t="n">
         <v>16294.74742746206</v>
@@ -13329,7 +13331,7 @@
         <v>0.06233173112016832</v>
       </c>
       <c r="H342" t="n">
-        <v>0.3513513513513369</v>
+        <v>4.996043931762184</v>
       </c>
       <c r="I342" t="n">
         <v>16556.95464481901</v>
@@ -13367,7 +13369,7 @@
         <v>-0.008810629682154847</v>
       </c>
       <c r="H343" t="n">
-        <v>-0.4000000000000067</v>
+        <v>2.994235661507805</v>
       </c>
       <c r="I343" t="n">
         <v>16611.05698648322</v>
@@ -13405,7 +13407,7 @@
         <v>-0.007897375694950526</v>
       </c>
       <c r="H344" t="n">
-        <v>-2.16666666666667</v>
+        <v>-3.409974808897509</v>
       </c>
       <c r="I344" t="n">
         <v>16588.00813899322</v>
@@ -13443,7 +13445,7 @@
         <v>-0.5693258106975985</v>
       </c>
       <c r="H345" t="n">
-        <v>-1.942857142857153</v>
+        <v>5.953064949422604</v>
       </c>
       <c r="I345" t="n">
         <v>16859.24388241043</v>
@@ -13481,7 +13483,7 @@
         <v>0.5821275611076389</v>
       </c>
       <c r="H346" t="n">
-        <v>-0.2424242424242604</v>
+        <v>2.476600080181068</v>
       </c>
       <c r="I346" t="n">
         <v>16610.35793734446</v>
@@ -13519,7 +13521,7 @@
         <v>0.0009779951879780313</v>
       </c>
       <c r="H347" t="n">
-        <v>-1.480000000000005</v>
+        <v>-1.166193974784235</v>
       </c>
       <c r="I347" t="n">
         <v>17375.02737893468</v>
@@ -13557,7 +13559,7 @@
         <v>0.04771897667907243</v>
       </c>
       <c r="H348" t="n">
-        <v>-5.000000000000163</v>
+        <v>4.576585105819131</v>
       </c>
       <c r="I348" t="n">
         <v>17706.88660964966</v>
@@ -13595,7 +13597,7 @@
         <v>-0.1133659646598391</v>
       </c>
       <c r="H349" t="n">
-        <v>-0.5000000000000235</v>
+        <v>2.537133974201744</v>
       </c>
       <c r="I349" t="n">
         <v>17956.87765193755</v>
@@ -13633,7 +13635,7 @@
         <v>0.06369004019380498</v>
       </c>
       <c r="H350" t="n">
-        <v>3.416666666666747</v>
+        <v>10.96137528891443</v>
       </c>
       <c r="I350" t="n">
         <v>18217.05633028927</v>
@@ -13671,7 +13673,7 @@
         <v>-0.01978303884944488</v>
       </c>
       <c r="H351" t="n">
-        <v>-0.7924528301886798</v>
+        <v>2.222313678471011</v>
       </c>
       <c r="I351" t="n">
         <v>18105.84700993262</v>
@@ -13709,7 +13711,7 @@
         <v>0.04683782908107581</v>
       </c>
       <c r="H352" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>17865.25755039854</v>
@@ -13746,10 +13748,8 @@
       <c r="G353" t="n">
         <v>-0.01343590269682693</v>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H353" t="n">
+        <v>7.106541108892372</v>
       </c>
       <c r="I353" t="n">
         <v>18728.52952034661</v>
@@ -13787,7 +13787,7 @@
         <v>0.02575249610241492</v>
       </c>
       <c r="H354" t="n">
-        <v>-0.4929577464788666</v>
+        <v>3.448617607117033</v>
       </c>
       <c r="I354" t="n">
         <v>18752.06519377888</v>
@@ -13825,7 +13825,7 @@
         <v>0.02785695450296899</v>
       </c>
       <c r="H355" t="n">
-        <v>1.083333333333402</v>
+        <v>7.115376025629416</v>
       </c>
       <c r="I355" t="n">
         <v>19238.08983989348</v>
@@ -13863,7 +13863,7 @@
         <v>-0.02974196919874128</v>
       </c>
       <c r="H356" t="n">
-        <v>-0.3200000000000364</v>
+        <v>4.930916675250341</v>
       </c>
       <c r="I356" t="n">
         <v>20452.50838393532</v>
@@ -13901,7 +13901,7 @@
         <v>-0.5542059193962148</v>
       </c>
       <c r="H357" t="n">
-        <v>-0.254901960784308</v>
+        <v>6.44290580538871</v>
       </c>
       <c r="I357" t="n">
         <v>20004.01604240627</v>
@@ -13939,7 +13939,7 @@
         <v>0.5579724021916901</v>
       </c>
       <c r="H358" t="n">
-        <v>0.1052631578946908</v>
+        <v>4.027389913793833</v>
       </c>
       <c r="I358" t="n">
         <v>20637.00244003034</v>
@@ -13977,7 +13977,7 @@
         <v>0.02230575751430397</v>
       </c>
       <c r="H359" t="n">
-        <v>0.5476190476191896</v>
+        <v>6.160166146426427</v>
       </c>
       <c r="I359" t="n">
         <v>20017.61610133623</v>
@@ -14015,7 +14015,7 @@
         <v>0.01459879942115005</v>
       </c>
       <c r="H360" t="n">
-        <v>-0.5230769230769587</v>
+        <v>2.848148420634189</v>
       </c>
       <c r="I360" t="n">
         <v>20080.76078027948</v>
@@ -14053,7 +14053,7 @@
         <v>-0.159752087251662</v>
       </c>
       <c r="H361" t="n">
-        <v>-1.548387096774201</v>
+        <v>-1.790463838548106</v>
       </c>
       <c r="I361" t="n">
         <v>20122.76118615884</v>
@@ -14091,7 +14091,7 @@
         <v>0.122847530316208</v>
       </c>
       <c r="H362" t="n">
-        <v>-3.52941176470579</v>
+        <v>4.125285173692195</v>
       </c>
       <c r="I362" t="n">
         <v>19986.15436921339</v>
@@ -14129,7 +14129,7 @@
         <v>-0.06003738825677729</v>
       </c>
       <c r="H363" t="n">
-        <v>-0.9767441860465133</v>
+        <v>0.09985023295895346</v>
       </c>
       <c r="I363" t="n">
         <v>20025.6173346227</v>
@@ -14167,7 +14167,7 @@
         <v>0.09331217714165341</v>
       </c>
       <c r="H364" t="n">
-        <v>50.00000000000755</v>
+        <v>4.747285039016713</v>
       </c>
       <c r="I364" t="n">
         <v>19924.90236238532</v>
@@ -14205,7 +14205,7 @@
         <v>-0.1216541551439283</v>
       </c>
       <c r="H365" t="n">
-        <v>-2.196078431372508</v>
+        <v>-6.074540205693424</v>
       </c>
       <c r="I365" t="n">
         <v>20164.66263339661</v>
@@ -14243,7 +14243,7 @@
         <v>0.1088451968513491</v>
       </c>
       <c r="H366" t="n">
-        <v>-1.393442622950884</v>
+        <v>2.234729869199992</v>
       </c>
       <c r="I366" t="n">
         <v>20501.13039413704</v>
@@ -14281,7 +14281,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>-1.249999999999912</v>
+        <v>-0.5509655810969072</v>
       </c>
       <c r="I367" t="n">
         <v>20795.84160990116</v>
@@ -14319,7 +14319,7 @@
         <v>-0.02612088807563939</v>
       </c>
       <c r="H368" t="n">
-        <v>-0.6666666666666667</v>
+        <v>-0.1888574687867184</v>
       </c>
       <c r="I368" t="n">
         <v>22650.53589750773</v>
@@ -14357,7 +14357,7 @@
         <v>-0.5556068213587455</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>-0.3289476650397916</v>
       </c>
       <c r="I369" t="n">
         <v>22844.51385464923</v>
@@ -14395,7 +14395,7 @@
         <v>0.5374852000397272</v>
       </c>
       <c r="H370" t="n">
-        <v>11.50000000000155</v>
+        <v>-2.377667880236078</v>
       </c>
       <c r="I370" t="n">
         <v>23085.9174753597</v>
@@ -14433,7 +14433,7 @@
         <v>0.0312673505315173</v>
       </c>
       <c r="H371" t="n">
-        <v>-0.3599999999996565</v>
+        <v>-1.481508578514745</v>
       </c>
       <c r="I371" t="n">
         <v>23788.85861669103</v>
@@ -14471,7 +14471,7 @@
         <v>0.03122384045153659</v>
       </c>
       <c r="H372" t="n">
-        <v>-1.124999999999917</v>
+        <v>0.1809955245239081</v>
       </c>
       <c r="I372" t="n">
         <v>24183.63190222219</v>
@@ -14509,7 +14509,7 @@
         <v>-0.1658218998438583</v>
       </c>
       <c r="H373" t="n">
-        <v>-3.000000000000528</v>
+        <v>-0.4259857346957219</v>
       </c>
       <c r="I373" t="n">
         <v>24036.41028653232</v>

--- a/analysis_df.xlsx
+++ b/analysis_df.xlsx
@@ -547,7 +547,7 @@
         <v>99.61635340183723</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00422424558490786</v>
+        <v>-0.00422424558490786</v>
       </c>
     </row>
     <row r="4">
@@ -579,7 +579,7 @@
         <v>99.37890223064426</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001217702819008015</v>
+        <v>-0.001217702819008015</v>
       </c>
     </row>
     <row r="5">
@@ -611,7 +611,7 @@
         <v>99.06835334596636</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00258843563800637</v>
+        <v>-0.00258843563800637</v>
       </c>
     </row>
     <row r="6">
@@ -643,7 +643,7 @@
         <v>98.86489028359119</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003046092120312149</v>
+        <v>-0.003046092120312149</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>98.56458439061183</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004204977657764952</v>
+        <v>-0.004204977657764952</v>
       </c>
     </row>
     <row r="8">
@@ -707,7 +707,7 @@
         <v>97.77121812450822</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004079060781189137</v>
+        <v>-0.0004079060781189137</v>
       </c>
     </row>
     <row r="9">
@@ -739,7 +739,7 @@
         <v>96.85866068227638</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.00203996141567675</v>
+        <v>0.00203996141567675</v>
       </c>
     </row>
     <row r="10">
@@ -771,7 +771,7 @@
         <v>95.12014563671833</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.006105823597438054</v>
+        <v>0.006105823597438054</v>
       </c>
     </row>
     <row r="11">
@@ -803,7 +803,7 @@
         <v>93.43563909284342</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004126346685026094</v>
+        <v>-0.004126346685026094</v>
       </c>
     </row>
     <row r="12">
@@ -835,7 +835,7 @@
         <v>91.06112738091359</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.001210331283034494</v>
+        <v>0.001210331283034494</v>
       </c>
     </row>
     <row r="13">
@@ -867,7 +867,7 @@
         <v>90.1327398606022</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.00745699973911873</v>
+        <v>0.00745699973911873</v>
       </c>
     </row>
     <row r="14">
@@ -901,7 +901,7 @@
         <v>88.72386291152384</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.004200705076184308</v>
+        <v>0.004200705076184308</v>
       </c>
     </row>
     <row r="15">
@@ -937,7 +937,7 @@
         <v>88.3597711156946</v>
       </c>
       <c r="L15" t="n">
-        <v>0.008167572999077999</v>
+        <v>-0.008167572999077999</v>
       </c>
     </row>
     <row r="16">
@@ -973,7 +973,7 @@
         <v>88.40726134993319</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004418304630686931</v>
+        <v>-0.004418304630686931</v>
       </c>
     </row>
     <row r="17">
@@ -1009,7 +1009,7 @@
         <v>89.23089100060061</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.002622583347786422</v>
+        <v>0.002622583347786422</v>
       </c>
     </row>
     <row r="18">
@@ -1045,7 +1045,7 @@
         <v>89.37894878969742</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002615723395167913</v>
+        <v>-0.002615723395167913</v>
       </c>
     </row>
     <row r="19">
@@ -1081,7 +1081,7 @@
         <v>89.89575427994097</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005447178639281569</v>
+        <v>-0.005447178639281569</v>
       </c>
     </row>
     <row r="20">
@@ -1117,7 +1117,7 @@
         <v>89.55447642016752</v>
       </c>
       <c r="L20" t="n">
-        <v>0.006711409395971479</v>
+        <v>-0.006711409395971479</v>
       </c>
     </row>
     <row r="21">
@@ -1153,7 +1153,7 @@
         <v>91.44896429386212</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.004956284990363824</v>
+        <v>0.004956284990363824</v>
       </c>
     </row>
     <row r="22">
@@ -1189,7 +1189,7 @@
         <v>90.88746211257049</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002534519832519289</v>
+        <v>-0.002534519832519289</v>
       </c>
     </row>
     <row r="23">
@@ -1225,7 +1225,7 @@
         <v>89.26255115675968</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.003844702367967301</v>
+        <v>0.003844702367967301</v>
       </c>
     </row>
     <row r="24">
@@ -1261,7 +1261,7 @@
         <v>87.66091972753644</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.01552096494171051</v>
+        <v>0.01552096494171051</v>
       </c>
     </row>
     <row r="25">
@@ -1297,7 +1297,7 @@
         <v>87.31172682872322</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.001786533636622512</v>
+        <v>0.001786533636622512</v>
       </c>
     </row>
     <row r="26">
@@ -1335,7 +1335,7 @@
         <v>86.831702990488</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001783347626102549</v>
+        <v>-0.001783347626102549</v>
       </c>
     </row>
     <row r="27">
@@ -1373,7 +1373,7 @@
         <v>86.19011923773519</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.00123199229415305</v>
+        <v>0.00123199229415305</v>
       </c>
     </row>
     <row r="28">
@@ -1411,7 +1411,7 @@
         <v>85.3366917930357</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.00869382347864911</v>
+        <v>0.00869382347864911</v>
       </c>
     </row>
     <row r="29">
@@ -1449,7 +1449,7 @@
         <v>84.70209189825917</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.01078166316311324</v>
+        <v>0.01078166316311324</v>
       </c>
     </row>
     <row r="30">
@@ -1487,7 +1487,7 @@
         <v>84.38595592720027</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.01274872419654671</v>
+        <v>0.01274872419654671</v>
       </c>
     </row>
     <row r="31">
@@ -1525,7 +1525,7 @@
         <v>86.08908609234523</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.00514966640112613</v>
+        <v>0.00514966640112613</v>
       </c>
     </row>
     <row r="32">
@@ -1563,7 +1563,7 @@
         <v>82.80294811924705</v>
       </c>
       <c r="L32" t="n">
-        <v>0.003311258278144935</v>
+        <v>-0.003311258278144935</v>
       </c>
     </row>
     <row r="33">
@@ -1601,7 +1601,7 @@
         <v>82.12365153342242</v>
       </c>
       <c r="L33" t="n">
-        <v>0.002466821290967536</v>
+        <v>-0.002466821290967536</v>
       </c>
     </row>
     <row r="34">
@@ -1639,7 +1639,7 @@
         <v>81.9918894129369</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.002786919040120184</v>
+        <v>0.002786919040120184</v>
       </c>
     </row>
     <row r="35">
@@ -1677,7 +1677,7 @@
         <v>81.17896834449976</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.009642506032378595</v>
+        <v>0.009642506032378595</v>
       </c>
     </row>
     <row r="36">
@@ -1715,7 +1715,7 @@
         <v>80.4829104995321</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.02565566776650674</v>
+        <v>0.02565566776650674</v>
       </c>
     </row>
     <row r="37">
@@ -1753,7 +1753,7 @@
         <v>80.17655192963997</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.01278066933192568</v>
+        <v>0.01278066933192568</v>
       </c>
     </row>
     <row r="38">
@@ -1791,7 +1791,7 @@
         <v>79.97867595364582</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.002343635564669988</v>
+        <v>0.002343635564669988</v>
       </c>
     </row>
     <row r="39">
@@ -1829,7 +1829,7 @@
         <v>79.6825603754522</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.007913567495671625</v>
+        <v>0.007913567495671625</v>
       </c>
     </row>
     <row r="40">
@@ -1867,7 +1867,7 @@
         <v>80.02802855001141</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.01616095046528065</v>
+        <v>0.01616095046528065</v>
       </c>
     </row>
     <row r="41">
@@ -1905,7 +1905,7 @@
         <v>79.80175155158045</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0007000859869498166</v>
+        <v>-0.0007000859869498166</v>
       </c>
     </row>
     <row r="42">
@@ -1943,7 +1943,7 @@
         <v>79.67930124172995</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.005604956207938772</v>
+        <v>0.005604956207938772</v>
       </c>
     </row>
     <row r="43">
@@ -1981,7 +1981,7 @@
         <v>79.45162747170374</v>
       </c>
       <c r="L43" t="n">
-        <v>0.02174237164556803</v>
+        <v>-0.02174237164556803</v>
       </c>
     </row>
     <row r="44">
@@ -2019,7 +2019,7 @@
         <v>78.28951350445337</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.007380073594437819</v>
+        <v>0.007380073594437819</v>
       </c>
     </row>
     <row r="45">
@@ -2057,7 +2057,7 @@
         <v>78.09769020537199</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.01035968191019521</v>
+        <v>0.01035968191019521</v>
       </c>
     </row>
     <row r="46">
@@ -2095,7 +2095,7 @@
         <v>78.39613373622434</v>
       </c>
       <c r="L46" t="n">
-        <v>0.002259323727788698</v>
+        <v>-0.002259323727788698</v>
       </c>
     </row>
     <row r="47">
@@ -2133,7 +2133,7 @@
         <v>78.90735214008689</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0004702997618861726</v>
+        <v>-0.0004702997618861726</v>
       </c>
     </row>
     <row r="48">
@@ -2171,7 +2171,7 @@
         <v>78.29882531508839</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.01250660391607772</v>
+        <v>0.01250660391607772</v>
       </c>
     </row>
     <row r="49">
@@ -2209,7 +2209,7 @@
         <v>78.41941326281189</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.0005272621409178058</v>
+        <v>0.0005272621409178058</v>
       </c>
     </row>
     <row r="50">
@@ -2247,7 +2247,7 @@
         <v>78.59587207434551</v>
       </c>
       <c r="L50" t="n">
-        <v>0.001537957697086312</v>
+        <v>-0.001537957697086312</v>
       </c>
     </row>
     <row r="51">
@@ -2285,7 +2285,7 @@
         <v>78.08186012729246</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.0006846270415914457</v>
+        <v>0.0006846270415914457</v>
       </c>
     </row>
     <row r="52">
@@ -2323,7 +2323,7 @@
         <v>78.65686443400489</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.003078882179669229</v>
+        <v>0.003078882179669229</v>
       </c>
     </row>
     <row r="53">
@@ -2361,7 +2361,7 @@
         <v>78.67967837006069</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.003751825924400931</v>
+        <v>0.003751825924400931</v>
       </c>
     </row>
     <row r="54">
@@ -2399,7 +2399,7 @@
         <v>78.47761207928076</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.002548243319803412</v>
+        <v>0.002548243319803412</v>
       </c>
     </row>
     <row r="55">
@@ -2437,7 +2437,7 @@
         <v>77.24705630386302</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.0101513677355054</v>
+        <v>0.0101513677355054</v>
       </c>
     </row>
     <row r="56">
@@ -2475,7 +2475,7 @@
         <v>77.42118716273787</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.01834644951906994</v>
+        <v>0.01834644951906994</v>
       </c>
     </row>
     <row r="57">
@@ -2513,7 +2513,7 @@
         <v>77.70892211135995</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.01892963376755263</v>
+        <v>0.01892963376755263</v>
       </c>
     </row>
     <row r="58">
@@ -2551,7 +2551,7 @@
         <v>76.92021175057384</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.006604844214697092</v>
+        <v>0.006604844214697092</v>
       </c>
     </row>
     <row r="59">
@@ -2589,7 +2589,7 @@
         <v>76.28933658005131</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.01643820649107663</v>
+        <v>0.01643820649107663</v>
       </c>
     </row>
     <row r="60">
@@ -2627,7 +2627,7 @@
         <v>79.22116015848702</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.01986499373214357</v>
+        <v>0.01986499373214357</v>
       </c>
     </row>
     <row r="61">
@@ -2665,7 +2665,7 @@
         <v>77.62511581564479</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.01166361472119637</v>
+        <v>0.01166361472119637</v>
       </c>
     </row>
     <row r="62">
@@ -2703,7 +2703,7 @@
         <v>76.09099501352541</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.009860549624171711</v>
+        <v>0.009860549624171711</v>
       </c>
     </row>
     <row r="63">
@@ -2741,7 +2741,7 @@
         <v>74.47073996303212</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.01712470661387377</v>
+        <v>0.01712470661387377</v>
       </c>
     </row>
     <row r="64">
@@ -2779,7 +2779,7 @@
         <v>73.69785968032554</v>
       </c>
       <c r="L64" t="n">
-        <v>-0.004622371597295061</v>
+        <v>0.004622371597295061</v>
       </c>
     </row>
     <row r="65">
@@ -2817,7 +2817,7 @@
         <v>72.59627248220281</v>
       </c>
       <c r="L65" t="n">
-        <v>-0.004132165673707666</v>
+        <v>0.004132165673707666</v>
       </c>
     </row>
     <row r="66">
@@ -2855,7 +2855,7 @@
         <v>71.79405999599592</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.004073476553255295</v>
+        <v>0.004073476553255295</v>
       </c>
     </row>
     <row r="67">
@@ -2893,7 +2893,7 @@
         <v>73.38544843352066</v>
       </c>
       <c r="L67" t="n">
-        <v>0.01086077583804967</v>
+        <v>-0.01086077583804967</v>
       </c>
     </row>
     <row r="68">
@@ -2931,7 +2931,7 @@
         <v>72.4719598102253</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.00130964744027362</v>
+        <v>0.00130964744027362</v>
       </c>
     </row>
     <row r="69">
@@ -2969,7 +2969,7 @@
         <v>73.79796164465201</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.005087333366314173</v>
+        <v>0.005087333366314173</v>
       </c>
     </row>
     <row r="70">
@@ -3007,7 +3007,7 @@
         <v>73.19641867762978</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.009544488788894689</v>
+        <v>0.009544488788894689</v>
       </c>
     </row>
     <row r="71">
@@ -3045,7 +3045,7 @@
         <v>72.8155656226575</v>
       </c>
       <c r="L71" t="n">
-        <v>-0.002135494666063664</v>
+        <v>0.002135494666063664</v>
       </c>
     </row>
     <row r="72">
@@ -3083,7 +3083,7 @@
         <v>72.38955028610539</v>
       </c>
       <c r="L72" t="n">
-        <v>-0.02151593532632745</v>
+        <v>0.02151593532632745</v>
       </c>
     </row>
     <row r="73">
@@ -3121,7 +3121,7 @@
         <v>71.93373715552121</v>
       </c>
       <c r="L73" t="n">
-        <v>-0.00256466530004773</v>
+        <v>0.00256466530004773</v>
       </c>
     </row>
     <row r="74">
@@ -3159,7 +3159,7 @@
         <v>70.88383050642283</v>
       </c>
       <c r="L74" t="n">
-        <v>0.001803071716031557</v>
+        <v>-0.001803071716031557</v>
       </c>
     </row>
     <row r="75">
@@ -3197,7 +3197,7 @@
         <v>69.6607241795131</v>
       </c>
       <c r="L75" t="n">
-        <v>0.00712304037967515</v>
+        <v>-0.00712304037967515</v>
       </c>
     </row>
     <row r="76">
@@ -3235,7 +3235,7 @@
         <v>69.95916771036545</v>
       </c>
       <c r="L76" t="n">
-        <v>0.003124999999999156</v>
+        <v>-0.003124999999999156</v>
       </c>
     </row>
     <row r="77">
@@ -3273,7 +3273,7 @@
         <v>69.43770631480439</v>
       </c>
       <c r="L77" t="n">
-        <v>-0.00336484400844772</v>
+        <v>0.00336484400844772</v>
       </c>
     </row>
     <row r="78">
@@ -3311,7 +3311,7 @@
         <v>69.39394080481979</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.01460054976977299</v>
+        <v>0.01460054976977299</v>
       </c>
     </row>
     <row r="79">
@@ -3349,7 +3349,7 @@
         <v>69.64210055824304</v>
       </c>
       <c r="L79" t="n">
-        <v>0.001195411366206711</v>
+        <v>-0.001195411366206711</v>
       </c>
     </row>
     <row r="80">
@@ -3387,7 +3387,7 @@
         <v>70.52858493069685</v>
       </c>
       <c r="L80" t="n">
-        <v>0.003628369835030454</v>
+        <v>-0.003628369835030454</v>
       </c>
     </row>
     <row r="81">
@@ -3425,7 +3425,7 @@
         <v>69.9065559802776</v>
       </c>
       <c r="L81" t="n">
-        <v>0.004391353271963272</v>
+        <v>-0.004391353271963272</v>
       </c>
     </row>
     <row r="82">
@@ -3463,7 +3463,7 @@
         <v>69.26124750327077</v>
       </c>
       <c r="L82" t="n">
-        <v>0.00311274992059174</v>
+        <v>-0.00311274992059174</v>
       </c>
     </row>
     <row r="83">
@@ -3501,7 +3501,7 @@
         <v>69.2780087624138</v>
       </c>
       <c r="L83" t="n">
-        <v>7.214512767861336e-06</v>
+        <v>-7.214512767861336e-06</v>
       </c>
     </row>
     <row r="84">
@@ -3539,7 +3539,7 @@
         <v>68.5121123376835</v>
       </c>
       <c r="L84" t="n">
-        <v>-0.01740657415334268</v>
+        <v>0.01740657415334268</v>
       </c>
     </row>
     <row r="85">
@@ -3577,7 +3577,7 @@
         <v>69.28778616358059</v>
       </c>
       <c r="L85" t="n">
-        <v>-0.00649872827712783</v>
+        <v>0.00649872827712783</v>
       </c>
     </row>
     <row r="86">
@@ -3615,7 +3615,7 @@
         <v>66.09430070630083</v>
       </c>
       <c r="L86" t="n">
-        <v>-0.0005270248655662169</v>
+        <v>0.0005270248655662169</v>
       </c>
     </row>
     <row r="87">
@@ -3653,7 +3653,7 @@
         <v>65.17103468183872</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.007770623204448102</v>
+        <v>0.007770623204448102</v>
       </c>
     </row>
     <row r="88">
@@ -3691,7 +3691,7 @@
         <v>64.50570581196662</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.001142228729428263</v>
+        <v>0.001142228729428263</v>
       </c>
     </row>
     <row r="89">
@@ -3729,7 +3729,7 @@
         <v>64.74362257369135</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.01089465764348674</v>
+        <v>0.01089465764348674</v>
       </c>
     </row>
     <row r="90">
@@ -3767,7 +3767,7 @@
         <v>64.91495988937569</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.0004443510067118073</v>
+        <v>0.0004443510067118073</v>
       </c>
     </row>
     <row r="91">
@@ -3805,7 +3805,7 @@
         <v>66.45978927372533</v>
       </c>
       <c r="L91" t="n">
-        <v>0.01170979227516378</v>
+        <v>-0.01170979227516378</v>
       </c>
     </row>
     <row r="92">
@@ -3843,7 +3843,7 @@
         <v>66.2237348741276</v>
       </c>
       <c r="L92" t="n">
-        <v>0.002357971094103961</v>
+        <v>-0.002357971094103961</v>
       </c>
     </row>
     <row r="93">
@@ -3881,7 +3881,7 @@
         <v>67.9985659811622</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.01157720415148189</v>
+        <v>0.01157720415148189</v>
       </c>
     </row>
     <row r="94">
@@ -3919,7 +3919,7 @@
         <v>68.20249463406913</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0001888485693775088</v>
+        <v>-0.0001888485693775088</v>
       </c>
     </row>
     <row r="95">
@@ -3957,7 +3957,7 @@
         <v>69.49730190286851</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.001079660886059042</v>
+        <v>0.001079660886059042</v>
       </c>
     </row>
     <row r="96">
@@ -3995,7 +3995,7 @@
         <v>71.8760039295841</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.1720111906881427</v>
+        <v>-0.1362901689997049</v>
       </c>
     </row>
     <row r="97">
@@ -4033,7 +4033,7 @@
         <v>69.04800703972886</v>
       </c>
       <c r="L97" t="n">
-        <v>0.002958579881656043</v>
+        <v>-0.002958579881656043</v>
       </c>
     </row>
     <row r="98">
@@ -4071,7 +4071,7 @@
         <v>68.06933574198835</v>
       </c>
       <c r="L98" t="n">
-        <v>0.003055376994546055</v>
+        <v>-0.003055376994546055</v>
       </c>
     </row>
     <row r="99">
@@ -4109,7 +4109,7 @@
         <v>68.85990846490145</v>
       </c>
       <c r="L99" t="n">
-        <v>0.002932551319647203</v>
+        <v>-0.002932551319647203</v>
       </c>
     </row>
     <row r="100">
@@ -4147,7 +4147,7 @@
         <v>64.84046540429554</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.007310044014622541</v>
+        <v>0.007310044014622541</v>
       </c>
     </row>
     <row r="101">
@@ -4185,7 +4185,7 @@
         <v>64.43633282273572</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.005872602037740648</v>
+        <v>0.005872602037740648</v>
       </c>
     </row>
     <row r="102">
@@ -4223,7 +4223,7 @@
         <v>66.80432626722103</v>
       </c>
       <c r="L102" t="n">
-        <v>0.006173728546979063</v>
+        <v>-0.006173728546979063</v>
       </c>
     </row>
     <row r="103">
@@ -4261,7 +4261,7 @@
         <v>65.47413411800859</v>
       </c>
       <c r="L103" t="n">
-        <v>0.003005148178132799</v>
+        <v>-0.003005148178132799</v>
       </c>
     </row>
     <row r="104">
@@ -4299,7 +4299,7 @@
         <v>66.88580461027745</v>
       </c>
       <c r="L104" t="n">
-        <v>0.01399524984963951</v>
+        <v>-0.01399524984963951</v>
       </c>
     </row>
     <row r="105">
@@ -4337,7 +4337,7 @@
         <v>67.17074601570903</v>
       </c>
       <c r="L105" t="n">
-        <v>0.002254934597949454</v>
+        <v>-0.002254934597949454</v>
       </c>
     </row>
     <row r="106">
@@ -4375,7 +4375,7 @@
         <v>68.13405282590173</v>
       </c>
       <c r="L106" t="n">
-        <v>0.00444291354097448</v>
+        <v>-0.00444291354097448</v>
       </c>
     </row>
     <row r="107">
@@ -4413,7 +4413,7 @@
         <v>67.17307396836777</v>
       </c>
       <c r="L107" t="n">
-        <v>0.002521427004972709</v>
+        <v>-0.002521427004972709</v>
       </c>
     </row>
     <row r="108">
@@ -4451,7 +4451,7 @@
         <v>72.91008050060294</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.003743609812795867</v>
+        <v>0.003743609812795867</v>
       </c>
     </row>
     <row r="109">
@@ -4489,7 +4489,7 @@
         <v>73.14380694754192</v>
       </c>
       <c r="L109" t="n">
-        <v>-0.003829803160074086</v>
+        <v>0.003829803160074086</v>
       </c>
     </row>
     <row r="110">
@@ -4527,7 +4527,7 @@
         <v>71.95236077679125</v>
       </c>
       <c r="L110" t="n">
-        <v>0.005100617552322717</v>
+        <v>-0.005100617552322717</v>
       </c>
     </row>
     <row r="111">
@@ -4565,7 +4565,7 @@
         <v>72.16373887820617</v>
       </c>
       <c r="L111" t="n">
-        <v>0.01164132579399324</v>
+        <v>-0.01164132579399324</v>
       </c>
     </row>
     <row r="112">
@@ -4603,7 +4603,7 @@
         <v>73.36961835544112</v>
       </c>
       <c r="L112" t="n">
-        <v>0.002320039422217812</v>
+        <v>-0.002320039422217812</v>
       </c>
     </row>
     <row r="113">
@@ -4641,7 +4641,7 @@
         <v>74.25051564151393</v>
       </c>
       <c r="L113" t="n">
-        <v>-0.00626573859601276</v>
+        <v>0.00626573859601276</v>
       </c>
     </row>
     <row r="114">
@@ -4679,7 +4679,7 @@
         <v>74.81993286184533</v>
       </c>
       <c r="L114" t="n">
-        <v>0.002754820936638369</v>
+        <v>-0.002754820936638369</v>
       </c>
     </row>
     <row r="115">
@@ -4717,7 +4717,7 @@
         <v>74.7603372737812</v>
       </c>
       <c r="L115" t="n">
-        <v>0.01716265720718435</v>
+        <v>-0.01716265720718435</v>
       </c>
     </row>
     <row r="116">
@@ -4755,7 +4755,7 @@
         <v>74.19557595876731</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.002365753371481594</v>
+        <v>0.002365753371481594</v>
       </c>
     </row>
     <row r="117">
@@ -4793,7 +4793,7 @@
         <v>75.40285220759752</v>
       </c>
       <c r="L117" t="n">
-        <v>0.002326694171267851</v>
+        <v>-0.002326694171267851</v>
       </c>
     </row>
     <row r="118">
@@ -4831,7 +4831,7 @@
         <v>77.95475391212446</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0007963198835889695</v>
+        <v>-0.0007963198835889695</v>
       </c>
     </row>
     <row r="119">
@@ -4869,7 +4869,7 @@
         <v>75.96481997942091</v>
       </c>
       <c r="L119" t="n">
-        <v>0.001584856734449636</v>
+        <v>-0.001584856734449636</v>
       </c>
     </row>
     <row r="120">
@@ -4907,7 +4907,7 @@
         <v>74.49588185174666</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.003524409035842835</v>
+        <v>0.003524409035842835</v>
       </c>
     </row>
     <row r="121">
@@ -4945,7 +4945,7 @@
         <v>78.98091544410353</v>
       </c>
       <c r="L121" t="n">
-        <v>-0.005236209461797259</v>
+        <v>0.005236209461797259</v>
       </c>
     </row>
     <row r="122">
@@ -4983,7 +4983,7 @@
         <v>80.99659653321291</v>
       </c>
       <c r="L122" t="n">
-        <v>-0.002112065246541173</v>
+        <v>0.002112065246541173</v>
       </c>
     </row>
     <row r="123">
@@ -5021,7 +5021,7 @@
         <v>82.26812427542475</v>
       </c>
       <c r="L123" t="n">
-        <v>0.009107580326193854</v>
+        <v>-0.009107580326193854</v>
       </c>
     </row>
     <row r="124">
@@ -5059,7 +5059,7 @@
         <v>80.78289047913923</v>
       </c>
       <c r="L124" t="n">
-        <v>-0.002399464692486308</v>
+        <v>0.002399464692486308</v>
       </c>
     </row>
     <row r="125">
@@ -5097,7 +5097,7 @@
         <v>78.77191185440053</v>
       </c>
       <c r="L125" t="n">
-        <v>0.002322696487554454</v>
+        <v>-0.002322696487554454</v>
       </c>
     </row>
     <row r="126">
@@ -5135,7 +5135,7 @@
         <v>75.26219730795555</v>
       </c>
       <c r="L126" t="n">
-        <v>0.009128809278855399</v>
+        <v>-0.009128809278855399</v>
       </c>
     </row>
     <row r="127">
@@ -5173,7 +5173,7 @@
         <v>76.02297223683661</v>
       </c>
       <c r="L127" t="n">
-        <v>0.001375110767865451</v>
+        <v>-0.001375110767865451</v>
       </c>
     </row>
     <row r="128">
@@ -5211,7 +5211,7 @@
         <v>74.79893472886336</v>
       </c>
       <c r="L128" t="n">
-        <v>-0.01368931952767261</v>
+        <v>0.01368931952767261</v>
       </c>
     </row>
     <row r="129">
@@ -5249,7 +5249,7 @@
         <v>73.54370265526281</v>
       </c>
       <c r="L129" t="n">
-        <v>-0.01578882091485023</v>
+        <v>0.01578882091485023</v>
       </c>
     </row>
     <row r="130">
@@ -5287,7 +5287,7 @@
         <v>72.29545443963852</v>
       </c>
       <c r="L130" t="n">
-        <v>0.0005762723587701135</v>
+        <v>-0.0005762723587701135</v>
       </c>
     </row>
     <row r="131">
@@ -5325,7 +5325,7 @@
         <v>70.39677625115816</v>
       </c>
       <c r="L131" t="n">
-        <v>-0.004845090316510925</v>
+        <v>0.004845090316510925</v>
       </c>
     </row>
     <row r="132">
@@ -5363,7 +5363,7 @@
         <v>69.32778039025798</v>
       </c>
       <c r="L132" t="n">
-        <v>0.002449799869567837</v>
+        <v>-0.002449799869567837</v>
       </c>
     </row>
     <row r="133">
@@ -5401,7 +5401,7 @@
         <v>67.44958818517468</v>
       </c>
       <c r="L133" t="n">
-        <v>0.002212664368975048</v>
+        <v>-0.002212664368975048</v>
       </c>
     </row>
     <row r="134">
@@ -5439,7 +5439,7 @@
         <v>68.43710570301843</v>
       </c>
       <c r="L134" t="n">
-        <v>-0.01055740150800344</v>
+        <v>0.01055740150800344</v>
       </c>
     </row>
     <row r="135">
@@ -5477,7 +5477,7 @@
         <v>67.66795014456586</v>
       </c>
       <c r="L135" t="n">
-        <v>0.00326665470013987</v>
+        <v>-0.00326665470013987</v>
       </c>
     </row>
     <row r="136">
@@ -5515,7 +5515,7 @@
         <v>66.77308514254054</v>
       </c>
       <c r="L136" t="n">
-        <v>-0.008056443396967872</v>
+        <v>0.008056443396967872</v>
       </c>
     </row>
     <row r="137">
@@ -5553,7 +5553,7 @@
         <v>66.61264264529918</v>
       </c>
       <c r="L137" t="n">
-        <v>-0.008058896345428446</v>
+        <v>0.008058896345428446</v>
       </c>
     </row>
     <row r="138">
@@ -5591,7 +5591,7 @@
         <v>64.30042694651762</v>
       </c>
       <c r="L138" t="n">
-        <v>-0.001133734292271926</v>
+        <v>0.001133734292271926</v>
       </c>
     </row>
     <row r="139">
@@ -5629,7 +5629,7 @@
         <v>62.87292637616921</v>
       </c>
       <c r="L139" t="n">
-        <v>0.003248233500315445</v>
+        <v>-0.003248233500315445</v>
       </c>
     </row>
     <row r="140">
@@ -5667,7 +5667,7 @@
         <v>61.84210893887262</v>
       </c>
       <c r="L140" t="n">
-        <v>0.002463054187196834</v>
+        <v>-0.002463054187196834</v>
       </c>
     </row>
     <row r="141">
@@ -5705,7 +5705,7 @@
         <v>56.46593506874444</v>
       </c>
       <c r="L141" t="n">
-        <v>0.007792139956600774</v>
+        <v>0.006429736428057442</v>
       </c>
     </row>
     <row r="142">
@@ -5743,7 +5743,7 @@
         <v>56.47710924150646</v>
       </c>
       <c r="L142" t="n">
-        <v>-0.008630593516223861</v>
+        <v>0.01514441230474528</v>
       </c>
     </row>
     <row r="143">
@@ -5781,7 +5781,7 @@
         <v>56.55016039593819</v>
       </c>
       <c r="L143" t="n">
-        <v>-0.002944456309809773</v>
+        <v>0.01420622005468974</v>
       </c>
     </row>
     <row r="144">
@@ -5819,7 +5819,7 @@
         <v>56.47752827298505</v>
       </c>
       <c r="L144" t="n">
-        <v>-0.008404231727080491</v>
+        <v>0.01870813154104645</v>
       </c>
     </row>
     <row r="145">
@@ -5857,7 +5857,7 @@
         <v>57.33544972068015</v>
       </c>
       <c r="L145" t="n">
-        <v>0.00824913547776851</v>
+        <v>0.02461590276257319</v>
       </c>
     </row>
     <row r="146">
@@ -5895,7 +5895,7 @@
         <v>60.91800622187344</v>
       </c>
       <c r="L146" t="n">
-        <v>0.02185817208293295</v>
+        <v>0.0234462566833924</v>
       </c>
     </row>
     <row r="147">
@@ -5933,7 +5933,7 @@
         <v>58.36092974179886</v>
       </c>
       <c r="L147" t="n">
-        <v>0.005659592345964803</v>
+        <v>-0.005659592345964803</v>
       </c>
     </row>
     <row r="148">
@@ -5971,7 +5971,7 @@
         <v>58.08317179093589</v>
       </c>
       <c r="L148" t="n">
-        <v>0.00585852880359794</v>
+        <v>0.02047170774200624</v>
       </c>
     </row>
     <row r="149">
@@ -6009,7 +6009,7 @@
         <v>58.07173662755085</v>
       </c>
       <c r="L149" t="n">
-        <v>0.01002357903140072</v>
+        <v>0.005192661157005896</v>
       </c>
     </row>
     <row r="150">
@@ -6047,7 +6047,7 @@
         <v>62.13080548389848</v>
       </c>
       <c r="L150" t="n">
-        <v>-0.002397353283005721</v>
+        <v>0.002614241097998793</v>
       </c>
     </row>
     <row r="151">
@@ -6085,7 +6085,7 @@
         <v>62.10324260532963</v>
       </c>
       <c r="L151" t="n">
-        <v>0.001435636930765316</v>
+        <v>0.001323989283228411</v>
       </c>
     </row>
     <row r="152">
@@ -6123,7 +6123,7 @@
         <v>60.94389564255871</v>
       </c>
       <c r="L152" t="n">
-        <v>0.006626544631356923</v>
+        <v>0.02436146613256507</v>
       </c>
     </row>
     <row r="153">
@@ -6161,7 +6161,7 @@
         <v>61.10014788569753</v>
       </c>
       <c r="L153" t="n">
-        <v>-0.008026117420064871</v>
+        <v>0.00780553903179193</v>
       </c>
     </row>
     <row r="154">
@@ -6199,7 +6199,7 @@
         <v>61.5361535399337</v>
       </c>
       <c r="L154" t="n">
-        <v>-0.01159751487193694</v>
+        <v>0.01184960644454569</v>
       </c>
     </row>
     <row r="155">
@@ -6237,7 +6237,7 @@
         <v>61.98157741249459</v>
       </c>
       <c r="L155" t="n">
-        <v>-0.002424926736434241</v>
+        <v>0.001794757373198674</v>
       </c>
     </row>
     <row r="156">
@@ -6275,7 +6275,7 @@
         <v>61.95310994214199</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0009979304899030428</v>
+        <v>-0.0005568327849669874</v>
       </c>
     </row>
     <row r="157">
@@ -6313,7 +6313,7 @@
         <v>61.22665576621024</v>
       </c>
       <c r="L157" t="n">
-        <v>-0.005502132975938601</v>
+        <v>0.005250065232389467</v>
       </c>
     </row>
     <row r="158">
@@ -6351,7 +6351,7 @@
         <v>60.77511281939045</v>
       </c>
       <c r="L158" t="n">
-        <v>-0.004995658969016548</v>
+        <v>0.005279237414382409</v>
       </c>
     </row>
     <row r="159">
@@ -6389,7 +6389,7 @@
         <v>61.43756324408072</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04384861055587796</v>
+        <v>0.03288439170691193</v>
       </c>
     </row>
     <row r="160">
@@ -6427,7 +6427,7 @@
         <v>61.46452306741239</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04879036241521439</v>
+        <v>0.04663824485236234</v>
       </c>
     </row>
     <row r="161">
@@ -6465,7 +6465,7 @@
         <v>61.33124044081507</v>
       </c>
       <c r="L161" t="n">
-        <v>-0.003724384823513116</v>
+        <v>0.01077724552782966</v>
       </c>
     </row>
     <row r="162">
@@ -6503,7 +6503,7 @@
         <v>61.3875842248821</v>
       </c>
       <c r="L162" t="n">
-        <v>-0.008385659107676302</v>
+        <v>0.007248639618489205</v>
       </c>
     </row>
     <row r="163">
@@ -6541,7 +6541,7 @@
         <v>61.37954345761823</v>
       </c>
       <c r="L163" t="n">
-        <v>-0.008030677962678867</v>
+        <v>0.008685246599198893</v>
       </c>
     </row>
     <row r="164">
@@ -6579,7 +6579,7 @@
         <v>61.40144831407527</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0001605692290613803</v>
+        <v>0.01703810757830482</v>
       </c>
     </row>
     <row r="165">
@@ -6617,7 +6617,7 @@
         <v>61.42728481143537</v>
       </c>
       <c r="L165" t="n">
-        <v>0.01278328756011082</v>
+        <v>0.009548865313059762</v>
       </c>
     </row>
     <row r="166">
@@ -6655,7 +6655,7 @@
         <v>61.44862800490639</v>
       </c>
       <c r="L166" t="n">
-        <v>-0.01256065565081599</v>
+        <v>0.01755740332801459</v>
       </c>
     </row>
     <row r="167">
@@ -6693,7 +6693,7 @@
         <v>66.89353923028992</v>
       </c>
       <c r="L167" t="n">
-        <v>-0.009062195087980784</v>
+        <v>0.004873933005279385</v>
       </c>
     </row>
     <row r="168">
@@ -6731,7 +6731,7 @@
         <v>66.91825240167752</v>
       </c>
       <c r="L168" t="n">
-        <v>-0.0001726476741188421</v>
+        <v>-0.01087177711422438</v>
       </c>
     </row>
     <row r="169">
@@ -6769,7 +6769,7 @@
         <v>66.94240391007911</v>
       </c>
       <c r="L169" t="n">
-        <v>0.00104866851213381</v>
+        <v>0.009749660843594077</v>
       </c>
     </row>
     <row r="170">
@@ -6807,7 +6807,7 @@
         <v>67.81509591853052</v>
       </c>
       <c r="L170" t="n">
-        <v>-0.01748885992046367</v>
+        <v>-0.02298334682221026</v>
       </c>
     </row>
     <row r="171">
@@ -6845,7 +6845,7 @@
         <v>68.17714696845485</v>
       </c>
       <c r="L171" t="n">
-        <v>-0.007465175773144983</v>
+        <v>-0.0264544950049983</v>
       </c>
     </row>
     <row r="172">
@@ -6883,7 +6883,7 @@
         <v>67.92154509624875</v>
       </c>
       <c r="L172" t="n">
-        <v>-0.009367690029201459</v>
+        <v>0.008690389741634608</v>
       </c>
     </row>
     <row r="173">
@@ -6921,7 +6921,7 @@
         <v>68.17187828914523</v>
       </c>
       <c r="L173" t="n">
-        <v>-0.007221744867600632</v>
+        <v>0.02822279726783417</v>
       </c>
     </row>
     <row r="174">
@@ -6959,7 +6959,7 @@
         <v>69.23089469157701</v>
       </c>
       <c r="L174" t="n">
-        <v>0.01774745024791291</v>
+        <v>0.0179492891277977</v>
       </c>
     </row>
     <row r="175">
@@ -6997,7 +6997,7 @@
         <v>69.58817188684475</v>
       </c>
       <c r="L175" t="n">
-        <v>0.006399079499277427</v>
+        <v>-0.00141176317614633</v>
       </c>
     </row>
     <row r="176">
@@ -7035,7 +7035,7 @@
         <v>69.42842638020542</v>
       </c>
       <c r="L176" t="n">
-        <v>0.000325603682437503</v>
+        <v>0.007722133693706112</v>
       </c>
     </row>
     <row r="177">
@@ -7073,7 +7073,7 @@
         <v>71.98092895108879</v>
       </c>
       <c r="L177" t="n">
-        <v>-0.007802975279838975</v>
+        <v>0.0009079253564898693</v>
       </c>
     </row>
     <row r="178">
@@ -7111,7 +7111,7 @@
         <v>73.99714253098226</v>
       </c>
       <c r="L178" t="n">
-        <v>-0.01120319235807132</v>
+        <v>-0.003764853000184143</v>
       </c>
     </row>
     <row r="179">
@@ -7149,7 +7149,7 @@
         <v>73.98091612261281</v>
       </c>
       <c r="L179" t="n">
-        <v>0.003699727099484518</v>
+        <v>0.005197981474626134</v>
       </c>
     </row>
     <row r="180">
@@ -7187,7 +7187,7 @@
         <v>73.74582478894595</v>
       </c>
       <c r="L180" t="n">
-        <v>-0.01387114842193982</v>
+        <v>0.02571490874179383</v>
       </c>
     </row>
     <row r="181">
@@ -7225,7 +7225,7 @@
         <v>73.95369026650076</v>
       </c>
       <c r="L181" t="n">
-        <v>0.004581879639355968</v>
+        <v>0.01648318291139628</v>
       </c>
     </row>
     <row r="182">
@@ -7263,7 +7263,7 @@
         <v>74.25243646021484</v>
       </c>
       <c r="L182" t="n">
-        <v>-0.005153668217843688</v>
+        <v>0.01516487182549398</v>
       </c>
     </row>
     <row r="183">
@@ -7301,7 +7301,7 @@
         <v>75.11043959141452</v>
       </c>
       <c r="L183" t="n">
-        <v>-0.001197633063189762</v>
+        <v>0.002550499946413431</v>
       </c>
     </row>
     <row r="184">
@@ -7339,7 +7339,7 @@
         <v>75.68547024075174</v>
       </c>
       <c r="L184" t="n">
-        <v>0.00394687721662712</v>
+        <v>0.009345532178747229</v>
       </c>
     </row>
     <row r="185">
@@ -7377,7 +7377,7 @@
         <v>75.34480073812023</v>
       </c>
       <c r="L185" t="n">
-        <v>-0.02299419554054261</v>
+        <v>0.004615485286198151</v>
       </c>
     </row>
     <row r="186">
@@ -7415,7 +7415,7 @@
         <v>75.79745220357668</v>
       </c>
       <c r="L186" t="n">
-        <v>0.000412959424048509</v>
+        <v>0.01370399133202937</v>
       </c>
     </row>
     <row r="187">
@@ -7453,7 +7453,7 @@
         <v>75.61875248547636</v>
       </c>
       <c r="L187" t="n">
-        <v>0.006716583961603684</v>
+        <v>-0.002884993664896252</v>
       </c>
     </row>
     <row r="188">
@@ -7491,7 +7491,7 @@
         <v>74.88351304328037</v>
       </c>
       <c r="L188" t="n">
-        <v>-0.03030292272644686</v>
+        <v>-0.02093656636796681</v>
       </c>
     </row>
     <row r="189">
@@ -7529,7 +7529,7 @@
         <v>75.03775927822107</v>
       </c>
       <c r="L189" t="n">
-        <v>-0.03267488113913264</v>
+        <v>-0.004979804389047215</v>
       </c>
     </row>
     <row r="190">
@@ -7567,7 +7567,7 @@
         <v>75.85257914741108</v>
       </c>
       <c r="L190" t="n">
-        <v>-0.02308723198240314</v>
+        <v>-0.002361307938354651</v>
       </c>
     </row>
     <row r="191">
@@ -7605,7 +7605,7 @@
         <v>77.13759573165457</v>
       </c>
       <c r="L191" t="n">
-        <v>0.003701966035222437</v>
+        <v>-0.007287044953785848</v>
       </c>
     </row>
     <row r="192">
@@ -7643,7 +7643,7 @@
         <v>77.25052371225482</v>
       </c>
       <c r="L192" t="n">
-        <v>-0.000254060937213918</v>
+        <v>-0.001772384344852274</v>
       </c>
     </row>
     <row r="193">
@@ -7681,7 +7681,7 @@
         <v>75.54623821167144</v>
       </c>
       <c r="L193" t="n">
-        <v>-0.01915030359190428</v>
+        <v>0.005793481778277432</v>
       </c>
     </row>
     <row r="194">
@@ -7719,7 +7719,7 @@
         <v>77.3925923919667</v>
       </c>
       <c r="L194" t="n">
-        <v>-0.01116453877968659</v>
+        <v>0.008952631119163001</v>
       </c>
     </row>
     <row r="195">
@@ -7757,7 +7757,7 @@
         <v>77.57430990929319</v>
       </c>
       <c r="L195" t="n">
-        <v>-0.08878805157315495</v>
+        <v>-0.07337299041701928</v>
       </c>
     </row>
     <row r="196">
@@ -7795,7 +7795,7 @@
         <v>78.87645375386278</v>
       </c>
       <c r="L196" t="n">
-        <v>-0.05454536102856689</v>
+        <v>-0.01176845385366332</v>
       </c>
     </row>
     <row r="197">
@@ -7833,7 +7833,7 @@
         <v>81.18441500421825</v>
       </c>
       <c r="L197" t="n">
-        <v>-0.02165491857741109</v>
+        <v>0.01167032177476179</v>
       </c>
     </row>
     <row r="198">
@@ -7871,7 +7871,7 @@
         <v>83.59831715230817</v>
       </c>
       <c r="L198" t="n">
-        <v>-0.04399846967744625</v>
+        <v>0.03338317418617609</v>
       </c>
     </row>
     <row r="199">
@@ -7909,7 +7909,7 @@
         <v>86.02481245689843</v>
       </c>
       <c r="L199" t="n">
-        <v>0.007395303308969092</v>
+        <v>-0.01551141904137521</v>
       </c>
     </row>
     <row r="200">
@@ -7947,7 +7947,7 @@
         <v>84.9488622481509</v>
       </c>
       <c r="L200" t="n">
-        <v>-0.00245972417032192</v>
+        <v>-0.000659896192328091</v>
       </c>
     </row>
     <row r="201">
@@ -7985,7 +7985,7 @@
         <v>86.53597355669729</v>
       </c>
       <c r="L201" t="n">
-        <v>-0.004588087067396218</v>
+        <v>0.001825696249569519</v>
       </c>
     </row>
     <row r="202">
@@ -8023,7 +8023,7 @@
         <v>88.21024258927326</v>
       </c>
       <c r="L202" t="n">
-        <v>-0.01166322966801481</v>
+        <v>0.0189889757943309</v>
       </c>
     </row>
     <row r="203">
@@ -8061,7 +8061,7 @@
         <v>88.52288385355315</v>
       </c>
       <c r="L203" t="n">
-        <v>-0.01121466699129225</v>
+        <v>0.00606324931455493</v>
       </c>
     </row>
     <row r="204">
@@ -8099,7 +8099,7 @@
         <v>90.39986926522039</v>
       </c>
       <c r="L204" t="n">
-        <v>-0.02127602678513862</v>
+        <v>0.0126221318708104</v>
       </c>
     </row>
     <row r="205">
@@ -8137,7 +8137,7 @@
         <v>87.28426465151294</v>
       </c>
       <c r="L205" t="n">
-        <v>-0.006664116744490522</v>
+        <v>0.007161800322771805</v>
       </c>
     </row>
     <row r="206">
@@ -8175,7 +8175,7 @@
         <v>88.8691685389136</v>
       </c>
       <c r="L206" t="n">
-        <v>-0.0315378872858818</v>
+        <v>0.02329816434256271</v>
       </c>
     </row>
     <row r="207">
@@ -8213,7 +8213,7 @@
         <v>89.03007038517794</v>
       </c>
       <c r="L207" t="n">
-        <v>-0.01072091743272519</v>
+        <v>-0.001343511024996191</v>
       </c>
     </row>
     <row r="208">
@@ -8251,7 +8251,7 @@
         <v>89.02392828457405</v>
       </c>
       <c r="L208" t="n">
-        <v>-0.01379781424512205</v>
+        <v>0.02053329358939737</v>
       </c>
     </row>
     <row r="209">
@@ -8289,7 +8289,7 @@
         <v>87.8462432441813</v>
       </c>
       <c r="L209" t="n">
-        <v>-0.009087895423898873</v>
+        <v>0.01045517817740316</v>
       </c>
     </row>
     <row r="210">
@@ -8327,7 +8327,7 @@
         <v>89.36699528371457</v>
       </c>
       <c r="L210" t="n">
-        <v>-0.006777944608606479</v>
+        <v>0.0007050507436852094</v>
       </c>
     </row>
     <row r="211">
@@ -8365,7 +8365,7 @@
         <v>89.18728261666303</v>
       </c>
       <c r="L211" t="n">
-        <v>-0.02673499046530803</v>
+        <v>0.01591351792566686</v>
       </c>
     </row>
     <row r="212">
@@ -8403,7 +8403,7 @@
         <v>88.12225944317049</v>
       </c>
       <c r="L212" t="n">
-        <v>-0.1777756506259394</v>
+        <v>-0.1220860151346006</v>
       </c>
     </row>
     <row r="213">
@@ -8441,7 +8441,7 @@
         <v>88.72082304273377</v>
       </c>
       <c r="L213" t="n">
-        <v>-0.07893876132362299</v>
+        <v>-0.02062766449843312</v>
       </c>
     </row>
     <row r="214">
@@ -8479,7 +8479,7 @@
         <v>88.40852828092989</v>
       </c>
       <c r="L214" t="n">
-        <v>-0.00971353386147511</v>
+        <v>0.01162866531845763</v>
       </c>
     </row>
     <row r="215">
@@ -8517,7 +8517,7 @@
         <v>88.68312918104955</v>
       </c>
       <c r="L215" t="n">
-        <v>-0.00556738762589859</v>
+        <v>0.01902490319999828</v>
       </c>
     </row>
     <row r="216">
@@ -8555,7 +8555,7 @@
         <v>89.1840613354282</v>
       </c>
       <c r="L216" t="n">
-        <v>0.01010568252424604</v>
+        <v>0.01652893404684819</v>
       </c>
     </row>
     <row r="217">
@@ -8593,7 +8593,7 @@
         <v>89.91250777721214</v>
       </c>
       <c r="L217" t="n">
-        <v>0.01015357791315674</v>
+        <v>0.01948415802688741</v>
       </c>
     </row>
     <row r="218">
@@ -8631,7 +8631,7 @@
         <v>90.57984911159413</v>
       </c>
       <c r="L218" t="n">
-        <v>0.002989319472415541</v>
+        <v>0.02200330346937607</v>
       </c>
     </row>
     <row r="219">
@@ -8669,7 +8669,7 @@
         <v>90.19876220541343</v>
       </c>
       <c r="L219" t="n">
-        <v>-0.003165821367262955</v>
+        <v>0.003686735475205927</v>
       </c>
     </row>
     <row r="220">
@@ -8707,7 +8707,7 @@
         <v>89.35298950287829</v>
       </c>
       <c r="L220" t="n">
-        <v>0.002588720944211254</v>
+        <v>0.0123521456313247</v>
       </c>
     </row>
     <row r="221">
@@ -8745,7 +8745,7 @@
         <v>87.72994065279006</v>
       </c>
       <c r="L221" t="n">
-        <v>-0.01480070186912408</v>
+        <v>0.01152907497903244</v>
       </c>
     </row>
     <row r="222">
@@ -8783,7 +8783,7 @@
         <v>88.30034837325927</v>
       </c>
       <c r="L222" t="n">
-        <v>-0.01240257471286688</v>
+        <v>-0.011164174033786</v>
       </c>
     </row>
     <row r="223">
@@ -8821,7 +8821,7 @@
         <v>87.82876572062661</v>
       </c>
       <c r="L223" t="n">
-        <v>0.02170414540191734</v>
+        <v>0.02018755217458379</v>
       </c>
     </row>
     <row r="224">
@@ -8859,7 +8859,7 @@
         <v>87.68042908787929</v>
       </c>
       <c r="L224" t="n">
-        <v>0.008941887945034921</v>
+        <v>0.03696159933131327</v>
       </c>
     </row>
     <row r="225">
@@ -8897,7 +8897,7 @@
         <v>87.44998276312477</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0227571945481706</v>
+        <v>0.04850984461470031</v>
       </c>
     </row>
     <row r="226">
@@ -8935,7 +8935,7 @@
         <v>87.76349557939389</v>
       </c>
       <c r="L226" t="n">
-        <v>0.0191620790306577</v>
+        <v>0.02048162825370659</v>
       </c>
     </row>
     <row r="227">
@@ -8973,7 +8973,7 @@
         <v>88.15809750851751</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04965561055731893</v>
+        <v>0.04991132267120957</v>
       </c>
     </row>
     <row r="228">
@@ -9011,7 +9011,7 @@
         <v>83.65484216570087</v>
       </c>
       <c r="L228" t="n">
-        <v>-0.01993037882806026</v>
+        <v>-0.02011715546030568</v>
       </c>
     </row>
     <row r="229">
@@ -9049,7 +9049,7 @@
         <v>86.83405416629452</v>
       </c>
       <c r="L229" t="n">
-        <v>-0.005255841988220711</v>
+        <v>0.01295918865927992</v>
       </c>
     </row>
     <row r="230">
@@ -9087,7 +9087,7 @@
         <v>95.30066036557611</v>
       </c>
       <c r="L230" t="n">
-        <v>0.007167829343799781</v>
+        <v>0.02377408452941587</v>
       </c>
     </row>
     <row r="231">
@@ -9125,7 +9125,7 @@
         <v>94.47508339264787</v>
       </c>
       <c r="L231" t="n">
-        <v>0.01333332995470737</v>
+        <v>0.005406478055731689</v>
       </c>
     </row>
     <row r="232">
@@ -9163,7 +9163,7 @@
         <v>100.8372218541324</v>
       </c>
       <c r="L232" t="n">
-        <v>0.003736069754949778</v>
+        <v>0.004249936399924881</v>
       </c>
     </row>
     <row r="233">
@@ -9201,7 +9201,7 @@
         <v>99.65015037582236</v>
       </c>
       <c r="L233" t="n">
-        <v>0.01114865973906332</v>
+        <v>0.01840924790332688</v>
       </c>
     </row>
     <row r="234">
@@ -9239,7 +9239,7 @@
         <v>103.8216593721554</v>
       </c>
       <c r="L234" t="n">
-        <v>0.02941336020353358</v>
+        <v>0.02728908426487653</v>
       </c>
     </row>
     <row r="235">
@@ -9277,7 +9277,7 @@
         <v>99.02018355822163</v>
       </c>
       <c r="L235" t="n">
-        <v>0.002229361702475785</v>
+        <v>-0.00250177737890489</v>
       </c>
     </row>
     <row r="236">
@@ -9315,7 +9315,7 @@
         <v>93.32436631563407</v>
       </c>
       <c r="L236" t="n">
-        <v>-0.01080285753638477</v>
+        <v>0.01025813753423299</v>
       </c>
     </row>
     <row r="237">
@@ -9353,7 +9353,7 @@
         <v>93.33033253389405</v>
       </c>
       <c r="L237" t="n">
-        <v>0.0005253539182090705</v>
+        <v>0.00104868660377111</v>
       </c>
     </row>
     <row r="238">
@@ -9391,7 +9391,7 @@
         <v>86.40101943507668</v>
       </c>
       <c r="L238" t="n">
-        <v>-0.002247864438884362</v>
+        <v>0.00239927979398824</v>
       </c>
     </row>
     <row r="239">
@@ -9429,7 +9429,7 @@
         <v>83.88083961119605</v>
       </c>
       <c r="L239" t="n">
-        <v>-0.006662828312642644</v>
+        <v>0.004090324988244687</v>
       </c>
     </row>
     <row r="240">
@@ -9467,7 +9467,7 @@
         <v>89.78827231912648</v>
       </c>
       <c r="L240" t="n">
-        <v>0.002530736529942734</v>
+        <v>-0.01128269327639742</v>
       </c>
     </row>
     <row r="241">
@@ -9505,7 +9505,7 @@
         <v>88.25746100789037</v>
       </c>
       <c r="L241" t="n">
-        <v>-0.005280906593332801</v>
+        <v>0.00281314520163356</v>
       </c>
     </row>
     <row r="242">
@@ -9543,7 +9543,7 @@
         <v>97.72430580695872</v>
       </c>
       <c r="L242" t="n">
-        <v>-0.007064886212160726</v>
+        <v>0.01928294805840869</v>
       </c>
     </row>
     <row r="243">
@@ -9581,7 +9581,7 @@
         <v>97.24594583780224</v>
       </c>
       <c r="L243" t="n">
-        <v>-0.002498624524866822</v>
+        <v>-0.01290496491405135</v>
       </c>
     </row>
     <row r="244">
@@ -9619,7 +9619,7 @@
         <v>100.060330807401</v>
       </c>
       <c r="L244" t="n">
-        <v>-0.02738293139184922</v>
+        <v>-0.04703644567900778</v>
       </c>
     </row>
     <row r="245">
@@ -9657,7 +9657,7 @@
         <v>100.77664141623</v>
       </c>
       <c r="L245" t="n">
-        <v>-0.03369732352742405</v>
+        <v>-0.03685141467092512</v>
       </c>
     </row>
     <row r="246">
@@ -9695,7 +9695,7 @@
         <v>102.0460742605999</v>
       </c>
       <c r="L246" t="n">
-        <v>0.01380024461501939</v>
+        <v>0.007905982529850641</v>
       </c>
     </row>
     <row r="247">
@@ -9733,7 +9733,7 @@
         <v>102.1644275002547</v>
       </c>
       <c r="L247" t="n">
-        <v>0.007283687519581417</v>
+        <v>0.01631699811111398</v>
       </c>
     </row>
     <row r="248">
@@ -9771,7 +9771,7 @@
         <v>101.7063922630307</v>
       </c>
       <c r="L248" t="n">
-        <v>-0.02395107950171282</v>
+        <v>0.004306985710869737</v>
       </c>
     </row>
     <row r="249">
@@ -9809,7 +9809,7 @@
         <v>105.6491306815324</v>
       </c>
       <c r="L249" t="n">
-        <v>-0.02768179961160122</v>
+        <v>-0.0187633137815002</v>
       </c>
     </row>
     <row r="250">
@@ -9847,7 +9847,7 @@
         <v>107.0597587023573</v>
       </c>
       <c r="L250" t="n">
-        <v>-0.01446373804138723</v>
+        <v>-0.009985772501700296</v>
       </c>
     </row>
     <row r="251">
@@ -9885,7 +9885,7 @@
         <v>111.5852375930637</v>
       </c>
       <c r="L251" t="n">
-        <v>-0.0141653473870007</v>
+        <v>-0.01717862825708183</v>
       </c>
     </row>
     <row r="252">
@@ -9923,7 +9923,7 @@
         <v>119.5311775626862</v>
       </c>
       <c r="L252" t="n">
-        <v>-0.02851920964478127</v>
+        <v>-0.02460860342174653</v>
       </c>
     </row>
     <row r="253">
@@ -9961,7 +9961,7 @@
         <v>124.5732499772061</v>
       </c>
       <c r="L253" t="n">
-        <v>-0.03822270224569113</v>
+        <v>-0.02897828715847073</v>
       </c>
     </row>
     <row r="254">
@@ -9999,7 +9999,7 @@
         <v>131.8357098944343</v>
       </c>
       <c r="L254" t="n">
-        <v>-0.03227947772112039</v>
+        <v>-0.00786168255554287</v>
       </c>
     </row>
     <row r="255">
@@ -10037,7 +10037,7 @@
         <v>138.1956122406372</v>
       </c>
       <c r="L255" t="n">
-        <v>-0.056416249499742</v>
+        <v>-0.06695943903752721</v>
       </c>
     </row>
     <row r="256">
@@ -10075,7 +10075,7 @@
         <v>141.5835045817679</v>
       </c>
       <c r="L256" t="n">
-        <v>-0.01423145031026518</v>
+        <v>0.01194709437841279</v>
       </c>
     </row>
     <row r="257">
@@ -10113,7 +10113,7 @@
         <v>138.2467689324479</v>
       </c>
       <c r="L257" t="n">
-        <v>-0.02252430149286044</v>
+        <v>-0.01619000814629001</v>
       </c>
     </row>
     <row r="258">
@@ -10151,7 +10151,7 @@
         <v>136.8613731887872</v>
       </c>
       <c r="L258" t="n">
-        <v>-0.03956249770776554</v>
+        <v>-0.0459603707429086</v>
       </c>
     </row>
     <row r="259">
@@ -10189,7 +10189,7 @@
         <v>137.731701119566</v>
       </c>
       <c r="L259" t="n">
-        <v>-0.02632693035160338</v>
+        <v>-0.042405693973945</v>
       </c>
     </row>
     <row r="260">
@@ -10227,7 +10227,7 @@
         <v>134.4016502552544</v>
       </c>
       <c r="L260" t="n">
-        <v>-0.04006614202799041</v>
+        <v>-0.02296251245529768</v>
       </c>
     </row>
     <row r="261">
@@ -10265,7 +10265,7 @@
         <v>136.2557167799033</v>
       </c>
       <c r="L261" t="n">
-        <v>-0.03056221054015329</v>
+        <v>-0.02147442936063793</v>
       </c>
     </row>
     <row r="262">
@@ -10303,7 +10303,7 @@
         <v>138.3511713574944</v>
       </c>
       <c r="L262" t="n">
-        <v>0.0422214185433778</v>
+        <v>0.03861557038509877</v>
       </c>
     </row>
     <row r="263">
@@ -10341,7 +10341,7 @@
         <v>140.8312034318334</v>
       </c>
       <c r="L263" t="n">
-        <v>-0.006760290775061462</v>
+        <v>0.01144459685495458</v>
       </c>
     </row>
     <row r="264">
@@ -10379,7 +10379,7 @@
         <v>144.3394690578594</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0001969106822163891</v>
+        <v>0.01111135240210381</v>
       </c>
     </row>
     <row r="265">
@@ -10417,7 +10417,7 @@
         <v>140.024070964103</v>
       </c>
       <c r="L265" t="n">
-        <v>-0.02794212625286185</v>
+        <v>-0.004060552794010519</v>
       </c>
     </row>
     <row r="266">
@@ -10455,7 +10455,7 @@
         <v>140.1304690347708</v>
       </c>
       <c r="L266" t="n">
-        <v>-0.03256540506805083</v>
+        <v>0.002488726653313789</v>
       </c>
     </row>
     <row r="267">
@@ -10493,7 +10493,7 @@
         <v>139.9600732437325</v>
       </c>
       <c r="L267" t="n">
-        <v>-0.02824457356587495</v>
+        <v>-0.01902812729476167</v>
       </c>
     </row>
     <row r="268">
@@ -10531,7 +10531,7 @@
         <v>139.41413201962</v>
       </c>
       <c r="L268" t="n">
-        <v>-0.04680110209206723</v>
+        <v>-0.02504657218911654</v>
       </c>
     </row>
     <row r="269">
@@ -10569,7 +10569,7 @@
         <v>146.921079224613</v>
       </c>
       <c r="L269" t="n">
-        <v>-0.02346033183464447</v>
+        <v>-0.005620722227652974</v>
       </c>
     </row>
     <row r="270">
@@ -10607,7 +10607,7 @@
         <v>143.9343192662559</v>
       </c>
       <c r="L270" t="n">
-        <v>0.0244044526917957</v>
+        <v>0.03438107256000933</v>
       </c>
     </row>
     <row r="271">
@@ -10645,7 +10645,7 @@
         <v>142.8029875945065</v>
       </c>
       <c r="L271" t="n">
-        <v>-0.05588051144409523</v>
+        <v>-0.06171664919087849</v>
       </c>
     </row>
     <row r="272">
@@ -10683,7 +10683,7 @@
         <v>145.3886874992616</v>
       </c>
       <c r="L272" t="n">
-        <v>-0.02896065069136355</v>
+        <v>-0.01358739566635592</v>
       </c>
     </row>
     <row r="273">
@@ -10721,7 +10721,7 @@
         <v>145.4153113504877</v>
       </c>
       <c r="L273" t="n">
-        <v>-0.009803269579849117</v>
+        <v>-3.794909582555128e-05</v>
       </c>
     </row>
     <row r="274">
@@ -10759,7 +10759,7 @@
         <v>144.2986956561814</v>
       </c>
       <c r="L274" t="n">
-        <v>-0.007282755916475869</v>
+        <v>-0.009053733173944645</v>
       </c>
     </row>
     <row r="275">
@@ -10797,7 +10797,7 @@
         <v>147.6456556388968</v>
       </c>
       <c r="L275" t="n">
-        <v>-0.02613953331332697</v>
+        <v>-0.01224377400645471</v>
       </c>
     </row>
     <row r="276">
@@ -10835,7 +10835,7 @@
         <v>158.3278034325178</v>
       </c>
       <c r="L276" t="n">
-        <v>-0.03796807362702159</v>
+        <v>-0.02736617180255196</v>
       </c>
     </row>
     <row r="277">
@@ -10873,7 +10873,7 @@
         <v>158.1022286059861</v>
       </c>
       <c r="L277" t="n">
-        <v>-0.08311955145993621</v>
+        <v>-0.03045192659145279</v>
       </c>
     </row>
     <row r="278">
@@ -10911,7 +10911,7 @@
         <v>157.9996674209753</v>
       </c>
       <c r="L278" t="n">
-        <v>-0.02232190258715261</v>
+        <v>0.007370070184744337</v>
       </c>
     </row>
     <row r="279">
@@ -10949,7 +10949,7 @@
         <v>159.3818137957529</v>
       </c>
       <c r="L279" t="n">
-        <v>-0.02646877705348882</v>
+        <v>-0.01846747681412952</v>
       </c>
     </row>
     <row r="280">
@@ -10987,7 +10987,7 @@
         <v>159.5141112403802</v>
       </c>
       <c r="L280" t="n">
-        <v>-0.03136825270930377</v>
+        <v>-0.01921881224689859</v>
       </c>
     </row>
     <row r="281">
@@ -11025,7 +11025,7 @@
         <v>159.1053647473641</v>
       </c>
       <c r="L281" t="n">
-        <v>-0.02713621006524658</v>
+        <v>-0.01396066791188044</v>
       </c>
     </row>
     <row r="282">
@@ -11063,7 +11063,7 @@
         <v>157.9776635893711</v>
       </c>
       <c r="L282" t="n">
-        <v>-0.01169622683986971</v>
+        <v>-0.01557396530363109</v>
       </c>
     </row>
     <row r="283">
@@ -11101,7 +11101,7 @@
         <v>157.7265135827154</v>
       </c>
       <c r="L283" t="n">
-        <v>-0.04252357315900346</v>
+        <v>-0.03685938258397714</v>
       </c>
     </row>
     <row r="284">
@@ -11139,7 +11139,7 @@
         <v>155.3786367863908</v>
       </c>
       <c r="L284" t="n">
-        <v>-0.0302089336484912</v>
+        <v>-0.03112035402817059</v>
       </c>
     </row>
     <row r="285">
@@ -11177,7 +11177,7 @@
         <v>151.8936000263473</v>
       </c>
       <c r="L285" t="n">
-        <v>-0.03294134402998328</v>
+        <v>-0.01209701328189094</v>
       </c>
     </row>
     <row r="286">
@@ -11215,7 +11215,7 @@
         <v>153.953996035661</v>
       </c>
       <c r="L286" t="n">
-        <v>-0.008441182054425456</v>
+        <v>-0.002421487650166254</v>
       </c>
     </row>
     <row r="287">
@@ -11253,7 +11253,7 @@
         <v>154.9160965114228</v>
       </c>
       <c r="L287" t="n">
-        <v>-0.005283029035316078</v>
+        <v>0.01588102068728614</v>
       </c>
     </row>
     <row r="288">
@@ -11291,7 +11291,7 @@
         <v>156.6936645467406</v>
       </c>
       <c r="L288" t="n">
-        <v>-0.03147109717136076</v>
+        <v>-0.01506635518981425</v>
       </c>
     </row>
     <row r="289">
@@ -11329,7 +11329,7 @@
         <v>157.1264656719216</v>
       </c>
       <c r="L289" t="n">
-        <v>-0.03527933547169804</v>
+        <v>-0.006214893574268299</v>
       </c>
     </row>
     <row r="290">
@@ -11367,7 +11367,7 @@
         <v>157.7783315622415</v>
       </c>
       <c r="L290" t="n">
-        <v>-0.01992559743789779</v>
+        <v>-0.0007850940576965559</v>
       </c>
     </row>
     <row r="291">
@@ -11405,7 +11405,7 @@
         <v>162.1101406548577</v>
       </c>
       <c r="L291" t="n">
-        <v>0.03531119958223083</v>
+        <v>0.03308319086017253</v>
       </c>
     </row>
     <row r="292">
@@ -11443,7 +11443,7 @@
         <v>162.8390771579153</v>
       </c>
       <c r="L292" t="n">
-        <v>0.02536429223733205</v>
+        <v>0.03756716177350117</v>
       </c>
     </row>
     <row r="293">
@@ -11481,7 +11481,7 @@
         <v>161.0230229003203</v>
       </c>
       <c r="L293" t="n">
-        <v>-0.004619068640906443</v>
+        <v>-0.004927170227823074</v>
       </c>
     </row>
     <row r="294">
@@ -11519,7 +11519,7 @@
         <v>161.619545583999</v>
       </c>
       <c r="L294" t="n">
-        <v>-0.0276541448419918</v>
+        <v>-0.02265511502841644</v>
       </c>
     </row>
     <row r="295">
@@ -11557,7 +11557,7 @@
         <v>160.8500185661003</v>
       </c>
       <c r="L295" t="n">
-        <v>-0.008892287493188267</v>
+        <v>-0.0005282756681928014</v>
       </c>
     </row>
     <row r="296">
@@ -11595,7 +11595,7 @@
         <v>160.1228865736276</v>
       </c>
       <c r="L296" t="n">
-        <v>-0.05291055098643382</v>
+        <v>-0.0299105431617408</v>
       </c>
     </row>
     <row r="297">
@@ -11633,7 +11633,7 @@
         <v>161.8399879260684</v>
       </c>
       <c r="L297" t="n">
-        <v>-0.02280075088562517</v>
+        <v>-0.01659825856474373</v>
       </c>
     </row>
     <row r="298">
@@ -11671,7 +11671,7 @@
         <v>159.7293809221305</v>
       </c>
       <c r="L298" t="n">
-        <v>-0.02948965049954988</v>
+        <v>-0.0349967479219313</v>
       </c>
     </row>
     <row r="299">
@@ -11709,7 +11709,7 @@
         <v>160.9549091594513</v>
       </c>
       <c r="L299" t="n">
-        <v>-0.01588758828295522</v>
+        <v>-0.009538143850206238</v>
       </c>
     </row>
     <row r="300">
@@ -11747,7 +11747,7 @@
         <v>161.6875891910695</v>
       </c>
       <c r="L300" t="n">
-        <v>0.01982857288729867</v>
+        <v>0.03009823872517381</v>
       </c>
     </row>
     <row r="301">
@@ -11785,7 +11785,7 @@
         <v>162.6483715104074</v>
       </c>
       <c r="L301" t="n">
-        <v>-0.02992733508871348</v>
+        <v>-0.0163803032327059</v>
       </c>
     </row>
     <row r="302">
@@ -11823,7 +11823,7 @@
         <v>160.068505306312</v>
       </c>
       <c r="L302" t="n">
-        <v>-0.03629451936695949</v>
+        <v>-0.002840887506322165</v>
       </c>
     </row>
     <row r="303">
@@ -11861,7 +11861,7 @@
         <v>159.569110511731</v>
       </c>
       <c r="L303" t="n">
-        <v>-0.0404192861912489</v>
+        <v>-0.03539554241769194</v>
       </c>
     </row>
     <row r="304">
@@ -11899,7 +11899,7 @@
         <v>165.2520973596208</v>
       </c>
       <c r="L304" t="n">
-        <v>-0.01008530551328191</v>
+        <v>-0.005175379336611829</v>
       </c>
     </row>
     <row r="305">
@@ -11937,7 +11937,7 @@
         <v>165.2522078905271</v>
       </c>
       <c r="L305" t="n">
-        <v>0.0577823975337548</v>
+        <v>0.06900701300861201</v>
       </c>
     </row>
     <row r="306">
@@ -11975,7 +11975,7 @@
         <v>166.5979540383889</v>
       </c>
       <c r="L306" t="n">
-        <v>-0.01864829012532176</v>
+        <v>-0.0198506458166694</v>
       </c>
     </row>
     <row r="307">
@@ -12013,7 +12013,7 @@
         <v>168.0190737353737</v>
       </c>
       <c r="L307" t="n">
-        <v>0.008258956391973604</v>
+        <v>-0.0007395920394038802</v>
       </c>
     </row>
     <row r="308">
@@ -12051,7 +12051,7 @@
         <v>172.5984307033062</v>
       </c>
       <c r="L308" t="n">
-        <v>0.03401925059095068</v>
+        <v>0.04167718878697957</v>
       </c>
     </row>
     <row r="309">
@@ -12089,7 +12089,7 @@
         <v>172.983757261701</v>
       </c>
       <c r="L309" t="n">
-        <v>0.02528535694795919</v>
+        <v>0.02457049993464744</v>
       </c>
     </row>
     <row r="310">
@@ -12127,7 +12127,7 @@
         <v>178.2932150954284</v>
       </c>
       <c r="L310" t="n">
-        <v>-0.03647743430649086</v>
+        <v>-0.02008543650949335</v>
       </c>
     </row>
     <row r="311">
@@ -12165,7 +12165,7 @@
         <v>193.9497771845247</v>
       </c>
       <c r="L311" t="n">
-        <v>0.04160730743135632</v>
+        <v>0.04451641187071109</v>
       </c>
     </row>
     <row r="312">
@@ -12203,7 +12203,7 @@
         <v>199.5088241192624</v>
       </c>
       <c r="L312" t="n">
-        <v>0.008137258812327186</v>
+        <v>0.01802757937673904</v>
       </c>
     </row>
     <row r="313">
@@ -12241,7 +12241,7 @@
         <v>201.0672370087946</v>
       </c>
       <c r="L313" t="n">
-        <v>0.0207320826547357</v>
+        <v>0.02351462145359084</v>
       </c>
     </row>
     <row r="314">
@@ -12279,7 +12279,7 @@
         <v>203.3348590938426</v>
       </c>
       <c r="L314" t="n">
-        <v>-0.005248878763551845</v>
+        <v>0.04676407887247902</v>
       </c>
     </row>
     <row r="315">
@@ -12317,7 +12317,7 @@
         <v>211.8640523368203</v>
       </c>
       <c r="L315" t="n">
-        <v>0.03203232092504793</v>
+        <v>0.04642376012078087</v>
       </c>
     </row>
     <row r="316">
@@ -12355,7 +12355,7 @@
         <v>209.1367035056215</v>
       </c>
       <c r="L316" t="n">
-        <v>0.02389775987966203</v>
+        <v>0.03979806050994228</v>
       </c>
     </row>
     <row r="317">
@@ -12393,7 +12393,7 @@
         <v>216.4620992596715</v>
       </c>
       <c r="L317" t="n">
-        <v>-0.01382818683324527</v>
+        <v>-0.005284357543316132</v>
       </c>
     </row>
     <row r="318">
@@ -12431,7 +12431,7 @@
         <v>210.6757818515335</v>
       </c>
       <c r="L318" t="n">
-        <v>0.01312965527527954</v>
+        <v>0.01317453428474646</v>
       </c>
     </row>
     <row r="319">
@@ -12469,7 +12469,7 @@
         <v>216.940169069056</v>
       </c>
       <c r="L319" t="n">
-        <v>-0.0111557105634239</v>
+        <v>-0.00380364252366916</v>
       </c>
     </row>
     <row r="320">
@@ -12507,7 +12507,7 @@
         <v>220.8296865401433</v>
       </c>
       <c r="L320" t="n">
-        <v>0.02814657574109392</v>
+        <v>0.0481292017173387</v>
       </c>
     </row>
     <row r="321">
@@ -12545,7 +12545,7 @@
         <v>224.234343565842</v>
       </c>
       <c r="L321" t="n">
-        <v>0.0237246556518631</v>
+        <v>0.02574416447503403</v>
       </c>
     </row>
     <row r="322">
@@ -12583,7 +12583,7 @@
         <v>223.887140287437</v>
       </c>
       <c r="L322" t="n">
-        <v>-0.003847637119827274</v>
+        <v>0.007740850958135814</v>
       </c>
     </row>
     <row r="323">
@@ -12621,7 +12621,7 @@
         <v>219.2408456762204</v>
       </c>
       <c r="L323" t="n">
-        <v>0.002109756983074806</v>
+        <v>0.007769097699064087</v>
       </c>
     </row>
     <row r="324">
@@ -12659,7 +12659,7 @@
         <v>222.6668528151224</v>
       </c>
       <c r="L324" t="n">
-        <v>-0.0178785475092772</v>
+        <v>-0.02428070936106985</v>
       </c>
     </row>
     <row r="325">
@@ -12697,7 +12697,7 @@
         <v>225.8881592337739</v>
       </c>
       <c r="L325" t="n">
-        <v>0.006896584268142547</v>
+        <v>0.01362293129334624</v>
       </c>
     </row>
     <row r="326">
@@ -12735,7 +12735,7 @@
         <v>229.9404717688222</v>
       </c>
       <c r="L326" t="n">
-        <v>0.03895434954037014</v>
+        <v>0.04161439243097775</v>
       </c>
     </row>
     <row r="327">
@@ -12773,7 +12773,7 @@
         <v>229.8154139573454</v>
       </c>
       <c r="L327" t="n">
-        <v>0.004543905888040101</v>
+        <v>0.005868023145451318</v>
       </c>
     </row>
     <row r="328">
@@ -12811,7 +12811,7 @@
         <v>227.3196738305348</v>
       </c>
       <c r="L328" t="n">
-        <v>-0.001200472351873261</v>
+        <v>0.001464573611788866</v>
       </c>
     </row>
     <row r="329">
@@ -12849,7 +12849,7 @@
         <v>216.9269522515302</v>
       </c>
       <c r="L329" t="n">
-        <v>0.01698953218251997</v>
+        <v>0.01081096471577059</v>
       </c>
     </row>
     <row r="330">
@@ -12887,7 +12887,7 @@
         <v>213.7662079510707</v>
       </c>
       <c r="L330" t="n">
-        <v>0.01900974225026442</v>
+        <v>0.009438298593166472</v>
       </c>
     </row>
     <row r="331">
@@ -12925,7 +12925,7 @@
         <v>210.165270747101</v>
       </c>
       <c r="L331" t="n">
-        <v>-0.005740999493995425</v>
+        <v>-0.0123298793634925</v>
       </c>
     </row>
     <row r="332">
@@ -12963,7 +12963,7 @@
         <v>206.3419812152998</v>
       </c>
       <c r="L332" t="n">
-        <v>-0.01192008283343982</v>
+        <v>0.003055863672097425</v>
       </c>
     </row>
     <row r="333">
@@ -13001,7 +13001,7 @@
         <v>213.7736883653708</v>
       </c>
       <c r="L333" t="n">
-        <v>0.01487419898461373</v>
+        <v>0.003450505443175045</v>
       </c>
     </row>
     <row r="334">
@@ -13039,7 +13039,7 @@
         <v>209.8445474754043</v>
       </c>
       <c r="L334" t="n">
-        <v>0.03110285363667575</v>
+        <v>0.03905535154028517</v>
       </c>
     </row>
     <row r="335">
@@ -13077,7 +13077,7 @@
         <v>215.1051414736164</v>
       </c>
       <c r="L335" t="n">
-        <v>0.020303020778768</v>
+        <v>0.02696907260777803</v>
       </c>
     </row>
     <row r="336">
@@ -13115,7 +13115,7 @@
         <v>217.7993594573035</v>
       </c>
       <c r="L336" t="n">
-        <v>0.04935029117379219</v>
+        <v>0.04302135640540694</v>
       </c>
     </row>
     <row r="337">
@@ -13153,7 +13153,7 @@
         <v>213.2325356426635</v>
       </c>
       <c r="L337" t="n">
-        <v>0.01771901291645039</v>
+        <v>0.02487587586454443</v>
       </c>
     </row>
     <row r="338">
@@ -13191,7 +13191,7 @@
         <v>199.9916966295482</v>
       </c>
       <c r="L338" t="n">
-        <v>-0.01692537201396549</v>
+        <v>-0.009435157350919265</v>
       </c>
     </row>
     <row r="339">
@@ -13229,7 +13229,7 @@
         <v>200.5018527311038</v>
       </c>
       <c r="L339" t="n">
-        <v>-0.01919087803814334</v>
+        <v>-0.01890584802913886</v>
       </c>
     </row>
     <row r="340">
@@ -13267,7 +13267,7 @@
         <v>201.0699172241479</v>
       </c>
       <c r="L340" t="n">
-        <v>0.01348547201578443</v>
+        <v>0.01936281778582716</v>
       </c>
     </row>
     <row r="341">
@@ -13305,7 +13305,7 @@
         <v>198.9470894235617</v>
       </c>
       <c r="L341" t="n">
-        <v>0.02328231294922312</v>
+        <v>0.006017454420089829</v>
       </c>
     </row>
     <row r="342">
@@ -13343,7 +13343,7 @@
         <v>195.3089196034533</v>
       </c>
       <c r="L342" t="n">
-        <v>-0.006864011797571123</v>
+        <v>-0.01379966382294384</v>
       </c>
     </row>
     <row r="343">
@@ -13381,7 +13381,7 @@
         <v>191.0216534806403</v>
       </c>
       <c r="L343" t="n">
-        <v>-0.03455733833630159</v>
+        <v>-0.03530222142988837</v>
       </c>
     </row>
     <row r="344">
@@ -13419,7 +13419,7 @@
         <v>204.2817819447353</v>
       </c>
       <c r="L344" t="n">
-        <v>-0.06064751677142066</v>
+        <v>-0.04271695984128687</v>
       </c>
     </row>
     <row r="345">
@@ -13457,7 +13457,7 @@
         <v>222.4528850617238</v>
       </c>
       <c r="L345" t="n">
-        <v>-0.02131991587405468</v>
+        <v>-0.0099842521583835</v>
       </c>
     </row>
     <row r="346">
@@ -13495,7 +13495,7 @@
         <v>222.4962437425252</v>
       </c>
       <c r="L346" t="n">
-        <v>-0.003202750484349259</v>
+        <v>0.0009164103113556976</v>
       </c>
     </row>
     <row r="347">
@@ -13533,7 +13533,7 @@
         <v>233.7466270823001</v>
       </c>
       <c r="L347" t="n">
-        <v>0.03498572100744557</v>
+        <v>0.03055637748668705</v>
       </c>
     </row>
     <row r="348">
@@ -13571,7 +13571,7 @@
         <v>227.8761452517402</v>
       </c>
       <c r="L348" t="n">
-        <v>0.04737978859248837</v>
+        <v>0.04459317660075623</v>
       </c>
     </row>
     <row r="349">
@@ -13609,7 +13609,7 @@
         <v>222.559969380773</v>
       </c>
       <c r="L349" t="n">
-        <v>0.003798448051721692</v>
+        <v>0.01637714245149091</v>
       </c>
     </row>
     <row r="350">
@@ -13647,7 +13647,7 @@
         <v>224.368173686774</v>
       </c>
       <c r="L350" t="n">
-        <v>-0.01513154134301686</v>
+        <v>-0.001855409101592542</v>
       </c>
     </row>
     <row r="351">
@@ -13685,7 +13685,7 @@
         <v>229.8752114156458</v>
       </c>
       <c r="L351" t="n">
-        <v>-0.004968591407690459</v>
+        <v>-0.01180612620201793</v>
       </c>
     </row>
     <row r="352">
@@ -13723,7 +13723,7 @@
         <v>232.1166644102877</v>
       </c>
       <c r="L352" t="n">
-        <v>-0.005348186865547166</v>
+        <v>-0.004088519002447111</v>
       </c>
     </row>
     <row r="353">
@@ -13761,7 +13761,7 @@
         <v>234.2082678983895</v>
       </c>
       <c r="L353" t="n">
-        <v>0.004018320628366157</v>
+        <v>-0.00369128277300601</v>
       </c>
     </row>
     <row r="354">
@@ -13799,7 +13799,7 @@
         <v>255.7979939412681</v>
       </c>
       <c r="L354" t="n">
-        <v>-0.04406101366914283</v>
+        <v>-0.05259692739215405</v>
       </c>
     </row>
     <row r="355">
@@ -13837,7 +13837,7 @@
         <v>281.6981600036274</v>
       </c>
       <c r="L355" t="n">
-        <v>-0.04176827983409348</v>
+        <v>-0.0357184613434689</v>
       </c>
     </row>
     <row r="356">
@@ -13875,7 +13875,7 @@
         <v>295.4740433557288</v>
       </c>
       <c r="L356" t="n">
-        <v>0.04894876938766379</v>
+        <v>0.07657706412078924</v>
       </c>
     </row>
     <row r="357">
@@ -13913,7 +13913,7 @@
         <v>290.3601621735526</v>
       </c>
       <c r="L357" t="n">
-        <v>-0.01312135838127015</v>
+        <v>-0.01173944499589585</v>
       </c>
     </row>
     <row r="358">
@@ -13951,7 +13951,7 @@
         <v>318.5453822482138</v>
       </c>
       <c r="L358" t="n">
-        <v>-0.02142473916136334</v>
+        <v>-0.0066844016328651</v>
       </c>
     </row>
     <row r="359">
@@ -13989,7 +13989,7 @@
         <v>329.6785533209739</v>
       </c>
       <c r="L359" t="n">
-        <v>0.03087635213142348</v>
+        <v>0.02934775198491857</v>
       </c>
     </row>
     <row r="360">
@@ -14027,7 +14027,7 @@
         <v>337.8313335513533</v>
       </c>
       <c r="L360" t="n">
-        <v>0.01883816098724034</v>
+        <v>0.01730032851538943</v>
       </c>
     </row>
     <row r="361">
@@ -14065,7 +14065,7 @@
         <v>347.3707323710077</v>
       </c>
       <c r="L361" t="n">
-        <v>0.03534830275376866</v>
+        <v>0.0399646322915137</v>
       </c>
     </row>
     <row r="362">
@@ -14103,7 +14103,7 @@
         <v>351.5504698385472</v>
       </c>
       <c r="L362" t="n">
-        <v>0.02310408328824187</v>
+        <v>0.02195143480515527</v>
       </c>
     </row>
     <row r="363">
@@ -14141,7 +14141,7 @@
         <v>345.3449088512932</v>
       </c>
       <c r="L363" t="n">
-        <v>0.01119129058467783</v>
+        <v>0.01446373243563537</v>
       </c>
     </row>
     <row r="364">
@@ -14179,7 +14179,7 @@
         <v>355.2596763224341</v>
       </c>
       <c r="L364" t="n">
-        <v>-0.008024344623781987</v>
+        <v>-0.01164095505291551</v>
       </c>
     </row>
     <row r="365">
@@ -14217,7 +14217,7 @@
         <v>355.1674059155526</v>
       </c>
       <c r="L365" t="n">
-        <v>0.02000581956762404</v>
+        <v>0.02144232411411529</v>
       </c>
     </row>
     <row r="366">
@@ -14255,7 +14255,7 @@
         <v>358.6367827585551</v>
       </c>
       <c r="L366" t="n">
-        <v>0.03326625436662278</v>
+        <v>0.02845270131538624</v>
       </c>
     </row>
     <row r="367">
@@ -14293,7 +14293,7 @@
         <v>359.8960953415241</v>
       </c>
       <c r="L367" t="n">
-        <v>0.001323923724185105</v>
+        <v>-0.003344874416540078</v>
       </c>
     </row>
     <row r="368">
@@ -14331,7 +14331,7 @@
         <v>362.7242942663434</v>
       </c>
       <c r="L368" t="n">
-        <v>0.02374142656171063</v>
+        <v>0.04291837169169899</v>
       </c>
     </row>
     <row r="369">
@@ -14369,7 +14369,7 @@
         <v>367.3920801066175</v>
       </c>
       <c r="L369" t="n">
-        <v>0.04052475664822097</v>
+        <v>0.03088501005225197</v>
       </c>
     </row>
     <row r="370">
@@ -14407,7 +14407,7 @@
         <v>372.5849406271993</v>
       </c>
       <c r="L370" t="n">
-        <v>-0.01687862832125209</v>
+        <v>-0.01254449921993039</v>
       </c>
     </row>
     <row r="371">
@@ -14445,7 +14445,7 @@
         <v>385.751982399709</v>
       </c>
       <c r="L371" t="n">
-        <v>0.02568525527434029</v>
+        <v>0.03138377804292181</v>
       </c>
     </row>
     <row r="372">
@@ -14483,7 +14483,7 @@
         <v>386.7167150428403</v>
       </c>
       <c r="L372" t="n">
-        <v>0.02158813564623663</v>
+        <v>0.01509001654269171</v>
       </c>
     </row>
     <row r="373">
@@ -14521,7 +14521,7 @@
         <v>387.9124066274228</v>
       </c>
       <c r="L373" t="n">
-        <v>-0.01595279229057356</v>
+        <v>-0.01102550167629657</v>
       </c>
     </row>
   </sheetData>
